--- a/Music Values.xlsx
+++ b/Music Values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\root\custom-channelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736D19E6-B4DE-4266-A4CF-6F0EB37F7218}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C14EBA4-808A-499E-A5EF-0CD3A481F59B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="75" windowWidth="14400" windowHeight="13455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3690" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>ENV</t>
   </si>
@@ -155,15 +155,58 @@
   <si>
     <t>Harpsicord</t>
   </si>
+  <si>
+    <t>Beat</t>
+  </si>
+  <si>
+    <t>BPM</t>
+  </si>
+  <si>
+    <t>Eighth</t>
+  </si>
+  <si>
+    <t>Eighth Triplet</t>
+  </si>
+  <si>
+    <t>Sixteenth</t>
+  </si>
+  <si>
+    <t>Eighth Quintuplet</t>
+  </si>
+  <si>
+    <t>Sixteenth Triplet</t>
+  </si>
+  <si>
+    <t>Eighth Heptuplet</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -185,11 +228,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,11 +251,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -478,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:V160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -489,9 +572,16 @@
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="7" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="14" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -504,8 +594,32 @@
       <c r="K1" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -543,14 +657,78 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N2" s="7"/>
+      <c r="O2" s="4">
+        <f>150*24/P2</f>
+        <v>3600</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="6" t="b">
+        <f>IF(ROUND($P2/COLUMNS($P$1:Q$1),0)=$P2/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="6" t="b">
+        <f>IF(ROUND($P2/COLUMNS($P$1:R$1),0)=$P2/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="6" t="b">
+        <f>IF(ROUND($P2/COLUMNS($P$1:S$1),0)=$P2/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="6" t="b">
+        <f>IF(ROUND($P2/COLUMNS($P$1:T$1),0)=$P2/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="6" t="b">
+        <f>IF(ROUND($P2/COLUMNS($P$1:U$1),0)=$P2/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="6" t="b">
+        <f>IF(ROUND($P2/COLUMNS($P$1:V$1),0)=$P2/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" s="7"/>
+      <c r="O3" s="4">
+        <f t="shared" ref="O3:O66" si="1">150*24/P3</f>
+        <v>1800</v>
+      </c>
+      <c r="P3">
+        <f>P2+1</f>
+        <v>2</v>
+      </c>
+      <c r="Q3" s="6" t="b">
+        <f>IF(ROUND($P3/COLUMNS($P$1:Q$1),0)=$P3/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R3" s="6" t="b">
+        <f>IF(ROUND($P3/COLUMNS($P$1:R$1),0)=$P3/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="6" t="b">
+        <f>IF(ROUND($P3/COLUMNS($P$1:S$1),0)=$P3/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="6" t="b">
+        <f>IF(ROUND($P3/COLUMNS($P$1:T$1),0)=$P3/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="6" t="b">
+        <f>IF(ROUND($P3/COLUMNS($P$1:U$1),0)=$P3/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="6" t="b">
+        <f>IF(ROUND($P3/COLUMNS($P$1:V$1),0)=$P3/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="str">
         <f>DEC2HEX(HEX2DEC(B3)+1,2)</f>
         <v>01</v>
@@ -570,23 +748,122 @@
       <c r="K4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N4" s="7"/>
+      <c r="O4" s="4">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P14" si="2">P3+1</f>
+        <v>3</v>
+      </c>
+      <c r="Q4" s="6" t="b">
+        <f>IF(ROUND($P4/COLUMNS($P$1:Q$1),0)=$P4/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="6" t="b">
+        <f>IF(ROUND($P4/COLUMNS($P$1:R$1),0)=$P4/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S4" s="6" t="b">
+        <f>IF(ROUND($P4/COLUMNS($P$1:S$1),0)=$P4/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="6" t="b">
+        <f>IF(ROUND($P4/COLUMNS($P$1:T$1),0)=$P4/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="6" t="b">
+        <f>IF(ROUND($P4/COLUMNS($P$1:U$1),0)=$P4/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="6" t="b">
+        <f>IF(ROUND($P4/COLUMNS($P$1:V$1),0)=$P4/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="str">
-        <f t="shared" ref="B5:B6" si="1">DEC2HEX(HEX2DEC(B4)+1,2)</f>
+        <f t="shared" ref="B5:B6" si="3">DEC2HEX(HEX2DEC(B4)+1,2)</f>
         <v>02</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N5" s="7"/>
+      <c r="O5" s="4">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="Q5" s="6" t="b">
+        <f>IF(ROUND($P5/COLUMNS($P$1:Q$1),0)=$P5/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R5" s="6" t="b">
+        <f>IF(ROUND($P5/COLUMNS($P$1:R$1),0)=$P5/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="6" t="b">
+        <f>IF(ROUND($P5/COLUMNS($P$1:S$1),0)=$P5/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T5" s="6" t="b">
+        <f>IF(ROUND($P5/COLUMNS($P$1:T$1),0)=$P5/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="6" t="b">
+        <f>IF(ROUND($P5/COLUMNS($P$1:U$1),0)=$P5/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V5" s="6" t="b">
+        <f>IF(ROUND($P5/COLUMNS($P$1:V$1),0)=$P5/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>03</v>
       </c>
       <c r="G6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="7"/>
+      <c r="O6" s="4">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="Q6" s="6" t="b">
+        <f>IF(ROUND($P6/COLUMNS($P$1:Q$1),0)=$P6/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="6" t="b">
+        <f>IF(ROUND($P6/COLUMNS($P$1:R$1),0)=$P6/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="6" t="b">
+        <f>IF(ROUND($P6/COLUMNS($P$1:S$1),0)=$P6/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="6" t="b">
+        <f>IF(ROUND($P6/COLUMNS($P$1:T$1),0)=$P6/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U6" s="6" t="b">
+        <f>IF(ROUND($P6/COLUMNS($P$1:U$1),0)=$P6/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V6" s="6" t="b">
+        <f>IF(ROUND($P6/COLUMNS($P$1:V$1),0)=$P6/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -599,8 +876,41 @@
       <c r="F7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N7" s="7"/>
+      <c r="O7" s="4">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="Q7" s="6" t="b">
+        <f>IF(ROUND($P7/COLUMNS($P$1:Q$1),0)=$P7/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R7" s="6" t="b">
+        <f>IF(ROUND($P7/COLUMNS($P$1:R$1),0)=$P7/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S7" s="6" t="b">
+        <f>IF(ROUND($P7/COLUMNS($P$1:S$1),0)=$P7/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="6" t="b">
+        <f>IF(ROUND($P7/COLUMNS($P$1:T$1),0)=$P7/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="6" t="b">
+        <f>IF(ROUND($P7/COLUMNS($P$1:U$1),0)=$P7/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V7" s="6" t="b">
+        <f>IF(ROUND($P7/COLUMNS($P$1:V$1),0)=$P7/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
@@ -608,14 +918,47 @@
         <v>22</v>
       </c>
       <c r="F8" t="str">
-        <f>"e"&amp;G8</f>
+        <f t="shared" ref="F8:F15" si="4">"e"&amp;G8</f>
         <v>e0</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N8" s="7"/>
+      <c r="O8" s="4">
+        <f t="shared" si="1"/>
+        <v>514.28571428571433</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="Q8" s="6" t="b">
+        <f>IF(ROUND($P8/COLUMNS($P$1:Q$1),0)=$P8/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="6" t="b">
+        <f>IF(ROUND($P8/COLUMNS($P$1:R$1),0)=$P8/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="6" t="b">
+        <f>IF(ROUND($P8/COLUMNS($P$1:S$1),0)=$P8/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="6" t="b">
+        <f>IF(ROUND($P8/COLUMNS($P$1:T$1),0)=$P8/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="6" t="b">
+        <f>IF(ROUND($P8/COLUMNS($P$1:U$1),0)=$P8/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V8" s="6" t="b">
+        <f>IF(ROUND($P8/COLUMNS($P$1:V$1),0)=$P8/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -623,15 +966,48 @@
         <v>23</v>
       </c>
       <c r="F9" t="str">
-        <f>"e"&amp;G9</f>
+        <f t="shared" si="4"/>
         <v>e1</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>DEC2HEX(HEX2DEC(G8)+1,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G9:G15" si="5">DEC2HEX(HEX2DEC(G8)+1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="4">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="Q9" s="6" t="b">
+        <f>IF(ROUND($P9/COLUMNS($P$1:Q$1),0)=$P9/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R9" s="6" t="b">
+        <f>IF(ROUND($P9/COLUMNS($P$1:R$1),0)=$P9/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="6" t="b">
+        <f>IF(ROUND($P9/COLUMNS($P$1:S$1),0)=$P9/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T9" s="6" t="b">
+        <f>IF(ROUND($P9/COLUMNS($P$1:T$1),0)=$P9/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="6" t="b">
+        <f>IF(ROUND($P9/COLUMNS($P$1:U$1),0)=$P9/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="6" t="b">
+        <f>IF(ROUND($P9/COLUMNS($P$1:V$1),0)=$P9/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
@@ -639,15 +1015,48 @@
         <v>24</v>
       </c>
       <c r="F10" t="str">
-        <f>"e"&amp;G10</f>
+        <f t="shared" si="4"/>
         <v>e2</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f>DEC2HEX(HEX2DEC(G9)+1,1)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N10" s="7"/>
+      <c r="O10" s="4">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q10" s="6" t="b">
+        <f>IF(ROUND($P10/COLUMNS($P$1:Q$1),0)=$P10/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="6" t="b">
+        <f>IF(ROUND($P10/COLUMNS($P$1:R$1),0)=$P10/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S10" s="6" t="b">
+        <f>IF(ROUND($P10/COLUMNS($P$1:S$1),0)=$P10/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="6" t="b">
+        <f>IF(ROUND($P10/COLUMNS($P$1:T$1),0)=$P10/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="6" t="b">
+        <f>IF(ROUND($P10/COLUMNS($P$1:U$1),0)=$P10/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="6" t="b">
+        <f>IF(ROUND($P10/COLUMNS($P$1:V$1),0)=$P10/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
@@ -655,31 +1064,100 @@
         <v>25</v>
       </c>
       <c r="F11" t="str">
-        <f>"e"&amp;G11</f>
+        <f t="shared" si="4"/>
         <v>e3</v>
       </c>
       <c r="G11" s="1" t="str">
-        <f>DEC2HEX(HEX2DEC(G10)+1,1)</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N11" s="7"/>
+      <c r="O11" s="4">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q11" s="6" t="b">
+        <f>IF(ROUND($P11/COLUMNS($P$1:Q$1),0)=$P11/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R11" s="6" t="b">
+        <f>IF(ROUND($P11/COLUMNS($P$1:R$1),0)=$P11/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="6" t="b">
+        <f>IF(ROUND($P11/COLUMNS($P$1:S$1),0)=$P11/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="6" t="b">
+        <f>IF(ROUND($P11/COLUMNS($P$1:T$1),0)=$P11/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U11" s="6" t="b">
+        <f>IF(ROUND($P11/COLUMNS($P$1:U$1),0)=$P11/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="6" t="b">
+        <f>IF(ROUND($P11/COLUMNS($P$1:V$1),0)=$P11/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
       </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
       <c r="F12" t="str">
-        <f>"e"&amp;G12</f>
+        <f t="shared" si="4"/>
         <v>e4</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>DEC2HEX(HEX2DEC(G11)+1,1)</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N12" s="7"/>
+      <c r="O12" s="4">
+        <f t="shared" si="1"/>
+        <v>327.27272727272725</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="Q12" s="6" t="b">
+        <f>IF(ROUND($P12/COLUMNS($P$1:Q$1),0)=$P12/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="6" t="b">
+        <f>IF(ROUND($P12/COLUMNS($P$1:R$1),0)=$P12/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="6" t="b">
+        <f>IF(ROUND($P12/COLUMNS($P$1:S$1),0)=$P12/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="6" t="b">
+        <f>IF(ROUND($P12/COLUMNS($P$1:T$1),0)=$P12/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="6" t="b">
+        <f>IF(ROUND($P12/COLUMNS($P$1:U$1),0)=$P12/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="6" t="b">
+        <f>IF(ROUND($P12/COLUMNS($P$1:V$1),0)=$P12/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
@@ -687,31 +1165,100 @@
         <v>27</v>
       </c>
       <c r="F13" t="str">
-        <f>"e"&amp;G13</f>
+        <f t="shared" si="4"/>
         <v>e5</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f>DEC2HEX(HEX2DEC(G12)+1,1)</f>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N13" s="7"/>
+      <c r="O13" s="8">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="P13" s="9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="Q13" s="6" t="b">
+        <f>IF(ROUND($P13/COLUMNS($P$1:Q$1),0)=$P13/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R13" s="6" t="b">
+        <f>IF(ROUND($P13/COLUMNS($P$1:R$1),0)=$P13/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S13" s="6" t="b">
+        <f>IF(ROUND($P13/COLUMNS($P$1:S$1),0)=$P13/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T13" s="6" t="b">
+        <f>IF(ROUND($P13/COLUMNS($P$1:T$1),0)=$P13/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="6" t="b">
+        <f>IF(ROUND($P13/COLUMNS($P$1:U$1),0)=$P13/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V13" s="6" t="b">
+        <f>IF(ROUND($P13/COLUMNS($P$1:V$1),0)=$P13/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>41</v>
       </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
       <c r="F14" t="str">
-        <f>"e"&amp;G14</f>
+        <f t="shared" si="4"/>
         <v>e6</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>DEC2HEX(HEX2DEC(G13)+1,1)</f>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N14" s="7"/>
+      <c r="O14" s="4">
+        <f>150*24/P14</f>
+        <v>276.92307692307691</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="Q14" s="6" t="b">
+        <f>IF(ROUND($P14/COLUMNS($P$1:Q$1),0)=$P14/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="6" t="b">
+        <f>IF(ROUND($P14/COLUMNS($P$1:R$1),0)=$P14/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="6" t="b">
+        <f>IF(ROUND($P14/COLUMNS($P$1:S$1),0)=$P14/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="6" t="b">
+        <f>IF(ROUND($P14/COLUMNS($P$1:T$1),0)=$P14/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="6" t="b">
+        <f>IF(ROUND($P14/COLUMNS($P$1:U$1),0)=$P14/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="6" t="b">
+        <f>IF(ROUND($P14/COLUMNS($P$1:V$1),0)=$P14/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
@@ -719,18 +1266,51 @@
         <v>28</v>
       </c>
       <c r="F15" t="str">
-        <f>"e"&amp;G15</f>
+        <f t="shared" si="4"/>
         <v>e7</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f>DEC2HEX(HEX2DEC(G14)+1,1)</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="H15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N15" s="7"/>
+      <c r="O15" s="4">
+        <f t="shared" si="1"/>
+        <v>257.14285714285717</v>
+      </c>
+      <c r="P15">
+        <f>P14+1</f>
+        <v>14</v>
+      </c>
+      <c r="Q15" s="6" t="b">
+        <f>IF(ROUND($P15/COLUMNS($P$1:Q$1),0)=$P15/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R15" s="6" t="b">
+        <f>IF(ROUND($P15/COLUMNS($P$1:R$1),0)=$P15/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="6" t="b">
+        <f>IF(ROUND($P15/COLUMNS($P$1:S$1),0)=$P15/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="6" t="b">
+        <f>IF(ROUND($P15/COLUMNS($P$1:T$1),0)=$P15/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="6" t="b">
+        <f>IF(ROUND($P15/COLUMNS($P$1:U$1),0)=$P15/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="6" t="b">
+        <f>IF(ROUND($P15/COLUMNS($P$1:V$1),0)=$P15/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
@@ -741,40 +1321,4875 @@
         <v>5</v>
       </c>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="N16" s="7"/>
+      <c r="O16" s="4">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ref="P16:P27" si="6">P15+1</f>
+        <v>15</v>
+      </c>
+      <c r="Q16" s="6" t="b">
+        <f>IF(ROUND($P16/COLUMNS($P$1:Q$1),0)=$P16/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="6" t="b">
+        <f>IF(ROUND($P16/COLUMNS($P$1:R$1),0)=$P16/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S16" s="6" t="b">
+        <f>IF(ROUND($P16/COLUMNS($P$1:S$1),0)=$P16/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="6" t="b">
+        <f>IF(ROUND($P16/COLUMNS($P$1:T$1),0)=$P16/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U16" s="6" t="b">
+        <f>IF(ROUND($P16/COLUMNS($P$1:U$1),0)=$P16/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V16" s="6" t="b">
+        <f>IF(ROUND($P16/COLUMNS($P$1:V$1),0)=$P16/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="7"/>
+      <c r="O17" s="4">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="Q17" s="6" t="b">
+        <f>IF(ROUND($P17/COLUMNS($P$1:Q$1),0)=$P17/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R17" s="6" t="b">
+        <f>IF(ROUND($P17/COLUMNS($P$1:R$1),0)=$P17/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="6" t="b">
+        <f>IF(ROUND($P17/COLUMNS($P$1:S$1),0)=$P17/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T17" s="6" t="b">
+        <f>IF(ROUND($P17/COLUMNS($P$1:T$1),0)=$P17/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="6" t="b">
+        <f>IF(ROUND($P17/COLUMNS($P$1:U$1),0)=$P17/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="6" t="b">
+        <f>IF(ROUND($P17/COLUMNS($P$1:V$1),0)=$P17/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="7"/>
+      <c r="O18" s="4">
+        <f t="shared" si="1"/>
+        <v>211.76470588235293</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="Q18" s="6" t="b">
+        <f>IF(ROUND($P18/COLUMNS($P$1:Q$1),0)=$P18/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="6" t="b">
+        <f>IF(ROUND($P18/COLUMNS($P$1:R$1),0)=$P18/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="6" t="b">
+        <f>IF(ROUND($P18/COLUMNS($P$1:S$1),0)=$P18/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="6" t="b">
+        <f>IF(ROUND($P18/COLUMNS($P$1:T$1),0)=$P18/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="6" t="b">
+        <f>IF(ROUND($P18/COLUMNS($P$1:U$1),0)=$P18/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="6" t="b">
+        <f>IF(ROUND($P18/COLUMNS($P$1:V$1),0)=$P18/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="7"/>
+      <c r="O19" s="4">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="Q19" s="6" t="b">
+        <f>IF(ROUND($P19/COLUMNS($P$1:Q$1),0)=$P19/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R19" s="6" t="b">
+        <f>IF(ROUND($P19/COLUMNS($P$1:R$1),0)=$P19/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S19" s="6" t="b">
+        <f>IF(ROUND($P19/COLUMNS($P$1:S$1),0)=$P19/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="6" t="b">
+        <f>IF(ROUND($P19/COLUMNS($P$1:T$1),0)=$P19/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="6" t="b">
+        <f>IF(ROUND($P19/COLUMNS($P$1:U$1),0)=$P19/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V19" s="6" t="b">
+        <f>IF(ROUND($P19/COLUMNS($P$1:V$1),0)=$P19/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N20" s="7"/>
+      <c r="O20" s="4">
+        <f t="shared" si="1"/>
+        <v>189.47368421052633</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="Q20" s="6" t="b">
+        <f>IF(ROUND($P20/COLUMNS($P$1:Q$1),0)=$P20/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="6" t="b">
+        <f>IF(ROUND($P20/COLUMNS($P$1:R$1),0)=$P20/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="6" t="b">
+        <f>IF(ROUND($P20/COLUMNS($P$1:S$1),0)=$P20/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="6" t="b">
+        <f>IF(ROUND($P20/COLUMNS($P$1:T$1),0)=$P20/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="6" t="b">
+        <f>IF(ROUND($P20/COLUMNS($P$1:U$1),0)=$P20/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="6" t="b">
+        <f>IF(ROUND($P20/COLUMNS($P$1:V$1),0)=$P20/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N21" s="7"/>
+      <c r="O21" s="4">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="C17" t="s">
+      <c r="Q21" s="6" t="b">
+        <f>IF(ROUND($P21/COLUMNS($P$1:Q$1),0)=$P21/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R21" s="6" t="b">
+        <f>IF(ROUND($P21/COLUMNS($P$1:R$1),0)=$P21/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="6" t="b">
+        <f>IF(ROUND($P21/COLUMNS($P$1:S$1),0)=$P21/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T21" s="6" t="b">
+        <f>IF(ROUND($P21/COLUMNS($P$1:T$1),0)=$P21/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U21" s="6" t="b">
+        <f>IF(ROUND($P21/COLUMNS($P$1:U$1),0)=$P21/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="6" t="b">
+        <f>IF(ROUND($P21/COLUMNS($P$1:V$1),0)=$P21/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N22" s="7"/>
+      <c r="O22" s="4">
+        <f t="shared" si="1"/>
+        <v>171.42857142857142</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="Q22" s="6" t="b">
+        <f>IF(ROUND($P22/COLUMNS($P$1:Q$1),0)=$P22/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="6" t="b">
+        <f>IF(ROUND($P22/COLUMNS($P$1:R$1),0)=$P22/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S22" s="6" t="b">
+        <f>IF(ROUND($P22/COLUMNS($P$1:S$1),0)=$P22/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="6" t="b">
+        <f>IF(ROUND($P22/COLUMNS($P$1:T$1),0)=$P22/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="6" t="b">
+        <f>IF(ROUND($P22/COLUMNS($P$1:U$1),0)=$P22/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="6" t="b">
+        <f>IF(ROUND($P22/COLUMNS($P$1:V$1),0)=$P22/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N23" s="7"/>
+      <c r="O23" s="4">
+        <f t="shared" si="1"/>
+        <v>163.63636363636363</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="Q23" s="6" t="b">
+        <f>IF(ROUND($P23/COLUMNS($P$1:Q$1),0)=$P23/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R23" s="6" t="b">
+        <f>IF(ROUND($P23/COLUMNS($P$1:R$1),0)=$P23/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="6" t="b">
+        <f>IF(ROUND($P23/COLUMNS($P$1:S$1),0)=$P23/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="6" t="b">
+        <f>IF(ROUND($P23/COLUMNS($P$1:T$1),0)=$P23/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="6" t="b">
+        <f>IF(ROUND($P23/COLUMNS($P$1:U$1),0)=$P23/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="6" t="b">
+        <f>IF(ROUND($P23/COLUMNS($P$1:V$1),0)=$P23/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N24" s="7"/>
+      <c r="O24" s="4">
+        <f t="shared" si="1"/>
+        <v>156.52173913043478</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="Q24" s="6" t="b">
+        <f>IF(ROUND($P24/COLUMNS($P$1:Q$1),0)=$P24/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="6" t="b">
+        <f>IF(ROUND($P24/COLUMNS($P$1:R$1),0)=$P24/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="6" t="b">
+        <f>IF(ROUND($P24/COLUMNS($P$1:S$1),0)=$P24/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="6" t="b">
+        <f>IF(ROUND($P24/COLUMNS($P$1:T$1),0)=$P24/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="6" t="b">
+        <f>IF(ROUND($P24/COLUMNS($P$1:U$1),0)=$P24/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="6" t="b">
+        <f>IF(ROUND($P24/COLUMNS($P$1:V$1),0)=$P24/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N25" s="7"/>
+      <c r="O25" s="8">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="P25" s="9">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="Q25" s="6" t="b">
+        <f>IF(ROUND($P25/COLUMNS($P$1:Q$1),0)=$P25/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R25" s="6" t="b">
+        <f>IF(ROUND($P25/COLUMNS($P$1:R$1),0)=$P25/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S25" s="6" t="b">
+        <f>IF(ROUND($P25/COLUMNS($P$1:S$1),0)=$P25/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T25" s="6" t="b">
+        <f>IF(ROUND($P25/COLUMNS($P$1:T$1),0)=$P25/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="6" t="b">
+        <f>IF(ROUND($P25/COLUMNS($P$1:U$1),0)=$P25/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V25" s="6" t="b">
+        <f>IF(ROUND($P25/COLUMNS($P$1:V$1),0)=$P25/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N26" s="7"/>
+      <c r="O26" s="4">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="Q26" s="6" t="b">
+        <f>IF(ROUND($P26/COLUMNS($P$1:Q$1),0)=$P26/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="6" t="b">
+        <f>IF(ROUND($P26/COLUMNS($P$1:R$1),0)=$P26/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="6" t="b">
+        <f>IF(ROUND($P26/COLUMNS($P$1:S$1),0)=$P26/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="6" t="b">
+        <f>IF(ROUND($P26/COLUMNS($P$1:T$1),0)=$P26/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U26" s="6" t="b">
+        <f>IF(ROUND($P26/COLUMNS($P$1:U$1),0)=$P26/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="6" t="b">
+        <f>IF(ROUND($P26/COLUMNS($P$1:V$1),0)=$P26/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N27" s="7"/>
+      <c r="O27" s="4">
+        <f t="shared" si="1"/>
+        <v>138.46153846153845</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="Q27" s="6" t="b">
+        <f>IF(ROUND($P27/COLUMNS($P$1:Q$1),0)=$P27/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R27" s="6" t="b">
+        <f>IF(ROUND($P27/COLUMNS($P$1:R$1),0)=$P27/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="6" t="b">
+        <f>IF(ROUND($P27/COLUMNS($P$1:S$1),0)=$P27/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="6" t="b">
+        <f>IF(ROUND($P27/COLUMNS($P$1:T$1),0)=$P27/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="6" t="b">
+        <f>IF(ROUND($P27/COLUMNS($P$1:U$1),0)=$P27/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="6" t="b">
+        <f>IF(ROUND($P27/COLUMNS($P$1:V$1),0)=$P27/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N28" s="7"/>
+      <c r="O28" s="4">
+        <f t="shared" si="1"/>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="P28">
+        <f t="shared" ref="P28:P91" si="7">P27+1</f>
+        <v>27</v>
+      </c>
+      <c r="Q28" s="6" t="b">
+        <f>IF(ROUND($P28/COLUMNS($P$1:Q$1),0)=$P28/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="6" t="b">
+        <f>IF(ROUND($P28/COLUMNS($P$1:R$1),0)=$P28/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S28" s="6" t="b">
+        <f>IF(ROUND($P28/COLUMNS($P$1:S$1),0)=$P28/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="6" t="b">
+        <f>IF(ROUND($P28/COLUMNS($P$1:T$1),0)=$P28/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="6" t="b">
+        <f>IF(ROUND($P28/COLUMNS($P$1:U$1),0)=$P28/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="6" t="b">
+        <f>IF(ROUND($P28/COLUMNS($P$1:V$1),0)=$P28/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N29" s="7"/>
+      <c r="O29" s="4">
+        <f t="shared" si="1"/>
+        <v>128.57142857142858</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="Q29" s="6" t="b">
+        <f>IF(ROUND($P29/COLUMNS($P$1:Q$1),0)=$P29/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R29" s="6" t="b">
+        <f>IF(ROUND($P29/COLUMNS($P$1:R$1),0)=$P29/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="6" t="b">
+        <f>IF(ROUND($P29/COLUMNS($P$1:S$1),0)=$P29/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T29" s="6" t="b">
+        <f>IF(ROUND($P29/COLUMNS($P$1:T$1),0)=$P29/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="6" t="b">
+        <f>IF(ROUND($P29/COLUMNS($P$1:U$1),0)=$P29/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V29" s="6" t="b">
+        <f>IF(ROUND($P29/COLUMNS($P$1:V$1),0)=$P29/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N30" s="7"/>
+      <c r="O30" s="4">
+        <f t="shared" si="1"/>
+        <v>124.13793103448276</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="7"/>
+        <v>29</v>
+      </c>
+      <c r="Q30" s="6" t="b">
+        <f>IF(ROUND($P30/COLUMNS($P$1:Q$1),0)=$P30/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="6" t="b">
+        <f>IF(ROUND($P30/COLUMNS($P$1:R$1),0)=$P30/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="6" t="b">
+        <f>IF(ROUND($P30/COLUMNS($P$1:S$1),0)=$P30/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="6" t="b">
+        <f>IF(ROUND($P30/COLUMNS($P$1:T$1),0)=$P30/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="6" t="b">
+        <f>IF(ROUND($P30/COLUMNS($P$1:U$1),0)=$P30/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="6" t="b">
+        <f>IF(ROUND($P30/COLUMNS($P$1:V$1),0)=$P30/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N31" s="7"/>
+      <c r="O31" s="4">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="Q31" s="6" t="b">
+        <f>IF(ROUND($P31/COLUMNS($P$1:Q$1),0)=$P31/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R31" s="6" t="b">
+        <f>IF(ROUND($P31/COLUMNS($P$1:R$1),0)=$P31/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S31" s="6" t="b">
+        <f>IF(ROUND($P31/COLUMNS($P$1:S$1),0)=$P31/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="6" t="b">
+        <f>IF(ROUND($P31/COLUMNS($P$1:T$1),0)=$P31/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U31" s="6" t="b">
+        <f>IF(ROUND($P31/COLUMNS($P$1:U$1),0)=$P31/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V31" s="6" t="b">
+        <f>IF(ROUND($P31/COLUMNS($P$1:V$1),0)=$P31/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="N32" s="7"/>
+      <c r="O32" s="4">
+        <f t="shared" si="1"/>
+        <v>116.12903225806451</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="Q32" s="6" t="b">
+        <f>IF(ROUND($P32/COLUMNS($P$1:Q$1),0)=$P32/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="6" t="b">
+        <f>IF(ROUND($P32/COLUMNS($P$1:R$1),0)=$P32/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="6" t="b">
+        <f>IF(ROUND($P32/COLUMNS($P$1:S$1),0)=$P32/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="6" t="b">
+        <f>IF(ROUND($P32/COLUMNS($P$1:T$1),0)=$P32/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="6" t="b">
+        <f>IF(ROUND($P32/COLUMNS($P$1:U$1),0)=$P32/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V32" s="6" t="b">
+        <f>IF(ROUND($P32/COLUMNS($P$1:V$1),0)=$P32/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N33" s="7"/>
+      <c r="O33" s="4">
+        <f t="shared" si="1"/>
+        <v>112.5</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="7"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="Q33" s="6" t="b">
+        <f>IF(ROUND($P33/COLUMNS($P$1:Q$1),0)=$P33/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R33" s="6" t="b">
+        <f>IF(ROUND($P33/COLUMNS($P$1:R$1),0)=$P33/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="6" t="b">
+        <f>IF(ROUND($P33/COLUMNS($P$1:S$1),0)=$P33/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T33" s="6" t="b">
+        <f>IF(ROUND($P33/COLUMNS($P$1:T$1),0)=$P33/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="6" t="b">
+        <f>IF(ROUND($P33/COLUMNS($P$1:U$1),0)=$P33/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="6" t="b">
+        <f>IF(ROUND($P33/COLUMNS($P$1:V$1),0)=$P33/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N34" s="7"/>
+      <c r="O34" s="4">
+        <f t="shared" si="1"/>
+        <v>109.09090909090909</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="7"/>
         <v>33</v>
       </c>
+      <c r="Q34" s="6" t="b">
+        <f>IF(ROUND($P34/COLUMNS($P$1:Q$1),0)=$P34/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="6" t="b">
+        <f>IF(ROUND($P34/COLUMNS($P$1:R$1),0)=$P34/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S34" s="6" t="b">
+        <f>IF(ROUND($P34/COLUMNS($P$1:S$1),0)=$P34/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="6" t="b">
+        <f>IF(ROUND($P34/COLUMNS($P$1:T$1),0)=$P34/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="6" t="b">
+        <f>IF(ROUND($P34/COLUMNS($P$1:U$1),0)=$P34/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V34" s="6" t="b">
+        <f>IF(ROUND($P34/COLUMNS($P$1:V$1),0)=$P34/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N35" s="7"/>
+      <c r="O35" s="4">
+        <f t="shared" si="1"/>
+        <v>105.88235294117646</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="7"/>
+        <v>34</v>
+      </c>
+      <c r="Q35" s="6" t="b">
+        <f>IF(ROUND($P35/COLUMNS($P$1:Q$1),0)=$P35/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R35" s="6" t="b">
+        <f>IF(ROUND($P35/COLUMNS($P$1:R$1),0)=$P35/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="6" t="b">
+        <f>IF(ROUND($P35/COLUMNS($P$1:S$1),0)=$P35/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="6" t="b">
+        <f>IF(ROUND($P35/COLUMNS($P$1:T$1),0)=$P35/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="6" t="b">
+        <f>IF(ROUND($P35/COLUMNS($P$1:U$1),0)=$P35/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V35" s="6" t="b">
+        <f>IF(ROUND($P35/COLUMNS($P$1:V$1),0)=$P35/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N36" s="7"/>
+      <c r="O36" s="4">
+        <f t="shared" si="1"/>
+        <v>102.85714285714286</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="Q36" s="6" t="b">
+        <f>IF(ROUND($P36/COLUMNS($P$1:Q$1),0)=$P36/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="6" t="b">
+        <f>IF(ROUND($P36/COLUMNS($P$1:R$1),0)=$P36/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="6" t="b">
+        <f>IF(ROUND($P36/COLUMNS($P$1:S$1),0)=$P36/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="6" t="b">
+        <f>IF(ROUND($P36/COLUMNS($P$1:T$1),0)=$P36/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U36" s="6" t="b">
+        <f>IF(ROUND($P36/COLUMNS($P$1:U$1),0)=$P36/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V36" s="6" t="b">
+        <f>IF(ROUND($P36/COLUMNS($P$1:V$1),0)=$P36/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N37" s="7"/>
+      <c r="O37" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="P37" s="9">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="Q37" s="6" t="b">
+        <f>IF(ROUND($P37/COLUMNS($P$1:Q$1),0)=$P37/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R37" s="6" t="b">
+        <f>IF(ROUND($P37/COLUMNS($P$1:R$1),0)=$P37/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S37" s="6" t="b">
+        <f>IF(ROUND($P37/COLUMNS($P$1:S$1),0)=$P37/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T37" s="6" t="b">
+        <f>IF(ROUND($P37/COLUMNS($P$1:T$1),0)=$P37/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="6" t="b">
+        <f>IF(ROUND($P37/COLUMNS($P$1:U$1),0)=$P37/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V37" s="6" t="b">
+        <f>IF(ROUND($P37/COLUMNS($P$1:V$1),0)=$P37/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="14:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N38" s="7"/>
+      <c r="O38" s="4">
+        <f t="shared" si="1"/>
+        <v>97.297297297297291</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="7"/>
+        <v>37</v>
+      </c>
+      <c r="Q38" s="6" t="b">
+        <f>IF(ROUND($P38/COLUMNS($P$1:Q$1),0)=$P38/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R38" s="6" t="b">
+        <f>IF(ROUND($P38/COLUMNS($P$1:R$1),0)=$P38/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="6" t="b">
+        <f>IF(ROUND($P38/COLUMNS($P$1:S$1),0)=$P38/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T38" s="6" t="b">
+        <f>IF(ROUND($P38/COLUMNS($P$1:T$1),0)=$P38/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U38" s="6" t="b">
+        <f>IF(ROUND($P38/COLUMNS($P$1:U$1),0)=$P38/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V38" s="6" t="b">
+        <f>IF(ROUND($P38/COLUMNS($P$1:V$1),0)=$P38/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N39" s="7"/>
+      <c r="O39" s="4">
+        <f t="shared" si="1"/>
+        <v>94.736842105263165</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="Q39" s="6" t="b">
+        <f>IF(ROUND($P39/COLUMNS($P$1:Q$1),0)=$P39/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R39" s="6" t="b">
+        <f>IF(ROUND($P39/COLUMNS($P$1:R$1),0)=$P39/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="6" t="b">
+        <f>IF(ROUND($P39/COLUMNS($P$1:S$1),0)=$P39/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T39" s="6" t="b">
+        <f>IF(ROUND($P39/COLUMNS($P$1:T$1),0)=$P39/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U39" s="6" t="b">
+        <f>IF(ROUND($P39/COLUMNS($P$1:U$1),0)=$P39/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V39" s="6" t="b">
+        <f>IF(ROUND($P39/COLUMNS($P$1:V$1),0)=$P39/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N40" s="7"/>
+      <c r="O40" s="4">
+        <f t="shared" si="1"/>
+        <v>92.307692307692307</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="Q40" s="6" t="b">
+        <f>IF(ROUND($P40/COLUMNS($P$1:Q$1),0)=$P40/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="6" t="b">
+        <f>IF(ROUND($P40/COLUMNS($P$1:R$1),0)=$P40/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S40" s="6" t="b">
+        <f>IF(ROUND($P40/COLUMNS($P$1:S$1),0)=$P40/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T40" s="6" t="b">
+        <f>IF(ROUND($P40/COLUMNS($P$1:T$1),0)=$P40/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U40" s="6" t="b">
+        <f>IF(ROUND($P40/COLUMNS($P$1:U$1),0)=$P40/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V40" s="6" t="b">
+        <f>IF(ROUND($P40/COLUMNS($P$1:V$1),0)=$P40/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N41" s="7"/>
+      <c r="O41" s="4">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="Q41" s="6" t="b">
+        <f>IF(ROUND($P41/COLUMNS($P$1:Q$1),0)=$P41/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R41" s="6" t="b">
+        <f>IF(ROUND($P41/COLUMNS($P$1:R$1),0)=$P41/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="6" t="b">
+        <f>IF(ROUND($P41/COLUMNS($P$1:S$1),0)=$P41/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T41" s="6" t="b">
+        <f>IF(ROUND($P41/COLUMNS($P$1:T$1),0)=$P41/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U41" s="6" t="b">
+        <f>IF(ROUND($P41/COLUMNS($P$1:U$1),0)=$P41/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V41" s="6" t="b">
+        <f>IF(ROUND($P41/COLUMNS($P$1:V$1),0)=$P41/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N42" s="7"/>
+      <c r="O42" s="4">
+        <f t="shared" si="1"/>
+        <v>87.804878048780495</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="7"/>
+        <v>41</v>
+      </c>
+      <c r="Q42" s="6" t="b">
+        <f>IF(ROUND($P42/COLUMNS($P$1:Q$1),0)=$P42/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R42" s="6" t="b">
+        <f>IF(ROUND($P42/COLUMNS($P$1:R$1),0)=$P42/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S42" s="6" t="b">
+        <f>IF(ROUND($P42/COLUMNS($P$1:S$1),0)=$P42/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T42" s="6" t="b">
+        <f>IF(ROUND($P42/COLUMNS($P$1:T$1),0)=$P42/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U42" s="6" t="b">
+        <f>IF(ROUND($P42/COLUMNS($P$1:U$1),0)=$P42/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V42" s="6" t="b">
+        <f>IF(ROUND($P42/COLUMNS($P$1:V$1),0)=$P42/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N43" s="7"/>
+      <c r="O43" s="4">
+        <f t="shared" si="1"/>
+        <v>85.714285714285708</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
+      <c r="Q43" s="6" t="b">
+        <f>IF(ROUND($P43/COLUMNS($P$1:Q$1),0)=$P43/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R43" s="6" t="b">
+        <f>IF(ROUND($P43/COLUMNS($P$1:R$1),0)=$P43/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S43" s="6" t="b">
+        <f>IF(ROUND($P43/COLUMNS($P$1:S$1),0)=$P43/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T43" s="6" t="b">
+        <f>IF(ROUND($P43/COLUMNS($P$1:T$1),0)=$P43/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U43" s="6" t="b">
+        <f>IF(ROUND($P43/COLUMNS($P$1:U$1),0)=$P43/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V43" s="6" t="b">
+        <f>IF(ROUND($P43/COLUMNS($P$1:V$1),0)=$P43/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N44" s="7"/>
+      <c r="O44" s="4">
+        <f t="shared" si="1"/>
+        <v>83.720930232558146</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="7"/>
+        <v>43</v>
+      </c>
+      <c r="Q44" s="6" t="b">
+        <f>IF(ROUND($P44/COLUMNS($P$1:Q$1),0)=$P44/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R44" s="6" t="b">
+        <f>IF(ROUND($P44/COLUMNS($P$1:R$1),0)=$P44/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="6" t="b">
+        <f>IF(ROUND($P44/COLUMNS($P$1:S$1),0)=$P44/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T44" s="6" t="b">
+        <f>IF(ROUND($P44/COLUMNS($P$1:T$1),0)=$P44/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U44" s="6" t="b">
+        <f>IF(ROUND($P44/COLUMNS($P$1:U$1),0)=$P44/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V44" s="6" t="b">
+        <f>IF(ROUND($P44/COLUMNS($P$1:V$1),0)=$P44/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N45" s="7"/>
+      <c r="O45" s="4">
+        <f t="shared" si="1"/>
+        <v>81.818181818181813</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+      <c r="Q45" s="6" t="b">
+        <f>IF(ROUND($P45/COLUMNS($P$1:Q$1),0)=$P45/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R45" s="6" t="b">
+        <f>IF(ROUND($P45/COLUMNS($P$1:R$1),0)=$P45/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S45" s="6" t="b">
+        <f>IF(ROUND($P45/COLUMNS($P$1:S$1),0)=$P45/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T45" s="6" t="b">
+        <f>IF(ROUND($P45/COLUMNS($P$1:T$1),0)=$P45/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U45" s="6" t="b">
+        <f>IF(ROUND($P45/COLUMNS($P$1:U$1),0)=$P45/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V45" s="6" t="b">
+        <f>IF(ROUND($P45/COLUMNS($P$1:V$1),0)=$P45/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N46" s="7"/>
+      <c r="O46" s="4">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="Q46" s="6" t="b">
+        <f>IF(ROUND($P46/COLUMNS($P$1:Q$1),0)=$P46/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R46" s="6" t="b">
+        <f>IF(ROUND($P46/COLUMNS($P$1:R$1),0)=$P46/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S46" s="6" t="b">
+        <f>IF(ROUND($P46/COLUMNS($P$1:S$1),0)=$P46/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T46" s="6" t="b">
+        <f>IF(ROUND($P46/COLUMNS($P$1:T$1),0)=$P46/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U46" s="6" t="b">
+        <f>IF(ROUND($P46/COLUMNS($P$1:U$1),0)=$P46/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V46" s="6" t="b">
+        <f>IF(ROUND($P46/COLUMNS($P$1:V$1),0)=$P46/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N47" s="7"/>
+      <c r="O47" s="4">
+        <f t="shared" si="1"/>
+        <v>78.260869565217391</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="7"/>
+        <v>46</v>
+      </c>
+      <c r="Q47" s="6" t="b">
+        <f>IF(ROUND($P47/COLUMNS($P$1:Q$1),0)=$P47/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R47" s="6" t="b">
+        <f>IF(ROUND($P47/COLUMNS($P$1:R$1),0)=$P47/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S47" s="6" t="b">
+        <f>IF(ROUND($P47/COLUMNS($P$1:S$1),0)=$P47/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T47" s="6" t="b">
+        <f>IF(ROUND($P47/COLUMNS($P$1:T$1),0)=$P47/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U47" s="6" t="b">
+        <f>IF(ROUND($P47/COLUMNS($P$1:U$1),0)=$P47/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V47" s="6" t="b">
+        <f>IF(ROUND($P47/COLUMNS($P$1:V$1),0)=$P47/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N48" s="7"/>
+      <c r="O48" s="4">
+        <f t="shared" si="1"/>
+        <v>76.59574468085107</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="7"/>
+        <v>47</v>
+      </c>
+      <c r="Q48" s="6" t="b">
+        <f>IF(ROUND($P48/COLUMNS($P$1:Q$1),0)=$P48/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R48" s="6" t="b">
+        <f>IF(ROUND($P48/COLUMNS($P$1:R$1),0)=$P48/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S48" s="6" t="b">
+        <f>IF(ROUND($P48/COLUMNS($P$1:S$1),0)=$P48/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T48" s="6" t="b">
+        <f>IF(ROUND($P48/COLUMNS($P$1:T$1),0)=$P48/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="6" t="b">
+        <f>IF(ROUND($P48/COLUMNS($P$1:U$1),0)=$P48/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V48" s="6" t="b">
+        <f>IF(ROUND($P48/COLUMNS($P$1:V$1),0)=$P48/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N49" s="7"/>
+      <c r="O49" s="8">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="P49" s="9">
+        <f t="shared" si="7"/>
+        <v>48</v>
+      </c>
+      <c r="Q49" s="6" t="b">
+        <f>IF(ROUND($P49/COLUMNS($P$1:Q$1),0)=$P49/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R49" s="6" t="b">
+        <f>IF(ROUND($P49/COLUMNS($P$1:R$1),0)=$P49/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S49" s="6" t="b">
+        <f>IF(ROUND($P49/COLUMNS($P$1:S$1),0)=$P49/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T49" s="6" t="b">
+        <f>IF(ROUND($P49/COLUMNS($P$1:T$1),0)=$P49/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U49" s="6" t="b">
+        <f>IF(ROUND($P49/COLUMNS($P$1:U$1),0)=$P49/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V49" s="6" t="b">
+        <f>IF(ROUND($P49/COLUMNS($P$1:V$1),0)=$P49/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="14:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N50" s="7"/>
+      <c r="O50" s="4">
+        <f t="shared" si="1"/>
+        <v>73.469387755102048</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="Q50" s="6" t="b">
+        <f>IF(ROUND($P50/COLUMNS($P$1:Q$1),0)=$P50/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R50" s="6" t="b">
+        <f>IF(ROUND($P50/COLUMNS($P$1:R$1),0)=$P50/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S50" s="6" t="b">
+        <f>IF(ROUND($P50/COLUMNS($P$1:S$1),0)=$P50/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T50" s="6" t="b">
+        <f>IF(ROUND($P50/COLUMNS($P$1:T$1),0)=$P50/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U50" s="6" t="b">
+        <f>IF(ROUND($P50/COLUMNS($P$1:U$1),0)=$P50/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V50" s="6" t="b">
+        <f>IF(ROUND($P50/COLUMNS($P$1:V$1),0)=$P50/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N51" s="7"/>
+      <c r="O51" s="4">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="Q51" s="6" t="b">
+        <f>IF(ROUND($P51/COLUMNS($P$1:Q$1),0)=$P51/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R51" s="6" t="b">
+        <f>IF(ROUND($P51/COLUMNS($P$1:R$1),0)=$P51/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S51" s="6" t="b">
+        <f>IF(ROUND($P51/COLUMNS($P$1:S$1),0)=$P51/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T51" s="6" t="b">
+        <f>IF(ROUND($P51/COLUMNS($P$1:T$1),0)=$P51/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U51" s="6" t="b">
+        <f>IF(ROUND($P51/COLUMNS($P$1:U$1),0)=$P51/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V51" s="6" t="b">
+        <f>IF(ROUND($P51/COLUMNS($P$1:V$1),0)=$P51/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N52" s="7"/>
+      <c r="O52" s="4">
+        <f t="shared" si="1"/>
+        <v>70.588235294117652</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="Q52" s="6" t="b">
+        <f>IF(ROUND($P52/COLUMNS($P$1:Q$1),0)=$P52/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R52" s="6" t="b">
+        <f>IF(ROUND($P52/COLUMNS($P$1:R$1),0)=$P52/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S52" s="6" t="b">
+        <f>IF(ROUND($P52/COLUMNS($P$1:S$1),0)=$P52/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T52" s="6" t="b">
+        <f>IF(ROUND($P52/COLUMNS($P$1:T$1),0)=$P52/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U52" s="6" t="b">
+        <f>IF(ROUND($P52/COLUMNS($P$1:U$1),0)=$P52/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V52" s="6" t="b">
+        <f>IF(ROUND($P52/COLUMNS($P$1:V$1),0)=$P52/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N53" s="7"/>
+      <c r="O53" s="4">
+        <f t="shared" si="1"/>
+        <v>69.230769230769226</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="7"/>
+        <v>52</v>
+      </c>
+      <c r="Q53" s="6" t="b">
+        <f>IF(ROUND($P53/COLUMNS($P$1:Q$1),0)=$P53/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R53" s="6" t="b">
+        <f>IF(ROUND($P53/COLUMNS($P$1:R$1),0)=$P53/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S53" s="6" t="b">
+        <f>IF(ROUND($P53/COLUMNS($P$1:S$1),0)=$P53/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T53" s="6" t="b">
+        <f>IF(ROUND($P53/COLUMNS($P$1:T$1),0)=$P53/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U53" s="6" t="b">
+        <f>IF(ROUND($P53/COLUMNS($P$1:U$1),0)=$P53/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V53" s="6" t="b">
+        <f>IF(ROUND($P53/COLUMNS($P$1:V$1),0)=$P53/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N54" s="7"/>
+      <c r="O54" s="4">
+        <f t="shared" si="1"/>
+        <v>67.924528301886795</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="7"/>
+        <v>53</v>
+      </c>
+      <c r="Q54" s="6" t="b">
+        <f>IF(ROUND($P54/COLUMNS($P$1:Q$1),0)=$P54/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R54" s="6" t="b">
+        <f>IF(ROUND($P54/COLUMNS($P$1:R$1),0)=$P54/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S54" s="6" t="b">
+        <f>IF(ROUND($P54/COLUMNS($P$1:S$1),0)=$P54/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T54" s="6" t="b">
+        <f>IF(ROUND($P54/COLUMNS($P$1:T$1),0)=$P54/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U54" s="6" t="b">
+        <f>IF(ROUND($P54/COLUMNS($P$1:U$1),0)=$P54/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V54" s="6" t="b">
+        <f>IF(ROUND($P54/COLUMNS($P$1:V$1),0)=$P54/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N55" s="7"/>
+      <c r="O55" s="4">
+        <f t="shared" si="1"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="7"/>
+        <v>54</v>
+      </c>
+      <c r="Q55" s="6" t="b">
+        <f>IF(ROUND($P55/COLUMNS($P$1:Q$1),0)=$P55/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R55" s="6" t="b">
+        <f>IF(ROUND($P55/COLUMNS($P$1:R$1),0)=$P55/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S55" s="6" t="b">
+        <f>IF(ROUND($P55/COLUMNS($P$1:S$1),0)=$P55/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T55" s="6" t="b">
+        <f>IF(ROUND($P55/COLUMNS($P$1:T$1),0)=$P55/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U55" s="6" t="b">
+        <f>IF(ROUND($P55/COLUMNS($P$1:U$1),0)=$P55/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V55" s="6" t="b">
+        <f>IF(ROUND($P55/COLUMNS($P$1:V$1),0)=$P55/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N56" s="7"/>
+      <c r="O56" s="4">
+        <f t="shared" si="1"/>
+        <v>65.454545454545453</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="7"/>
+        <v>55</v>
+      </c>
+      <c r="Q56" s="6" t="b">
+        <f>IF(ROUND($P56/COLUMNS($P$1:Q$1),0)=$P56/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R56" s="6" t="b">
+        <f>IF(ROUND($P56/COLUMNS($P$1:R$1),0)=$P56/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S56" s="6" t="b">
+        <f>IF(ROUND($P56/COLUMNS($P$1:S$1),0)=$P56/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T56" s="6" t="b">
+        <f>IF(ROUND($P56/COLUMNS($P$1:T$1),0)=$P56/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U56" s="6" t="b">
+        <f>IF(ROUND($P56/COLUMNS($P$1:U$1),0)=$P56/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V56" s="6" t="b">
+        <f>IF(ROUND($P56/COLUMNS($P$1:V$1),0)=$P56/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N57" s="7"/>
+      <c r="O57" s="4">
+        <f t="shared" si="1"/>
+        <v>64.285714285714292</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="Q57" s="6" t="b">
+        <f>IF(ROUND($P57/COLUMNS($P$1:Q$1),0)=$P57/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R57" s="6" t="b">
+        <f>IF(ROUND($P57/COLUMNS($P$1:R$1),0)=$P57/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S57" s="6" t="b">
+        <f>IF(ROUND($P57/COLUMNS($P$1:S$1),0)=$P57/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T57" s="6" t="b">
+        <f>IF(ROUND($P57/COLUMNS($P$1:T$1),0)=$P57/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U57" s="6" t="b">
+        <f>IF(ROUND($P57/COLUMNS($P$1:U$1),0)=$P57/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V57" s="6" t="b">
+        <f>IF(ROUND($P57/COLUMNS($P$1:V$1),0)=$P57/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N58" s="7"/>
+      <c r="O58" s="4">
+        <f t="shared" si="1"/>
+        <v>63.157894736842103</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="7"/>
+        <v>57</v>
+      </c>
+      <c r="Q58" s="6" t="b">
+        <f>IF(ROUND($P58/COLUMNS($P$1:Q$1),0)=$P58/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R58" s="6" t="b">
+        <f>IF(ROUND($P58/COLUMNS($P$1:R$1),0)=$P58/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S58" s="6" t="b">
+        <f>IF(ROUND($P58/COLUMNS($P$1:S$1),0)=$P58/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T58" s="6" t="b">
+        <f>IF(ROUND($P58/COLUMNS($P$1:T$1),0)=$P58/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U58" s="6" t="b">
+        <f>IF(ROUND($P58/COLUMNS($P$1:U$1),0)=$P58/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V58" s="6" t="b">
+        <f>IF(ROUND($P58/COLUMNS($P$1:V$1),0)=$P58/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N59" s="7"/>
+      <c r="O59" s="4">
+        <f t="shared" si="1"/>
+        <v>62.068965517241381</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="7"/>
+        <v>58</v>
+      </c>
+      <c r="Q59" s="6" t="b">
+        <f>IF(ROUND($P59/COLUMNS($P$1:Q$1),0)=$P59/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R59" s="6" t="b">
+        <f>IF(ROUND($P59/COLUMNS($P$1:R$1),0)=$P59/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S59" s="6" t="b">
+        <f>IF(ROUND($P59/COLUMNS($P$1:S$1),0)=$P59/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T59" s="6" t="b">
+        <f>IF(ROUND($P59/COLUMNS($P$1:T$1),0)=$P59/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U59" s="6" t="b">
+        <f>IF(ROUND($P59/COLUMNS($P$1:U$1),0)=$P59/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V59" s="6" t="b">
+        <f>IF(ROUND($P59/COLUMNS($P$1:V$1),0)=$P59/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N60" s="7"/>
+      <c r="O60" s="4">
+        <f t="shared" si="1"/>
+        <v>61.016949152542374</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="Q60" s="6" t="b">
+        <f>IF(ROUND($P60/COLUMNS($P$1:Q$1),0)=$P60/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R60" s="6" t="b">
+        <f>IF(ROUND($P60/COLUMNS($P$1:R$1),0)=$P60/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S60" s="6" t="b">
+        <f>IF(ROUND($P60/COLUMNS($P$1:S$1),0)=$P60/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T60" s="6" t="b">
+        <f>IF(ROUND($P60/COLUMNS($P$1:T$1),0)=$P60/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U60" s="6" t="b">
+        <f>IF(ROUND($P60/COLUMNS($P$1:U$1),0)=$P60/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V60" s="6" t="b">
+        <f>IF(ROUND($P60/COLUMNS($P$1:V$1),0)=$P60/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N61" s="7"/>
+      <c r="O61" s="8">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="P61" s="9">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="Q61" s="6" t="b">
+        <f>IF(ROUND($P61/COLUMNS($P$1:Q$1),0)=$P61/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R61" s="6" t="b">
+        <f>IF(ROUND($P61/COLUMNS($P$1:R$1),0)=$P61/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S61" s="6" t="b">
+        <f>IF(ROUND($P61/COLUMNS($P$1:S$1),0)=$P61/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T61" s="6" t="b">
+        <f>IF(ROUND($P61/COLUMNS($P$1:T$1),0)=$P61/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U61" s="6" t="b">
+        <f>IF(ROUND($P61/COLUMNS($P$1:U$1),0)=$P61/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V61" s="6" t="b">
+        <f>IF(ROUND($P61/COLUMNS($P$1:V$1),0)=$P61/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="14:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N62" s="7"/>
+      <c r="O62" s="4">
+        <f t="shared" si="1"/>
+        <v>59.016393442622949</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="7"/>
+        <v>61</v>
+      </c>
+      <c r="Q62" s="6" t="b">
+        <f>IF(ROUND($P62/COLUMNS($P$1:Q$1),0)=$P62/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R62" s="6" t="b">
+        <f>IF(ROUND($P62/COLUMNS($P$1:R$1),0)=$P62/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S62" s="6" t="b">
+        <f>IF(ROUND($P62/COLUMNS($P$1:S$1),0)=$P62/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T62" s="6" t="b">
+        <f>IF(ROUND($P62/COLUMNS($P$1:T$1),0)=$P62/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U62" s="6" t="b">
+        <f>IF(ROUND($P62/COLUMNS($P$1:U$1),0)=$P62/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V62" s="6" t="b">
+        <f>IF(ROUND($P62/COLUMNS($P$1:V$1),0)=$P62/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N63" s="7"/>
+      <c r="O63" s="4">
+        <f t="shared" si="1"/>
+        <v>58.064516129032256</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="7"/>
+        <v>62</v>
+      </c>
+      <c r="Q63" s="6" t="b">
+        <f>IF(ROUND($P63/COLUMNS($P$1:Q$1),0)=$P63/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R63" s="6" t="b">
+        <f>IF(ROUND($P63/COLUMNS($P$1:R$1),0)=$P63/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S63" s="6" t="b">
+        <f>IF(ROUND($P63/COLUMNS($P$1:S$1),0)=$P63/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T63" s="6" t="b">
+        <f>IF(ROUND($P63/COLUMNS($P$1:T$1),0)=$P63/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U63" s="6" t="b">
+        <f>IF(ROUND($P63/COLUMNS($P$1:U$1),0)=$P63/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V63" s="6" t="b">
+        <f>IF(ROUND($P63/COLUMNS($P$1:V$1),0)=$P63/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N64" s="7"/>
+      <c r="O64" s="4">
+        <f t="shared" si="1"/>
+        <v>57.142857142857146</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="7"/>
+        <v>63</v>
+      </c>
+      <c r="Q64" s="6" t="b">
+        <f>IF(ROUND($P64/COLUMNS($P$1:Q$1),0)=$P64/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R64" s="6" t="b">
+        <f>IF(ROUND($P64/COLUMNS($P$1:R$1),0)=$P64/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S64" s="6" t="b">
+        <f>IF(ROUND($P64/COLUMNS($P$1:S$1),0)=$P64/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T64" s="6" t="b">
+        <f>IF(ROUND($P64/COLUMNS($P$1:T$1),0)=$P64/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U64" s="6" t="b">
+        <f>IF(ROUND($P64/COLUMNS($P$1:U$1),0)=$P64/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V64" s="6" t="b">
+        <f>IF(ROUND($P64/COLUMNS($P$1:V$1),0)=$P64/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N65" s="7"/>
+      <c r="O65" s="4">
+        <f t="shared" si="1"/>
+        <v>56.25</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="Q65" s="6" t="b">
+        <f>IF(ROUND($P65/COLUMNS($P$1:Q$1),0)=$P65/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R65" s="6" t="b">
+        <f>IF(ROUND($P65/COLUMNS($P$1:R$1),0)=$P65/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S65" s="6" t="b">
+        <f>IF(ROUND($P65/COLUMNS($P$1:S$1),0)=$P65/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T65" s="6" t="b">
+        <f>IF(ROUND($P65/COLUMNS($P$1:T$1),0)=$P65/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U65" s="6" t="b">
+        <f>IF(ROUND($P65/COLUMNS($P$1:U$1),0)=$P65/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V65" s="6" t="b">
+        <f>IF(ROUND($P65/COLUMNS($P$1:V$1),0)=$P65/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N66" s="7"/>
+      <c r="O66" s="4">
+        <f t="shared" si="1"/>
+        <v>55.384615384615387</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="7"/>
+        <v>65</v>
+      </c>
+      <c r="Q66" s="6" t="b">
+        <f>IF(ROUND($P66/COLUMNS($P$1:Q$1),0)=$P66/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R66" s="6" t="b">
+        <f>IF(ROUND($P66/COLUMNS($P$1:R$1),0)=$P66/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S66" s="6" t="b">
+        <f>IF(ROUND($P66/COLUMNS($P$1:S$1),0)=$P66/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T66" s="6" t="b">
+        <f>IF(ROUND($P66/COLUMNS($P$1:T$1),0)=$P66/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U66" s="6" t="b">
+        <f>IF(ROUND($P66/COLUMNS($P$1:U$1),0)=$P66/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V66" s="6" t="b">
+        <f>IF(ROUND($P66/COLUMNS($P$1:V$1),0)=$P66/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N67" s="7"/>
+      <c r="O67" s="4">
+        <f t="shared" ref="O67:O130" si="8">150*24/P67</f>
+        <v>54.545454545454547</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="7"/>
+        <v>66</v>
+      </c>
+      <c r="Q67" s="6" t="b">
+        <f>IF(ROUND($P67/COLUMNS($P$1:Q$1),0)=$P67/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R67" s="6" t="b">
+        <f>IF(ROUND($P67/COLUMNS($P$1:R$1),0)=$P67/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S67" s="6" t="b">
+        <f>IF(ROUND($P67/COLUMNS($P$1:S$1),0)=$P67/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T67" s="6" t="b">
+        <f>IF(ROUND($P67/COLUMNS($P$1:T$1),0)=$P67/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U67" s="6" t="b">
+        <f>IF(ROUND($P67/COLUMNS($P$1:U$1),0)=$P67/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V67" s="6" t="b">
+        <f>IF(ROUND($P67/COLUMNS($P$1:V$1),0)=$P67/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N68" s="7"/>
+      <c r="O68" s="4">
+        <f t="shared" si="8"/>
+        <v>53.731343283582092</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="7"/>
+        <v>67</v>
+      </c>
+      <c r="Q68" s="6" t="b">
+        <f>IF(ROUND($P68/COLUMNS($P$1:Q$1),0)=$P68/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R68" s="6" t="b">
+        <f>IF(ROUND($P68/COLUMNS($P$1:R$1),0)=$P68/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S68" s="6" t="b">
+        <f>IF(ROUND($P68/COLUMNS($P$1:S$1),0)=$P68/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T68" s="6" t="b">
+        <f>IF(ROUND($P68/COLUMNS($P$1:T$1),0)=$P68/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U68" s="6" t="b">
+        <f>IF(ROUND($P68/COLUMNS($P$1:U$1),0)=$P68/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V68" s="6" t="b">
+        <f>IF(ROUND($P68/COLUMNS($P$1:V$1),0)=$P68/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N69" s="7"/>
+      <c r="O69" s="4">
+        <f t="shared" si="8"/>
+        <v>52.941176470588232</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="Q69" s="6" t="b">
+        <f>IF(ROUND($P69/COLUMNS($P$1:Q$1),0)=$P69/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R69" s="6" t="b">
+        <f>IF(ROUND($P69/COLUMNS($P$1:R$1),0)=$P69/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S69" s="6" t="b">
+        <f>IF(ROUND($P69/COLUMNS($P$1:S$1),0)=$P69/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T69" s="6" t="b">
+        <f>IF(ROUND($P69/COLUMNS($P$1:T$1),0)=$P69/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U69" s="6" t="b">
+        <f>IF(ROUND($P69/COLUMNS($P$1:U$1),0)=$P69/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V69" s="6" t="b">
+        <f>IF(ROUND($P69/COLUMNS($P$1:V$1),0)=$P69/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N70" s="7"/>
+      <c r="O70" s="4">
+        <f t="shared" si="8"/>
+        <v>52.173913043478258</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="7"/>
+        <v>69</v>
+      </c>
+      <c r="Q70" s="6" t="b">
+        <f>IF(ROUND($P70/COLUMNS($P$1:Q$1),0)=$P70/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R70" s="6" t="b">
+        <f>IF(ROUND($P70/COLUMNS($P$1:R$1),0)=$P70/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S70" s="6" t="b">
+        <f>IF(ROUND($P70/COLUMNS($P$1:S$1),0)=$P70/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T70" s="6" t="b">
+        <f>IF(ROUND($P70/COLUMNS($P$1:T$1),0)=$P70/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U70" s="6" t="b">
+        <f>IF(ROUND($P70/COLUMNS($P$1:U$1),0)=$P70/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V70" s="6" t="b">
+        <f>IF(ROUND($P70/COLUMNS($P$1:V$1),0)=$P70/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N71" s="7"/>
+      <c r="O71" s="4">
+        <f t="shared" si="8"/>
+        <v>51.428571428571431</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="Q71" s="6" t="b">
+        <f>IF(ROUND($P71/COLUMNS($P$1:Q$1),0)=$P71/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R71" s="6" t="b">
+        <f>IF(ROUND($P71/COLUMNS($P$1:R$1),0)=$P71/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S71" s="6" t="b">
+        <f>IF(ROUND($P71/COLUMNS($P$1:S$1),0)=$P71/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T71" s="6" t="b">
+        <f>IF(ROUND($P71/COLUMNS($P$1:T$1),0)=$P71/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U71" s="6" t="b">
+        <f>IF(ROUND($P71/COLUMNS($P$1:U$1),0)=$P71/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V71" s="6" t="b">
+        <f>IF(ROUND($P71/COLUMNS($P$1:V$1),0)=$P71/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N72" s="7"/>
+      <c r="O72" s="4">
+        <f t="shared" si="8"/>
+        <v>50.70422535211268</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="7"/>
+        <v>71</v>
+      </c>
+      <c r="Q72" s="6" t="b">
+        <f>IF(ROUND($P72/COLUMNS($P$1:Q$1),0)=$P72/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R72" s="6" t="b">
+        <f>IF(ROUND($P72/COLUMNS($P$1:R$1),0)=$P72/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S72" s="6" t="b">
+        <f>IF(ROUND($P72/COLUMNS($P$1:S$1),0)=$P72/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T72" s="6" t="b">
+        <f>IF(ROUND($P72/COLUMNS($P$1:T$1),0)=$P72/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U72" s="6" t="b">
+        <f>IF(ROUND($P72/COLUMNS($P$1:U$1),0)=$P72/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V72" s="6" t="b">
+        <f>IF(ROUND($P72/COLUMNS($P$1:V$1),0)=$P72/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N73" s="7"/>
+      <c r="O73" s="8">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="P73" s="9">
+        <f t="shared" si="7"/>
+        <v>72</v>
+      </c>
+      <c r="Q73" s="6" t="b">
+        <f>IF(ROUND($P73/COLUMNS($P$1:Q$1),0)=$P73/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R73" s="6" t="b">
+        <f>IF(ROUND($P73/COLUMNS($P$1:R$1),0)=$P73/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S73" s="6" t="b">
+        <f>IF(ROUND($P73/COLUMNS($P$1:S$1),0)=$P73/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T73" s="6" t="b">
+        <f>IF(ROUND($P73/COLUMNS($P$1:T$1),0)=$P73/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U73" s="6" t="b">
+        <f>IF(ROUND($P73/COLUMNS($P$1:U$1),0)=$P73/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V73" s="6" t="b">
+        <f>IF(ROUND($P73/COLUMNS($P$1:V$1),0)=$P73/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="14:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N74" s="7"/>
+      <c r="O74" s="4">
+        <f t="shared" si="8"/>
+        <v>49.315068493150683</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="7"/>
+        <v>73</v>
+      </c>
+      <c r="Q74" s="6" t="b">
+        <f>IF(ROUND($P74/COLUMNS($P$1:Q$1),0)=$P74/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R74" s="6" t="b">
+        <f>IF(ROUND($P74/COLUMNS($P$1:R$1),0)=$P74/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S74" s="6" t="b">
+        <f>IF(ROUND($P74/COLUMNS($P$1:S$1),0)=$P74/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T74" s="6" t="b">
+        <f>IF(ROUND($P74/COLUMNS($P$1:T$1),0)=$P74/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U74" s="6" t="b">
+        <f>IF(ROUND($P74/COLUMNS($P$1:U$1),0)=$P74/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V74" s="6" t="b">
+        <f>IF(ROUND($P74/COLUMNS($P$1:V$1),0)=$P74/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N75" s="7"/>
+      <c r="O75" s="4">
+        <f t="shared" si="8"/>
+        <v>48.648648648648646</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="7"/>
+        <v>74</v>
+      </c>
+      <c r="Q75" s="6" t="b">
+        <f>IF(ROUND($P75/COLUMNS($P$1:Q$1),0)=$P75/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R75" s="6" t="b">
+        <f>IF(ROUND($P75/COLUMNS($P$1:R$1),0)=$P75/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S75" s="6" t="b">
+        <f>IF(ROUND($P75/COLUMNS($P$1:S$1),0)=$P75/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T75" s="6" t="b">
+        <f>IF(ROUND($P75/COLUMNS($P$1:T$1),0)=$P75/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U75" s="6" t="b">
+        <f>IF(ROUND($P75/COLUMNS($P$1:U$1),0)=$P75/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V75" s="6" t="b">
+        <f>IF(ROUND($P75/COLUMNS($P$1:V$1),0)=$P75/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N76" s="7"/>
+      <c r="O76" s="4">
+        <f t="shared" si="8"/>
+        <v>48</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="Q76" s="6" t="b">
+        <f>IF(ROUND($P76/COLUMNS($P$1:Q$1),0)=$P76/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R76" s="6" t="b">
+        <f>IF(ROUND($P76/COLUMNS($P$1:R$1),0)=$P76/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S76" s="6" t="b">
+        <f>IF(ROUND($P76/COLUMNS($P$1:S$1),0)=$P76/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T76" s="6" t="b">
+        <f>IF(ROUND($P76/COLUMNS($P$1:T$1),0)=$P76/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U76" s="6" t="b">
+        <f>IF(ROUND($P76/COLUMNS($P$1:U$1),0)=$P76/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V76" s="6" t="b">
+        <f>IF(ROUND($P76/COLUMNS($P$1:V$1),0)=$P76/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N77" s="7"/>
+      <c r="O77" s="4">
+        <f t="shared" si="8"/>
+        <v>47.368421052631582</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="Q77" s="6" t="b">
+        <f>IF(ROUND($P77/COLUMNS($P$1:Q$1),0)=$P77/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R77" s="6" t="b">
+        <f>IF(ROUND($P77/COLUMNS($P$1:R$1),0)=$P77/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S77" s="6" t="b">
+        <f>IF(ROUND($P77/COLUMNS($P$1:S$1),0)=$P77/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T77" s="6" t="b">
+        <f>IF(ROUND($P77/COLUMNS($P$1:T$1),0)=$P77/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U77" s="6" t="b">
+        <f>IF(ROUND($P77/COLUMNS($P$1:U$1),0)=$P77/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V77" s="6" t="b">
+        <f>IF(ROUND($P77/COLUMNS($P$1:V$1),0)=$P77/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N78" s="7"/>
+      <c r="O78" s="4">
+        <f t="shared" si="8"/>
+        <v>46.753246753246756</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="7"/>
+        <v>77</v>
+      </c>
+      <c r="Q78" s="6" t="b">
+        <f>IF(ROUND($P78/COLUMNS($P$1:Q$1),0)=$P78/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R78" s="6" t="b">
+        <f>IF(ROUND($P78/COLUMNS($P$1:R$1),0)=$P78/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S78" s="6" t="b">
+        <f>IF(ROUND($P78/COLUMNS($P$1:S$1),0)=$P78/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T78" s="6" t="b">
+        <f>IF(ROUND($P78/COLUMNS($P$1:T$1),0)=$P78/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U78" s="6" t="b">
+        <f>IF(ROUND($P78/COLUMNS($P$1:U$1),0)=$P78/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V78" s="6" t="b">
+        <f>IF(ROUND($P78/COLUMNS($P$1:V$1),0)=$P78/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N79" s="7"/>
+      <c r="O79" s="4">
+        <f t="shared" si="8"/>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="Q79" s="6" t="b">
+        <f>IF(ROUND($P79/COLUMNS($P$1:Q$1),0)=$P79/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R79" s="6" t="b">
+        <f>IF(ROUND($P79/COLUMNS($P$1:R$1),0)=$P79/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S79" s="6" t="b">
+        <f>IF(ROUND($P79/COLUMNS($P$1:S$1),0)=$P79/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T79" s="6" t="b">
+        <f>IF(ROUND($P79/COLUMNS($P$1:T$1),0)=$P79/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U79" s="6" t="b">
+        <f>IF(ROUND($P79/COLUMNS($P$1:U$1),0)=$P79/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V79" s="6" t="b">
+        <f>IF(ROUND($P79/COLUMNS($P$1:V$1),0)=$P79/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N80" s="7"/>
+      <c r="O80" s="4">
+        <f t="shared" si="8"/>
+        <v>45.569620253164558</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="7"/>
+        <v>79</v>
+      </c>
+      <c r="Q80" s="6" t="b">
+        <f>IF(ROUND($P80/COLUMNS($P$1:Q$1),0)=$P80/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R80" s="6" t="b">
+        <f>IF(ROUND($P80/COLUMNS($P$1:R$1),0)=$P80/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S80" s="6" t="b">
+        <f>IF(ROUND($P80/COLUMNS($P$1:S$1),0)=$P80/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T80" s="6" t="b">
+        <f>IF(ROUND($P80/COLUMNS($P$1:T$1),0)=$P80/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U80" s="6" t="b">
+        <f>IF(ROUND($P80/COLUMNS($P$1:U$1),0)=$P80/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V80" s="6" t="b">
+        <f>IF(ROUND($P80/COLUMNS($P$1:V$1),0)=$P80/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N81" s="7"/>
+      <c r="O81" s="4">
+        <f t="shared" si="8"/>
+        <v>45</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="Q81" s="6" t="b">
+        <f>IF(ROUND($P81/COLUMNS($P$1:Q$1),0)=$P81/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R81" s="6" t="b">
+        <f>IF(ROUND($P81/COLUMNS($P$1:R$1),0)=$P81/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S81" s="6" t="b">
+        <f>IF(ROUND($P81/COLUMNS($P$1:S$1),0)=$P81/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T81" s="6" t="b">
+        <f>IF(ROUND($P81/COLUMNS($P$1:T$1),0)=$P81/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U81" s="6" t="b">
+        <f>IF(ROUND($P81/COLUMNS($P$1:U$1),0)=$P81/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V81" s="6" t="b">
+        <f>IF(ROUND($P81/COLUMNS($P$1:V$1),0)=$P81/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N82" s="7"/>
+      <c r="O82" s="4">
+        <f t="shared" si="8"/>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="7"/>
+        <v>81</v>
+      </c>
+      <c r="Q82" s="6" t="b">
+        <f>IF(ROUND($P82/COLUMNS($P$1:Q$1),0)=$P82/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R82" s="6" t="b">
+        <f>IF(ROUND($P82/COLUMNS($P$1:R$1),0)=$P82/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S82" s="6" t="b">
+        <f>IF(ROUND($P82/COLUMNS($P$1:S$1),0)=$P82/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T82" s="6" t="b">
+        <f>IF(ROUND($P82/COLUMNS($P$1:T$1),0)=$P82/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U82" s="6" t="b">
+        <f>IF(ROUND($P82/COLUMNS($P$1:U$1),0)=$P82/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V82" s="6" t="b">
+        <f>IF(ROUND($P82/COLUMNS($P$1:V$1),0)=$P82/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N83" s="7"/>
+      <c r="O83" s="4">
+        <f t="shared" si="8"/>
+        <v>43.902439024390247</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="Q83" s="6" t="b">
+        <f>IF(ROUND($P83/COLUMNS($P$1:Q$1),0)=$P83/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R83" s="6" t="b">
+        <f>IF(ROUND($P83/COLUMNS($P$1:R$1),0)=$P83/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S83" s="6" t="b">
+        <f>IF(ROUND($P83/COLUMNS($P$1:S$1),0)=$P83/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T83" s="6" t="b">
+        <f>IF(ROUND($P83/COLUMNS($P$1:T$1),0)=$P83/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U83" s="6" t="b">
+        <f>IF(ROUND($P83/COLUMNS($P$1:U$1),0)=$P83/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V83" s="6" t="b">
+        <f>IF(ROUND($P83/COLUMNS($P$1:V$1),0)=$P83/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N84" s="7"/>
+      <c r="O84" s="4">
+        <f t="shared" si="8"/>
+        <v>43.373493975903614</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="7"/>
+        <v>83</v>
+      </c>
+      <c r="Q84" s="6" t="b">
+        <f>IF(ROUND($P84/COLUMNS($P$1:Q$1),0)=$P84/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R84" s="6" t="b">
+        <f>IF(ROUND($P84/COLUMNS($P$1:R$1),0)=$P84/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S84" s="6" t="b">
+        <f>IF(ROUND($P84/COLUMNS($P$1:S$1),0)=$P84/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T84" s="6" t="b">
+        <f>IF(ROUND($P84/COLUMNS($P$1:T$1),0)=$P84/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U84" s="6" t="b">
+        <f>IF(ROUND($P84/COLUMNS($P$1:U$1),0)=$P84/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V84" s="6" t="b">
+        <f>IF(ROUND($P84/COLUMNS($P$1:V$1),0)=$P84/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N85" s="7"/>
+      <c r="O85" s="8">
+        <f t="shared" si="8"/>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="P85" s="9">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
+      <c r="Q85" s="6" t="b">
+        <f>IF(ROUND($P85/COLUMNS($P$1:Q$1),0)=$P85/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R85" s="6" t="b">
+        <f>IF(ROUND($P85/COLUMNS($P$1:R$1),0)=$P85/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S85" s="6" t="b">
+        <f>IF(ROUND($P85/COLUMNS($P$1:S$1),0)=$P85/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T85" s="6" t="b">
+        <f>IF(ROUND($P85/COLUMNS($P$1:T$1),0)=$P85/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U85" s="6" t="b">
+        <f>IF(ROUND($P85/COLUMNS($P$1:U$1),0)=$P85/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V85" s="6" t="b">
+        <f>IF(ROUND($P85/COLUMNS($P$1:V$1),0)=$P85/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="14:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N86" s="7"/>
+      <c r="O86" s="4">
+        <f t="shared" si="8"/>
+        <v>42.352941176470587</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
+      <c r="Q86" s="6" t="b">
+        <f>IF(ROUND($P86/COLUMNS($P$1:Q$1),0)=$P86/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R86" s="6" t="b">
+        <f>IF(ROUND($P86/COLUMNS($P$1:R$1),0)=$P86/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S86" s="6" t="b">
+        <f>IF(ROUND($P86/COLUMNS($P$1:S$1),0)=$P86/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T86" s="6" t="b">
+        <f>IF(ROUND($P86/COLUMNS($P$1:T$1),0)=$P86/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U86" s="6" t="b">
+        <f>IF(ROUND($P86/COLUMNS($P$1:U$1),0)=$P86/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V86" s="6" t="b">
+        <f>IF(ROUND($P86/COLUMNS($P$1:V$1),0)=$P86/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N87" s="7"/>
+      <c r="O87" s="4">
+        <f t="shared" si="8"/>
+        <v>41.860465116279073</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="7"/>
+        <v>86</v>
+      </c>
+      <c r="Q87" s="6" t="b">
+        <f>IF(ROUND($P87/COLUMNS($P$1:Q$1),0)=$P87/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R87" s="6" t="b">
+        <f>IF(ROUND($P87/COLUMNS($P$1:R$1),0)=$P87/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S87" s="6" t="b">
+        <f>IF(ROUND($P87/COLUMNS($P$1:S$1),0)=$P87/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T87" s="6" t="b">
+        <f>IF(ROUND($P87/COLUMNS($P$1:T$1),0)=$P87/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U87" s="6" t="b">
+        <f>IF(ROUND($P87/COLUMNS($P$1:U$1),0)=$P87/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V87" s="6" t="b">
+        <f>IF(ROUND($P87/COLUMNS($P$1:V$1),0)=$P87/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N88" s="7"/>
+      <c r="O88" s="4">
+        <f t="shared" si="8"/>
+        <v>41.379310344827587</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+      <c r="Q88" s="6" t="b">
+        <f>IF(ROUND($P88/COLUMNS($P$1:Q$1),0)=$P88/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R88" s="6" t="b">
+        <f>IF(ROUND($P88/COLUMNS($P$1:R$1),0)=$P88/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S88" s="6" t="b">
+        <f>IF(ROUND($P88/COLUMNS($P$1:S$1),0)=$P88/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T88" s="6" t="b">
+        <f>IF(ROUND($P88/COLUMNS($P$1:T$1),0)=$P88/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U88" s="6" t="b">
+        <f>IF(ROUND($P88/COLUMNS($P$1:U$1),0)=$P88/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V88" s="6" t="b">
+        <f>IF(ROUND($P88/COLUMNS($P$1:V$1),0)=$P88/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N89" s="7"/>
+      <c r="O89" s="4">
+        <f t="shared" si="8"/>
+        <v>40.909090909090907</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="7"/>
+        <v>88</v>
+      </c>
+      <c r="Q89" s="6" t="b">
+        <f>IF(ROUND($P89/COLUMNS($P$1:Q$1),0)=$P89/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R89" s="6" t="b">
+        <f>IF(ROUND($P89/COLUMNS($P$1:R$1),0)=$P89/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S89" s="6" t="b">
+        <f>IF(ROUND($P89/COLUMNS($P$1:S$1),0)=$P89/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T89" s="6" t="b">
+        <f>IF(ROUND($P89/COLUMNS($P$1:T$1),0)=$P89/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U89" s="6" t="b">
+        <f>IF(ROUND($P89/COLUMNS($P$1:U$1),0)=$P89/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V89" s="6" t="b">
+        <f>IF(ROUND($P89/COLUMNS($P$1:V$1),0)=$P89/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N90" s="7"/>
+      <c r="O90" s="4">
+        <f t="shared" si="8"/>
+        <v>40.449438202247194</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="7"/>
+        <v>89</v>
+      </c>
+      <c r="Q90" s="6" t="b">
+        <f>IF(ROUND($P90/COLUMNS($P$1:Q$1),0)=$P90/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R90" s="6" t="b">
+        <f>IF(ROUND($P90/COLUMNS($P$1:R$1),0)=$P90/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S90" s="6" t="b">
+        <f>IF(ROUND($P90/COLUMNS($P$1:S$1),0)=$P90/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T90" s="6" t="b">
+        <f>IF(ROUND($P90/COLUMNS($P$1:T$1),0)=$P90/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U90" s="6" t="b">
+        <f>IF(ROUND($P90/COLUMNS($P$1:U$1),0)=$P90/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V90" s="6" t="b">
+        <f>IF(ROUND($P90/COLUMNS($P$1:V$1),0)=$P90/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N91" s="7"/>
+      <c r="O91" s="4">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="Q91" s="6" t="b">
+        <f>IF(ROUND($P91/COLUMNS($P$1:Q$1),0)=$P91/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R91" s="6" t="b">
+        <f>IF(ROUND($P91/COLUMNS($P$1:R$1),0)=$P91/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S91" s="6" t="b">
+        <f>IF(ROUND($P91/COLUMNS($P$1:S$1),0)=$P91/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T91" s="6" t="b">
+        <f>IF(ROUND($P91/COLUMNS($P$1:T$1),0)=$P91/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U91" s="6" t="b">
+        <f>IF(ROUND($P91/COLUMNS($P$1:U$1),0)=$P91/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V91" s="6" t="b">
+        <f>IF(ROUND($P91/COLUMNS($P$1:V$1),0)=$P91/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N92" s="7"/>
+      <c r="O92" s="4">
+        <f t="shared" si="8"/>
+        <v>39.560439560439562</v>
+      </c>
+      <c r="P92">
+        <f t="shared" ref="P92:P151" si="9">P91+1</f>
+        <v>91</v>
+      </c>
+      <c r="Q92" s="6" t="b">
+        <f>IF(ROUND($P92/COLUMNS($P$1:Q$1),0)=$P92/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R92" s="6" t="b">
+        <f>IF(ROUND($P92/COLUMNS($P$1:R$1),0)=$P92/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S92" s="6" t="b">
+        <f>IF(ROUND($P92/COLUMNS($P$1:S$1),0)=$P92/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T92" s="6" t="b">
+        <f>IF(ROUND($P92/COLUMNS($P$1:T$1),0)=$P92/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U92" s="6" t="b">
+        <f>IF(ROUND($P92/COLUMNS($P$1:U$1),0)=$P92/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V92" s="6" t="b">
+        <f>IF(ROUND($P92/COLUMNS($P$1:V$1),0)=$P92/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N93" s="7"/>
+      <c r="O93" s="4">
+        <f t="shared" si="8"/>
+        <v>39.130434782608695</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="9"/>
+        <v>92</v>
+      </c>
+      <c r="Q93" s="6" t="b">
+        <f>IF(ROUND($P93/COLUMNS($P$1:Q$1),0)=$P93/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R93" s="6" t="b">
+        <f>IF(ROUND($P93/COLUMNS($P$1:R$1),0)=$P93/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S93" s="6" t="b">
+        <f>IF(ROUND($P93/COLUMNS($P$1:S$1),0)=$P93/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T93" s="6" t="b">
+        <f>IF(ROUND($P93/COLUMNS($P$1:T$1),0)=$P93/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U93" s="6" t="b">
+        <f>IF(ROUND($P93/COLUMNS($P$1:U$1),0)=$P93/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V93" s="6" t="b">
+        <f>IF(ROUND($P93/COLUMNS($P$1:V$1),0)=$P93/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N94" s="7"/>
+      <c r="O94" s="4">
+        <f t="shared" si="8"/>
+        <v>38.70967741935484</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="9"/>
+        <v>93</v>
+      </c>
+      <c r="Q94" s="6" t="b">
+        <f>IF(ROUND($P94/COLUMNS($P$1:Q$1),0)=$P94/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R94" s="6" t="b">
+        <f>IF(ROUND($P94/COLUMNS($P$1:R$1),0)=$P94/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S94" s="6" t="b">
+        <f>IF(ROUND($P94/COLUMNS($P$1:S$1),0)=$P94/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T94" s="6" t="b">
+        <f>IF(ROUND($P94/COLUMNS($P$1:T$1),0)=$P94/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U94" s="6" t="b">
+        <f>IF(ROUND($P94/COLUMNS($P$1:U$1),0)=$P94/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V94" s="6" t="b">
+        <f>IF(ROUND($P94/COLUMNS($P$1:V$1),0)=$P94/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N95" s="7"/>
+      <c r="O95" s="4">
+        <f t="shared" si="8"/>
+        <v>38.297872340425535</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="9"/>
+        <v>94</v>
+      </c>
+      <c r="Q95" s="6" t="b">
+        <f>IF(ROUND($P95/COLUMNS($P$1:Q$1),0)=$P95/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R95" s="6" t="b">
+        <f>IF(ROUND($P95/COLUMNS($P$1:R$1),0)=$P95/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S95" s="6" t="b">
+        <f>IF(ROUND($P95/COLUMNS($P$1:S$1),0)=$P95/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T95" s="6" t="b">
+        <f>IF(ROUND($P95/COLUMNS($P$1:T$1),0)=$P95/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U95" s="6" t="b">
+        <f>IF(ROUND($P95/COLUMNS($P$1:U$1),0)=$P95/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V95" s="6" t="b">
+        <f>IF(ROUND($P95/COLUMNS($P$1:V$1),0)=$P95/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N96" s="7"/>
+      <c r="O96" s="4">
+        <f t="shared" si="8"/>
+        <v>37.89473684210526</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="9"/>
+        <v>95</v>
+      </c>
+      <c r="Q96" s="6" t="b">
+        <f>IF(ROUND($P96/COLUMNS($P$1:Q$1),0)=$P96/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R96" s="6" t="b">
+        <f>IF(ROUND($P96/COLUMNS($P$1:R$1),0)=$P96/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S96" s="6" t="b">
+        <f>IF(ROUND($P96/COLUMNS($P$1:S$1),0)=$P96/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T96" s="6" t="b">
+        <f>IF(ROUND($P96/COLUMNS($P$1:T$1),0)=$P96/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U96" s="6" t="b">
+        <f>IF(ROUND($P96/COLUMNS($P$1:U$1),0)=$P96/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V96" s="6" t="b">
+        <f>IF(ROUND($P96/COLUMNS($P$1:V$1),0)=$P96/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N97" s="7"/>
+      <c r="O97" s="8">
+        <f t="shared" si="8"/>
+        <v>37.5</v>
+      </c>
+      <c r="P97" s="9">
+        <f t="shared" si="9"/>
+        <v>96</v>
+      </c>
+      <c r="Q97" s="6" t="b">
+        <f>IF(ROUND($P97/COLUMNS($P$1:Q$1),0)=$P97/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R97" s="6" t="b">
+        <f>IF(ROUND($P97/COLUMNS($P$1:R$1),0)=$P97/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S97" s="6" t="b">
+        <f>IF(ROUND($P97/COLUMNS($P$1:S$1),0)=$P97/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T97" s="6" t="b">
+        <f>IF(ROUND($P97/COLUMNS($P$1:T$1),0)=$P97/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U97" s="6" t="b">
+        <f>IF(ROUND($P97/COLUMNS($P$1:U$1),0)=$P97/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V97" s="6" t="b">
+        <f>IF(ROUND($P97/COLUMNS($P$1:V$1),0)=$P97/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="14:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N98" s="7"/>
+      <c r="O98" s="4">
+        <f t="shared" si="8"/>
+        <v>37.113402061855673</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="9"/>
+        <v>97</v>
+      </c>
+      <c r="Q98" s="6" t="b">
+        <f>IF(ROUND($P98/COLUMNS($P$1:Q$1),0)=$P98/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R98" s="6" t="b">
+        <f>IF(ROUND($P98/COLUMNS($P$1:R$1),0)=$P98/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S98" s="6" t="b">
+        <f>IF(ROUND($P98/COLUMNS($P$1:S$1),0)=$P98/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T98" s="6" t="b">
+        <f>IF(ROUND($P98/COLUMNS($P$1:T$1),0)=$P98/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U98" s="6" t="b">
+        <f>IF(ROUND($P98/COLUMNS($P$1:U$1),0)=$P98/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V98" s="6" t="b">
+        <f>IF(ROUND($P98/COLUMNS($P$1:V$1),0)=$P98/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N99" s="7"/>
+      <c r="O99" s="4">
+        <f t="shared" si="8"/>
+        <v>36.734693877551024</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="9"/>
+        <v>98</v>
+      </c>
+      <c r="Q99" s="6" t="b">
+        <f>IF(ROUND($P99/COLUMNS($P$1:Q$1),0)=$P99/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R99" s="6" t="b">
+        <f>IF(ROUND($P99/COLUMNS($P$1:R$1),0)=$P99/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S99" s="6" t="b">
+        <f>IF(ROUND($P99/COLUMNS($P$1:S$1),0)=$P99/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T99" s="6" t="b">
+        <f>IF(ROUND($P99/COLUMNS($P$1:T$1),0)=$P99/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U99" s="6" t="b">
+        <f>IF(ROUND($P99/COLUMNS($P$1:U$1),0)=$P99/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V99" s="6" t="b">
+        <f>IF(ROUND($P99/COLUMNS($P$1:V$1),0)=$P99/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N100" s="7"/>
+      <c r="O100" s="4">
+        <f t="shared" si="8"/>
+        <v>36.363636363636367</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="9"/>
+        <v>99</v>
+      </c>
+      <c r="Q100" s="6" t="b">
+        <f>IF(ROUND($P100/COLUMNS($P$1:Q$1),0)=$P100/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R100" s="6" t="b">
+        <f>IF(ROUND($P100/COLUMNS($P$1:R$1),0)=$P100/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S100" s="6" t="b">
+        <f>IF(ROUND($P100/COLUMNS($P$1:S$1),0)=$P100/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T100" s="6" t="b">
+        <f>IF(ROUND($P100/COLUMNS($P$1:T$1),0)=$P100/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U100" s="6" t="b">
+        <f>IF(ROUND($P100/COLUMNS($P$1:U$1),0)=$P100/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V100" s="6" t="b">
+        <f>IF(ROUND($P100/COLUMNS($P$1:V$1),0)=$P100/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N101" s="7"/>
+      <c r="O101" s="4">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="9"/>
+        <v>100</v>
+      </c>
+      <c r="Q101" s="6" t="b">
+        <f>IF(ROUND($P101/COLUMNS($P$1:Q$1),0)=$P101/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R101" s="6" t="b">
+        <f>IF(ROUND($P101/COLUMNS($P$1:R$1),0)=$P101/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S101" s="6" t="b">
+        <f>IF(ROUND($P101/COLUMNS($P$1:S$1),0)=$P101/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T101" s="6" t="b">
+        <f>IF(ROUND($P101/COLUMNS($P$1:T$1),0)=$P101/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U101" s="6" t="b">
+        <f>IF(ROUND($P101/COLUMNS($P$1:U$1),0)=$P101/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V101" s="6" t="b">
+        <f>IF(ROUND($P101/COLUMNS($P$1:V$1),0)=$P101/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N102" s="7"/>
+      <c r="O102" s="4">
+        <f t="shared" si="8"/>
+        <v>35.643564356435647</v>
+      </c>
+      <c r="P102">
+        <f t="shared" si="9"/>
+        <v>101</v>
+      </c>
+      <c r="Q102" s="6" t="b">
+        <f>IF(ROUND($P102/COLUMNS($P$1:Q$1),0)=$P102/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R102" s="6" t="b">
+        <f>IF(ROUND($P102/COLUMNS($P$1:R$1),0)=$P102/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S102" s="6" t="b">
+        <f>IF(ROUND($P102/COLUMNS($P$1:S$1),0)=$P102/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T102" s="6" t="b">
+        <f>IF(ROUND($P102/COLUMNS($P$1:T$1),0)=$P102/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U102" s="6" t="b">
+        <f>IF(ROUND($P102/COLUMNS($P$1:U$1),0)=$P102/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V102" s="6" t="b">
+        <f>IF(ROUND($P102/COLUMNS($P$1:V$1),0)=$P102/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N103" s="7"/>
+      <c r="O103" s="4">
+        <f t="shared" si="8"/>
+        <v>35.294117647058826</v>
+      </c>
+      <c r="P103">
+        <f t="shared" si="9"/>
+        <v>102</v>
+      </c>
+      <c r="Q103" s="6" t="b">
+        <f>IF(ROUND($P103/COLUMNS($P$1:Q$1),0)=$P103/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R103" s="6" t="b">
+        <f>IF(ROUND($P103/COLUMNS($P$1:R$1),0)=$P103/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S103" s="6" t="b">
+        <f>IF(ROUND($P103/COLUMNS($P$1:S$1),0)=$P103/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T103" s="6" t="b">
+        <f>IF(ROUND($P103/COLUMNS($P$1:T$1),0)=$P103/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U103" s="6" t="b">
+        <f>IF(ROUND($P103/COLUMNS($P$1:U$1),0)=$P103/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V103" s="6" t="b">
+        <f>IF(ROUND($P103/COLUMNS($P$1:V$1),0)=$P103/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N104" s="7"/>
+      <c r="O104" s="4">
+        <f t="shared" si="8"/>
+        <v>34.95145631067961</v>
+      </c>
+      <c r="P104">
+        <f t="shared" si="9"/>
+        <v>103</v>
+      </c>
+      <c r="Q104" s="6" t="b">
+        <f>IF(ROUND($P104/COLUMNS($P$1:Q$1),0)=$P104/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R104" s="6" t="b">
+        <f>IF(ROUND($P104/COLUMNS($P$1:R$1),0)=$P104/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S104" s="6" t="b">
+        <f>IF(ROUND($P104/COLUMNS($P$1:S$1),0)=$P104/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T104" s="6" t="b">
+        <f>IF(ROUND($P104/COLUMNS($P$1:T$1),0)=$P104/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U104" s="6" t="b">
+        <f>IF(ROUND($P104/COLUMNS($P$1:U$1),0)=$P104/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V104" s="6" t="b">
+        <f>IF(ROUND($P104/COLUMNS($P$1:V$1),0)=$P104/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N105" s="7"/>
+      <c r="O105" s="4">
+        <f t="shared" si="8"/>
+        <v>34.615384615384613</v>
+      </c>
+      <c r="P105">
+        <f t="shared" si="9"/>
+        <v>104</v>
+      </c>
+      <c r="Q105" s="6" t="b">
+        <f>IF(ROUND($P105/COLUMNS($P$1:Q$1),0)=$P105/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R105" s="6" t="b">
+        <f>IF(ROUND($P105/COLUMNS($P$1:R$1),0)=$P105/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S105" s="6" t="b">
+        <f>IF(ROUND($P105/COLUMNS($P$1:S$1),0)=$P105/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T105" s="6" t="b">
+        <f>IF(ROUND($P105/COLUMNS($P$1:T$1),0)=$P105/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U105" s="6" t="b">
+        <f>IF(ROUND($P105/COLUMNS($P$1:U$1),0)=$P105/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V105" s="6" t="b">
+        <f>IF(ROUND($P105/COLUMNS($P$1:V$1),0)=$P105/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N106" s="7"/>
+      <c r="O106" s="4">
+        <f t="shared" si="8"/>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="P106">
+        <f t="shared" si="9"/>
+        <v>105</v>
+      </c>
+      <c r="Q106" s="6" t="b">
+        <f>IF(ROUND($P106/COLUMNS($P$1:Q$1),0)=$P106/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R106" s="6" t="b">
+        <f>IF(ROUND($P106/COLUMNS($P$1:R$1),0)=$P106/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S106" s="6" t="b">
+        <f>IF(ROUND($P106/COLUMNS($P$1:S$1),0)=$P106/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T106" s="6" t="b">
+        <f>IF(ROUND($P106/COLUMNS($P$1:T$1),0)=$P106/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U106" s="6" t="b">
+        <f>IF(ROUND($P106/COLUMNS($P$1:U$1),0)=$P106/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V106" s="6" t="b">
+        <f>IF(ROUND($P106/COLUMNS($P$1:V$1),0)=$P106/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N107" s="7"/>
+      <c r="O107" s="4">
+        <f t="shared" si="8"/>
+        <v>33.962264150943398</v>
+      </c>
+      <c r="P107">
+        <f t="shared" si="9"/>
+        <v>106</v>
+      </c>
+      <c r="Q107" s="6" t="b">
+        <f>IF(ROUND($P107/COLUMNS($P$1:Q$1),0)=$P107/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R107" s="6" t="b">
+        <f>IF(ROUND($P107/COLUMNS($P$1:R$1),0)=$P107/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S107" s="6" t="b">
+        <f>IF(ROUND($P107/COLUMNS($P$1:S$1),0)=$P107/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T107" s="6" t="b">
+        <f>IF(ROUND($P107/COLUMNS($P$1:T$1),0)=$P107/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U107" s="6" t="b">
+        <f>IF(ROUND($P107/COLUMNS($P$1:U$1),0)=$P107/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V107" s="6" t="b">
+        <f>IF(ROUND($P107/COLUMNS($P$1:V$1),0)=$P107/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N108" s="7"/>
+      <c r="O108" s="4">
+        <f t="shared" si="8"/>
+        <v>33.644859813084111</v>
+      </c>
+      <c r="P108">
+        <f t="shared" si="9"/>
+        <v>107</v>
+      </c>
+      <c r="Q108" s="6" t="b">
+        <f>IF(ROUND($P108/COLUMNS($P$1:Q$1),0)=$P108/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R108" s="6" t="b">
+        <f>IF(ROUND($P108/COLUMNS($P$1:R$1),0)=$P108/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S108" s="6" t="b">
+        <f>IF(ROUND($P108/COLUMNS($P$1:S$1),0)=$P108/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T108" s="6" t="b">
+        <f>IF(ROUND($P108/COLUMNS($P$1:T$1),0)=$P108/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U108" s="6" t="b">
+        <f>IF(ROUND($P108/COLUMNS($P$1:U$1),0)=$P108/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V108" s="6" t="b">
+        <f>IF(ROUND($P108/COLUMNS($P$1:V$1),0)=$P108/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N109" s="7"/>
+      <c r="O109" s="8">
+        <f t="shared" si="8"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="P109" s="9">
+        <f t="shared" si="9"/>
+        <v>108</v>
+      </c>
+      <c r="Q109" s="6" t="b">
+        <f>IF(ROUND($P109/COLUMNS($P$1:Q$1),0)=$P109/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R109" s="6" t="b">
+        <f>IF(ROUND($P109/COLUMNS($P$1:R$1),0)=$P109/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S109" s="6" t="b">
+        <f>IF(ROUND($P109/COLUMNS($P$1:S$1),0)=$P109/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T109" s="6" t="b">
+        <f>IF(ROUND($P109/COLUMNS($P$1:T$1),0)=$P109/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U109" s="6" t="b">
+        <f>IF(ROUND($P109/COLUMNS($P$1:U$1),0)=$P109/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V109" s="6" t="b">
+        <f>IF(ROUND($P109/COLUMNS($P$1:V$1),0)=$P109/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="14:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N110" s="7"/>
+      <c r="O110" s="4">
+        <f t="shared" si="8"/>
+        <v>33.027522935779814</v>
+      </c>
+      <c r="P110">
+        <f t="shared" si="9"/>
+        <v>109</v>
+      </c>
+      <c r="Q110" s="6" t="b">
+        <f>IF(ROUND($P110/COLUMNS($P$1:Q$1),0)=$P110/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R110" s="6" t="b">
+        <f>IF(ROUND($P110/COLUMNS($P$1:R$1),0)=$P110/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S110" s="6" t="b">
+        <f>IF(ROUND($P110/COLUMNS($P$1:S$1),0)=$P110/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T110" s="6" t="b">
+        <f>IF(ROUND($P110/COLUMNS($P$1:T$1),0)=$P110/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U110" s="6" t="b">
+        <f>IF(ROUND($P110/COLUMNS($P$1:U$1),0)=$P110/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V110" s="6" t="b">
+        <f>IF(ROUND($P110/COLUMNS($P$1:V$1),0)=$P110/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N111" s="7"/>
+      <c r="O111" s="4">
+        <f t="shared" si="8"/>
+        <v>32.727272727272727</v>
+      </c>
+      <c r="P111">
+        <f t="shared" si="9"/>
+        <v>110</v>
+      </c>
+      <c r="Q111" s="6" t="b">
+        <f>IF(ROUND($P111/COLUMNS($P$1:Q$1),0)=$P111/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R111" s="6" t="b">
+        <f>IF(ROUND($P111/COLUMNS($P$1:R$1),0)=$P111/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S111" s="6" t="b">
+        <f>IF(ROUND($P111/COLUMNS($P$1:S$1),0)=$P111/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T111" s="6" t="b">
+        <f>IF(ROUND($P111/COLUMNS($P$1:T$1),0)=$P111/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U111" s="6" t="b">
+        <f>IF(ROUND($P111/COLUMNS($P$1:U$1),0)=$P111/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V111" s="6" t="b">
+        <f>IF(ROUND($P111/COLUMNS($P$1:V$1),0)=$P111/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N112" s="7"/>
+      <c r="O112" s="4">
+        <f t="shared" si="8"/>
+        <v>32.432432432432435</v>
+      </c>
+      <c r="P112">
+        <f t="shared" si="9"/>
+        <v>111</v>
+      </c>
+      <c r="Q112" s="6" t="b">
+        <f>IF(ROUND($P112/COLUMNS($P$1:Q$1),0)=$P112/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R112" s="6" t="b">
+        <f>IF(ROUND($P112/COLUMNS($P$1:R$1),0)=$P112/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S112" s="6" t="b">
+        <f>IF(ROUND($P112/COLUMNS($P$1:S$1),0)=$P112/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T112" s="6" t="b">
+        <f>IF(ROUND($P112/COLUMNS($P$1:T$1),0)=$P112/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U112" s="6" t="b">
+        <f>IF(ROUND($P112/COLUMNS($P$1:U$1),0)=$P112/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V112" s="6" t="b">
+        <f>IF(ROUND($P112/COLUMNS($P$1:V$1),0)=$P112/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N113" s="7"/>
+      <c r="O113" s="4">
+        <f t="shared" si="8"/>
+        <v>32.142857142857146</v>
+      </c>
+      <c r="P113">
+        <f t="shared" si="9"/>
+        <v>112</v>
+      </c>
+      <c r="Q113" s="6" t="b">
+        <f>IF(ROUND($P113/COLUMNS($P$1:Q$1),0)=$P113/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R113" s="6" t="b">
+        <f>IF(ROUND($P113/COLUMNS($P$1:R$1),0)=$P113/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S113" s="6" t="b">
+        <f>IF(ROUND($P113/COLUMNS($P$1:S$1),0)=$P113/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T113" s="6" t="b">
+        <f>IF(ROUND($P113/COLUMNS($P$1:T$1),0)=$P113/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U113" s="6" t="b">
+        <f>IF(ROUND($P113/COLUMNS($P$1:U$1),0)=$P113/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V113" s="6" t="b">
+        <f>IF(ROUND($P113/COLUMNS($P$1:V$1),0)=$P113/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N114" s="7"/>
+      <c r="O114" s="4">
+        <f t="shared" si="8"/>
+        <v>31.858407079646017</v>
+      </c>
+      <c r="P114">
+        <f t="shared" si="9"/>
+        <v>113</v>
+      </c>
+      <c r="Q114" s="6" t="b">
+        <f>IF(ROUND($P114/COLUMNS($P$1:Q$1),0)=$P114/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R114" s="6" t="b">
+        <f>IF(ROUND($P114/COLUMNS($P$1:R$1),0)=$P114/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S114" s="6" t="b">
+        <f>IF(ROUND($P114/COLUMNS($P$1:S$1),0)=$P114/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T114" s="6" t="b">
+        <f>IF(ROUND($P114/COLUMNS($P$1:T$1),0)=$P114/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U114" s="6" t="b">
+        <f>IF(ROUND($P114/COLUMNS($P$1:U$1),0)=$P114/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V114" s="6" t="b">
+        <f>IF(ROUND($P114/COLUMNS($P$1:V$1),0)=$P114/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N115" s="7"/>
+      <c r="O115" s="4">
+        <f t="shared" si="8"/>
+        <v>31.578947368421051</v>
+      </c>
+      <c r="P115">
+        <f t="shared" si="9"/>
+        <v>114</v>
+      </c>
+      <c r="Q115" s="6" t="b">
+        <f>IF(ROUND($P115/COLUMNS($P$1:Q$1),0)=$P115/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R115" s="6" t="b">
+        <f>IF(ROUND($P115/COLUMNS($P$1:R$1),0)=$P115/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S115" s="6" t="b">
+        <f>IF(ROUND($P115/COLUMNS($P$1:S$1),0)=$P115/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T115" s="6" t="b">
+        <f>IF(ROUND($P115/COLUMNS($P$1:T$1),0)=$P115/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U115" s="6" t="b">
+        <f>IF(ROUND($P115/COLUMNS($P$1:U$1),0)=$P115/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V115" s="6" t="b">
+        <f>IF(ROUND($P115/COLUMNS($P$1:V$1),0)=$P115/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N116" s="7"/>
+      <c r="O116" s="4">
+        <f t="shared" si="8"/>
+        <v>31.304347826086957</v>
+      </c>
+      <c r="P116">
+        <f t="shared" si="9"/>
+        <v>115</v>
+      </c>
+      <c r="Q116" s="6" t="b">
+        <f>IF(ROUND($P116/COLUMNS($P$1:Q$1),0)=$P116/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R116" s="6" t="b">
+        <f>IF(ROUND($P116/COLUMNS($P$1:R$1),0)=$P116/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S116" s="6" t="b">
+        <f>IF(ROUND($P116/COLUMNS($P$1:S$1),0)=$P116/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T116" s="6" t="b">
+        <f>IF(ROUND($P116/COLUMNS($P$1:T$1),0)=$P116/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U116" s="6" t="b">
+        <f>IF(ROUND($P116/COLUMNS($P$1:U$1),0)=$P116/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V116" s="6" t="b">
+        <f>IF(ROUND($P116/COLUMNS($P$1:V$1),0)=$P116/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N117" s="7"/>
+      <c r="O117" s="4">
+        <f t="shared" si="8"/>
+        <v>31.03448275862069</v>
+      </c>
+      <c r="P117">
+        <f t="shared" si="9"/>
+        <v>116</v>
+      </c>
+      <c r="Q117" s="6" t="b">
+        <f>IF(ROUND($P117/COLUMNS($P$1:Q$1),0)=$P117/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R117" s="6" t="b">
+        <f>IF(ROUND($P117/COLUMNS($P$1:R$1),0)=$P117/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S117" s="6" t="b">
+        <f>IF(ROUND($P117/COLUMNS($P$1:S$1),0)=$P117/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T117" s="6" t="b">
+        <f>IF(ROUND($P117/COLUMNS($P$1:T$1),0)=$P117/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U117" s="6" t="b">
+        <f>IF(ROUND($P117/COLUMNS($P$1:U$1),0)=$P117/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V117" s="6" t="b">
+        <f>IF(ROUND($P117/COLUMNS($P$1:V$1),0)=$P117/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N118" s="7"/>
+      <c r="O118" s="4">
+        <f t="shared" si="8"/>
+        <v>30.76923076923077</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="9"/>
+        <v>117</v>
+      </c>
+      <c r="Q118" s="6" t="b">
+        <f>IF(ROUND($P118/COLUMNS($P$1:Q$1),0)=$P118/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R118" s="6" t="b">
+        <f>IF(ROUND($P118/COLUMNS($P$1:R$1),0)=$P118/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S118" s="6" t="b">
+        <f>IF(ROUND($P118/COLUMNS($P$1:S$1),0)=$P118/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T118" s="6" t="b">
+        <f>IF(ROUND($P118/COLUMNS($P$1:T$1),0)=$P118/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U118" s="6" t="b">
+        <f>IF(ROUND($P118/COLUMNS($P$1:U$1),0)=$P118/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V118" s="6" t="b">
+        <f>IF(ROUND($P118/COLUMNS($P$1:V$1),0)=$P118/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N119" s="7"/>
+      <c r="O119" s="4">
+        <f t="shared" si="8"/>
+        <v>30.508474576271187</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="9"/>
+        <v>118</v>
+      </c>
+      <c r="Q119" s="6" t="b">
+        <f>IF(ROUND($P119/COLUMNS($P$1:Q$1),0)=$P119/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R119" s="6" t="b">
+        <f>IF(ROUND($P119/COLUMNS($P$1:R$1),0)=$P119/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S119" s="6" t="b">
+        <f>IF(ROUND($P119/COLUMNS($P$1:S$1),0)=$P119/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T119" s="6" t="b">
+        <f>IF(ROUND($P119/COLUMNS($P$1:T$1),0)=$P119/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U119" s="6" t="b">
+        <f>IF(ROUND($P119/COLUMNS($P$1:U$1),0)=$P119/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V119" s="6" t="b">
+        <f>IF(ROUND($P119/COLUMNS($P$1:V$1),0)=$P119/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N120" s="7"/>
+      <c r="O120" s="4">
+        <f t="shared" si="8"/>
+        <v>30.252100840336134</v>
+      </c>
+      <c r="P120">
+        <f t="shared" si="9"/>
+        <v>119</v>
+      </c>
+      <c r="Q120" s="6" t="b">
+        <f>IF(ROUND($P120/COLUMNS($P$1:Q$1),0)=$P120/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R120" s="6" t="b">
+        <f>IF(ROUND($P120/COLUMNS($P$1:R$1),0)=$P120/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S120" s="6" t="b">
+        <f>IF(ROUND($P120/COLUMNS($P$1:S$1),0)=$P120/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T120" s="6" t="b">
+        <f>IF(ROUND($P120/COLUMNS($P$1:T$1),0)=$P120/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U120" s="6" t="b">
+        <f>IF(ROUND($P120/COLUMNS($P$1:U$1),0)=$P120/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V120" s="6" t="b">
+        <f>IF(ROUND($P120/COLUMNS($P$1:V$1),0)=$P120/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N121" s="7"/>
+      <c r="O121" s="8">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="P121" s="9">
+        <f t="shared" si="9"/>
+        <v>120</v>
+      </c>
+      <c r="Q121" s="6" t="b">
+        <f>IF(ROUND($P121/COLUMNS($P$1:Q$1),0)=$P121/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R121" s="6" t="b">
+        <f>IF(ROUND($P121/COLUMNS($P$1:R$1),0)=$P121/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S121" s="6" t="b">
+        <f>IF(ROUND($P121/COLUMNS($P$1:S$1),0)=$P121/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T121" s="6" t="b">
+        <f>IF(ROUND($P121/COLUMNS($P$1:T$1),0)=$P121/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U121" s="6" t="b">
+        <f>IF(ROUND($P121/COLUMNS($P$1:U$1),0)=$P121/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V121" s="6" t="b">
+        <f>IF(ROUND($P121/COLUMNS($P$1:V$1),0)=$P121/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="14:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N122" s="7"/>
+      <c r="O122" s="4">
+        <f t="shared" si="8"/>
+        <v>29.75206611570248</v>
+      </c>
+      <c r="P122">
+        <f t="shared" si="9"/>
+        <v>121</v>
+      </c>
+      <c r="Q122" s="6" t="b">
+        <f>IF(ROUND($P122/COLUMNS($P$1:Q$1),0)=$P122/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R122" s="6" t="b">
+        <f>IF(ROUND($P122/COLUMNS($P$1:R$1),0)=$P122/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S122" s="6" t="b">
+        <f>IF(ROUND($P122/COLUMNS($P$1:S$1),0)=$P122/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T122" s="6" t="b">
+        <f>IF(ROUND($P122/COLUMNS($P$1:T$1),0)=$P122/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U122" s="6" t="b">
+        <f>IF(ROUND($P122/COLUMNS($P$1:U$1),0)=$P122/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V122" s="6" t="b">
+        <f>IF(ROUND($P122/COLUMNS($P$1:V$1),0)=$P122/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N123" s="7"/>
+      <c r="O123" s="4">
+        <f t="shared" si="8"/>
+        <v>29.508196721311474</v>
+      </c>
+      <c r="P123">
+        <f t="shared" si="9"/>
+        <v>122</v>
+      </c>
+      <c r="Q123" s="6" t="b">
+        <f>IF(ROUND($P123/COLUMNS($P$1:Q$1),0)=$P123/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R123" s="6" t="b">
+        <f>IF(ROUND($P123/COLUMNS($P$1:R$1),0)=$P123/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S123" s="6" t="b">
+        <f>IF(ROUND($P123/COLUMNS($P$1:S$1),0)=$P123/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T123" s="6" t="b">
+        <f>IF(ROUND($P123/COLUMNS($P$1:T$1),0)=$P123/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U123" s="6" t="b">
+        <f>IF(ROUND($P123/COLUMNS($P$1:U$1),0)=$P123/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V123" s="6" t="b">
+        <f>IF(ROUND($P123/COLUMNS($P$1:V$1),0)=$P123/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N124" s="7"/>
+      <c r="O124" s="4">
+        <f t="shared" si="8"/>
+        <v>29.26829268292683</v>
+      </c>
+      <c r="P124">
+        <f t="shared" si="9"/>
+        <v>123</v>
+      </c>
+      <c r="Q124" s="6" t="b">
+        <f>IF(ROUND($P124/COLUMNS($P$1:Q$1),0)=$P124/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R124" s="6" t="b">
+        <f>IF(ROUND($P124/COLUMNS($P$1:R$1),0)=$P124/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S124" s="6" t="b">
+        <f>IF(ROUND($P124/COLUMNS($P$1:S$1),0)=$P124/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T124" s="6" t="b">
+        <f>IF(ROUND($P124/COLUMNS($P$1:T$1),0)=$P124/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U124" s="6" t="b">
+        <f>IF(ROUND($P124/COLUMNS($P$1:U$1),0)=$P124/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V124" s="6" t="b">
+        <f>IF(ROUND($P124/COLUMNS($P$1:V$1),0)=$P124/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N125" s="7"/>
+      <c r="O125" s="4">
+        <f t="shared" si="8"/>
+        <v>29.032258064516128</v>
+      </c>
+      <c r="P125">
+        <f t="shared" si="9"/>
+        <v>124</v>
+      </c>
+      <c r="Q125" s="6" t="b">
+        <f>IF(ROUND($P125/COLUMNS($P$1:Q$1),0)=$P125/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R125" s="6" t="b">
+        <f>IF(ROUND($P125/COLUMNS($P$1:R$1),0)=$P125/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S125" s="6" t="b">
+        <f>IF(ROUND($P125/COLUMNS($P$1:S$1),0)=$P125/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T125" s="6" t="b">
+        <f>IF(ROUND($P125/COLUMNS($P$1:T$1),0)=$P125/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U125" s="6" t="b">
+        <f>IF(ROUND($P125/COLUMNS($P$1:U$1),0)=$P125/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V125" s="6" t="b">
+        <f>IF(ROUND($P125/COLUMNS($P$1:V$1),0)=$P125/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N126" s="7"/>
+      <c r="O126" s="4">
+        <f t="shared" si="8"/>
+        <v>28.8</v>
+      </c>
+      <c r="P126">
+        <f t="shared" si="9"/>
+        <v>125</v>
+      </c>
+      <c r="Q126" s="6" t="b">
+        <f>IF(ROUND($P126/COLUMNS($P$1:Q$1),0)=$P126/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R126" s="6" t="b">
+        <f>IF(ROUND($P126/COLUMNS($P$1:R$1),0)=$P126/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S126" s="6" t="b">
+        <f>IF(ROUND($P126/COLUMNS($P$1:S$1),0)=$P126/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T126" s="6" t="b">
+        <f>IF(ROUND($P126/COLUMNS($P$1:T$1),0)=$P126/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U126" s="6" t="b">
+        <f>IF(ROUND($P126/COLUMNS($P$1:U$1),0)=$P126/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V126" s="6" t="b">
+        <f>IF(ROUND($P126/COLUMNS($P$1:V$1),0)=$P126/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N127" s="7"/>
+      <c r="O127" s="4">
+        <f t="shared" si="8"/>
+        <v>28.571428571428573</v>
+      </c>
+      <c r="P127">
+        <f t="shared" si="9"/>
+        <v>126</v>
+      </c>
+      <c r="Q127" s="6" t="b">
+        <f>IF(ROUND($P127/COLUMNS($P$1:Q$1),0)=$P127/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R127" s="6" t="b">
+        <f>IF(ROUND($P127/COLUMNS($P$1:R$1),0)=$P127/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S127" s="6" t="b">
+        <f>IF(ROUND($P127/COLUMNS($P$1:S$1),0)=$P127/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T127" s="6" t="b">
+        <f>IF(ROUND($P127/COLUMNS($P$1:T$1),0)=$P127/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U127" s="6" t="b">
+        <f>IF(ROUND($P127/COLUMNS($P$1:U$1),0)=$P127/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V127" s="6" t="b">
+        <f>IF(ROUND($P127/COLUMNS($P$1:V$1),0)=$P127/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N128" s="7"/>
+      <c r="O128" s="4">
+        <f t="shared" si="8"/>
+        <v>28.346456692913385</v>
+      </c>
+      <c r="P128">
+        <f t="shared" si="9"/>
+        <v>127</v>
+      </c>
+      <c r="Q128" s="6" t="b">
+        <f>IF(ROUND($P128/COLUMNS($P$1:Q$1),0)=$P128/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R128" s="6" t="b">
+        <f>IF(ROUND($P128/COLUMNS($P$1:R$1),0)=$P128/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S128" s="6" t="b">
+        <f>IF(ROUND($P128/COLUMNS($P$1:S$1),0)=$P128/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T128" s="6" t="b">
+        <f>IF(ROUND($P128/COLUMNS($P$1:T$1),0)=$P128/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U128" s="6" t="b">
+        <f>IF(ROUND($P128/COLUMNS($P$1:U$1),0)=$P128/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V128" s="6" t="b">
+        <f>IF(ROUND($P128/COLUMNS($P$1:V$1),0)=$P128/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N129" s="7"/>
+      <c r="O129" s="4">
+        <f t="shared" si="8"/>
+        <v>28.125</v>
+      </c>
+      <c r="P129">
+        <f t="shared" si="9"/>
+        <v>128</v>
+      </c>
+      <c r="Q129" s="6" t="b">
+        <f>IF(ROUND($P129/COLUMNS($P$1:Q$1),0)=$P129/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R129" s="6" t="b">
+        <f>IF(ROUND($P129/COLUMNS($P$1:R$1),0)=$P129/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S129" s="6" t="b">
+        <f>IF(ROUND($P129/COLUMNS($P$1:S$1),0)=$P129/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T129" s="6" t="b">
+        <f>IF(ROUND($P129/COLUMNS($P$1:T$1),0)=$P129/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U129" s="6" t="b">
+        <f>IF(ROUND($P129/COLUMNS($P$1:U$1),0)=$P129/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V129" s="6" t="b">
+        <f>IF(ROUND($P129/COLUMNS($P$1:V$1),0)=$P129/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N130" s="7"/>
+      <c r="O130" s="4">
+        <f t="shared" si="8"/>
+        <v>27.906976744186046</v>
+      </c>
+      <c r="P130">
+        <f t="shared" si="9"/>
+        <v>129</v>
+      </c>
+      <c r="Q130" s="6" t="b">
+        <f>IF(ROUND($P130/COLUMNS($P$1:Q$1),0)=$P130/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R130" s="6" t="b">
+        <f>IF(ROUND($P130/COLUMNS($P$1:R$1),0)=$P130/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S130" s="6" t="b">
+        <f>IF(ROUND($P130/COLUMNS($P$1:S$1),0)=$P130/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T130" s="6" t="b">
+        <f>IF(ROUND($P130/COLUMNS($P$1:T$1),0)=$P130/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U130" s="6" t="b">
+        <f>IF(ROUND($P130/COLUMNS($P$1:U$1),0)=$P130/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V130" s="6" t="b">
+        <f>IF(ROUND($P130/COLUMNS($P$1:V$1),0)=$P130/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N131" s="7"/>
+      <c r="O131" s="4">
+        <f t="shared" ref="O131:O151" si="10">150*24/P131</f>
+        <v>27.692307692307693</v>
+      </c>
+      <c r="P131">
+        <f t="shared" si="9"/>
+        <v>130</v>
+      </c>
+      <c r="Q131" s="6" t="b">
+        <f>IF(ROUND($P131/COLUMNS($P$1:Q$1),0)=$P131/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R131" s="6" t="b">
+        <f>IF(ROUND($P131/COLUMNS($P$1:R$1),0)=$P131/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S131" s="6" t="b">
+        <f>IF(ROUND($P131/COLUMNS($P$1:S$1),0)=$P131/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T131" s="6" t="b">
+        <f>IF(ROUND($P131/COLUMNS($P$1:T$1),0)=$P131/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U131" s="6" t="b">
+        <f>IF(ROUND($P131/COLUMNS($P$1:U$1),0)=$P131/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V131" s="6" t="b">
+        <f>IF(ROUND($P131/COLUMNS($P$1:V$1),0)=$P131/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N132" s="7"/>
+      <c r="O132" s="4">
+        <f t="shared" si="10"/>
+        <v>27.480916030534353</v>
+      </c>
+      <c r="P132">
+        <f t="shared" si="9"/>
+        <v>131</v>
+      </c>
+      <c r="Q132" s="6" t="b">
+        <f>IF(ROUND($P132/COLUMNS($P$1:Q$1),0)=$P132/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R132" s="6" t="b">
+        <f>IF(ROUND($P132/COLUMNS($P$1:R$1),0)=$P132/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S132" s="6" t="b">
+        <f>IF(ROUND($P132/COLUMNS($P$1:S$1),0)=$P132/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T132" s="6" t="b">
+        <f>IF(ROUND($P132/COLUMNS($P$1:T$1),0)=$P132/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U132" s="6" t="b">
+        <f>IF(ROUND($P132/COLUMNS($P$1:U$1),0)=$P132/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V132" s="6" t="b">
+        <f>IF(ROUND($P132/COLUMNS($P$1:V$1),0)=$P132/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N133" s="7"/>
+      <c r="O133" s="8">
+        <f t="shared" si="10"/>
+        <v>27.272727272727273</v>
+      </c>
+      <c r="P133" s="9">
+        <f t="shared" si="9"/>
+        <v>132</v>
+      </c>
+      <c r="Q133" s="6" t="b">
+        <f>IF(ROUND($P133/COLUMNS($P$1:Q$1),0)=$P133/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R133" s="6" t="b">
+        <f>IF(ROUND($P133/COLUMNS($P$1:R$1),0)=$P133/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S133" s="6" t="b">
+        <f>IF(ROUND($P133/COLUMNS($P$1:S$1),0)=$P133/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T133" s="6" t="b">
+        <f>IF(ROUND($P133/COLUMNS($P$1:T$1),0)=$P133/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U133" s="6" t="b">
+        <f>IF(ROUND($P133/COLUMNS($P$1:U$1),0)=$P133/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V133" s="6" t="b">
+        <f>IF(ROUND($P133/COLUMNS($P$1:V$1),0)=$P133/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="14:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N134" s="7"/>
+      <c r="O134" s="4">
+        <f t="shared" si="10"/>
+        <v>27.06766917293233</v>
+      </c>
+      <c r="P134">
+        <f t="shared" si="9"/>
+        <v>133</v>
+      </c>
+      <c r="Q134" s="6" t="b">
+        <f>IF(ROUND($P134/COLUMNS($P$1:Q$1),0)=$P134/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R134" s="6" t="b">
+        <f>IF(ROUND($P134/COLUMNS($P$1:R$1),0)=$P134/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S134" s="6" t="b">
+        <f>IF(ROUND($P134/COLUMNS($P$1:S$1),0)=$P134/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T134" s="6" t="b">
+        <f>IF(ROUND($P134/COLUMNS($P$1:T$1),0)=$P134/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U134" s="6" t="b">
+        <f>IF(ROUND($P134/COLUMNS($P$1:U$1),0)=$P134/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V134" s="6" t="b">
+        <f>IF(ROUND($P134/COLUMNS($P$1:V$1),0)=$P134/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N135" s="7"/>
+      <c r="O135" s="4">
+        <f t="shared" si="10"/>
+        <v>26.865671641791046</v>
+      </c>
+      <c r="P135">
+        <f t="shared" si="9"/>
+        <v>134</v>
+      </c>
+      <c r="Q135" s="6" t="b">
+        <f>IF(ROUND($P135/COLUMNS($P$1:Q$1),0)=$P135/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R135" s="6" t="b">
+        <f>IF(ROUND($P135/COLUMNS($P$1:R$1),0)=$P135/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S135" s="6" t="b">
+        <f>IF(ROUND($P135/COLUMNS($P$1:S$1),0)=$P135/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T135" s="6" t="b">
+        <f>IF(ROUND($P135/COLUMNS($P$1:T$1),0)=$P135/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U135" s="6" t="b">
+        <f>IF(ROUND($P135/COLUMNS($P$1:U$1),0)=$P135/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V135" s="6" t="b">
+        <f>IF(ROUND($P135/COLUMNS($P$1:V$1),0)=$P135/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N136" s="7"/>
+      <c r="O136" s="4">
+        <f t="shared" si="10"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="P136">
+        <f t="shared" si="9"/>
+        <v>135</v>
+      </c>
+      <c r="Q136" s="6" t="b">
+        <f>IF(ROUND($P136/COLUMNS($P$1:Q$1),0)=$P136/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R136" s="6" t="b">
+        <f>IF(ROUND($P136/COLUMNS($P$1:R$1),0)=$P136/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S136" s="6" t="b">
+        <f>IF(ROUND($P136/COLUMNS($P$1:S$1),0)=$P136/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T136" s="6" t="b">
+        <f>IF(ROUND($P136/COLUMNS($P$1:T$1),0)=$P136/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U136" s="6" t="b">
+        <f>IF(ROUND($P136/COLUMNS($P$1:U$1),0)=$P136/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V136" s="6" t="b">
+        <f>IF(ROUND($P136/COLUMNS($P$1:V$1),0)=$P136/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N137" s="7"/>
+      <c r="O137" s="4">
+        <f t="shared" si="10"/>
+        <v>26.470588235294116</v>
+      </c>
+      <c r="P137">
+        <f t="shared" si="9"/>
+        <v>136</v>
+      </c>
+      <c r="Q137" s="6" t="b">
+        <f>IF(ROUND($P137/COLUMNS($P$1:Q$1),0)=$P137/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R137" s="6" t="b">
+        <f>IF(ROUND($P137/COLUMNS($P$1:R$1),0)=$P137/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S137" s="6" t="b">
+        <f>IF(ROUND($P137/COLUMNS($P$1:S$1),0)=$P137/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T137" s="6" t="b">
+        <f>IF(ROUND($P137/COLUMNS($P$1:T$1),0)=$P137/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U137" s="6" t="b">
+        <f>IF(ROUND($P137/COLUMNS($P$1:U$1),0)=$P137/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V137" s="6" t="b">
+        <f>IF(ROUND($P137/COLUMNS($P$1:V$1),0)=$P137/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N138" s="7"/>
+      <c r="O138" s="4">
+        <f t="shared" si="10"/>
+        <v>26.277372262773724</v>
+      </c>
+      <c r="P138">
+        <f t="shared" si="9"/>
+        <v>137</v>
+      </c>
+      <c r="Q138" s="6" t="b">
+        <f>IF(ROUND($P138/COLUMNS($P$1:Q$1),0)=$P138/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R138" s="6" t="b">
+        <f>IF(ROUND($P138/COLUMNS($P$1:R$1),0)=$P138/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S138" s="6" t="b">
+        <f>IF(ROUND($P138/COLUMNS($P$1:S$1),0)=$P138/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T138" s="6" t="b">
+        <f>IF(ROUND($P138/COLUMNS($P$1:T$1),0)=$P138/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U138" s="6" t="b">
+        <f>IF(ROUND($P138/COLUMNS($P$1:U$1),0)=$P138/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V138" s="6" t="b">
+        <f>IF(ROUND($P138/COLUMNS($P$1:V$1),0)=$P138/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N139" s="7"/>
+      <c r="O139" s="4">
+        <f t="shared" si="10"/>
+        <v>26.086956521739129</v>
+      </c>
+      <c r="P139">
+        <f t="shared" si="9"/>
+        <v>138</v>
+      </c>
+      <c r="Q139" s="6" t="b">
+        <f>IF(ROUND($P139/COLUMNS($P$1:Q$1),0)=$P139/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R139" s="6" t="b">
+        <f>IF(ROUND($P139/COLUMNS($P$1:R$1),0)=$P139/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S139" s="6" t="b">
+        <f>IF(ROUND($P139/COLUMNS($P$1:S$1),0)=$P139/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T139" s="6" t="b">
+        <f>IF(ROUND($P139/COLUMNS($P$1:T$1),0)=$P139/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U139" s="6" t="b">
+        <f>IF(ROUND($P139/COLUMNS($P$1:U$1),0)=$P139/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V139" s="6" t="b">
+        <f>IF(ROUND($P139/COLUMNS($P$1:V$1),0)=$P139/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N140" s="7"/>
+      <c r="O140" s="4">
+        <f t="shared" si="10"/>
+        <v>25.899280575539567</v>
+      </c>
+      <c r="P140">
+        <f t="shared" si="9"/>
+        <v>139</v>
+      </c>
+      <c r="Q140" s="6" t="b">
+        <f>IF(ROUND($P140/COLUMNS($P$1:Q$1),0)=$P140/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R140" s="6" t="b">
+        <f>IF(ROUND($P140/COLUMNS($P$1:R$1),0)=$P140/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S140" s="6" t="b">
+        <f>IF(ROUND($P140/COLUMNS($P$1:S$1),0)=$P140/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T140" s="6" t="b">
+        <f>IF(ROUND($P140/COLUMNS($P$1:T$1),0)=$P140/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U140" s="6" t="b">
+        <f>IF(ROUND($P140/COLUMNS($P$1:U$1),0)=$P140/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V140" s="6" t="b">
+        <f>IF(ROUND($P140/COLUMNS($P$1:V$1),0)=$P140/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N141" s="7"/>
+      <c r="O141" s="4">
+        <f t="shared" si="10"/>
+        <v>25.714285714285715</v>
+      </c>
+      <c r="P141">
+        <f t="shared" si="9"/>
+        <v>140</v>
+      </c>
+      <c r="Q141" s="6" t="b">
+        <f>IF(ROUND($P141/COLUMNS($P$1:Q$1),0)=$P141/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R141" s="6" t="b">
+        <f>IF(ROUND($P141/COLUMNS($P$1:R$1),0)=$P141/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S141" s="6" t="b">
+        <f>IF(ROUND($P141/COLUMNS($P$1:S$1),0)=$P141/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T141" s="6" t="b">
+        <f>IF(ROUND($P141/COLUMNS($P$1:T$1),0)=$P141/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U141" s="6" t="b">
+        <f>IF(ROUND($P141/COLUMNS($P$1:U$1),0)=$P141/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V141" s="6" t="b">
+        <f>IF(ROUND($P141/COLUMNS($P$1:V$1),0)=$P141/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N142" s="7"/>
+      <c r="O142" s="4">
+        <f t="shared" si="10"/>
+        <v>25.531914893617021</v>
+      </c>
+      <c r="P142">
+        <f t="shared" si="9"/>
+        <v>141</v>
+      </c>
+      <c r="Q142" s="6" t="b">
+        <f>IF(ROUND($P142/COLUMNS($P$1:Q$1),0)=$P142/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R142" s="6" t="b">
+        <f>IF(ROUND($P142/COLUMNS($P$1:R$1),0)=$P142/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S142" s="6" t="b">
+        <f>IF(ROUND($P142/COLUMNS($P$1:S$1),0)=$P142/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T142" s="6" t="b">
+        <f>IF(ROUND($P142/COLUMNS($P$1:T$1),0)=$P142/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U142" s="6" t="b">
+        <f>IF(ROUND($P142/COLUMNS($P$1:U$1),0)=$P142/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V142" s="6" t="b">
+        <f>IF(ROUND($P142/COLUMNS($P$1:V$1),0)=$P142/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N143" s="7"/>
+      <c r="O143" s="4">
+        <f t="shared" si="10"/>
+        <v>25.35211267605634</v>
+      </c>
+      <c r="P143">
+        <f t="shared" si="9"/>
+        <v>142</v>
+      </c>
+      <c r="Q143" s="6" t="b">
+        <f>IF(ROUND($P143/COLUMNS($P$1:Q$1),0)=$P143/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R143" s="6" t="b">
+        <f>IF(ROUND($P143/COLUMNS($P$1:R$1),0)=$P143/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S143" s="6" t="b">
+        <f>IF(ROUND($P143/COLUMNS($P$1:S$1),0)=$P143/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T143" s="6" t="b">
+        <f>IF(ROUND($P143/COLUMNS($P$1:T$1),0)=$P143/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U143" s="6" t="b">
+        <f>IF(ROUND($P143/COLUMNS($P$1:U$1),0)=$P143/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V143" s="6" t="b">
+        <f>IF(ROUND($P143/COLUMNS($P$1:V$1),0)=$P143/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N144" s="7"/>
+      <c r="O144" s="4">
+        <f t="shared" si="10"/>
+        <v>25.174825174825173</v>
+      </c>
+      <c r="P144">
+        <f t="shared" si="9"/>
+        <v>143</v>
+      </c>
+      <c r="Q144" s="6" t="b">
+        <f>IF(ROUND($P144/COLUMNS($P$1:Q$1),0)=$P144/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R144" s="6" t="b">
+        <f>IF(ROUND($P144/COLUMNS($P$1:R$1),0)=$P144/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S144" s="6" t="b">
+        <f>IF(ROUND($P144/COLUMNS($P$1:S$1),0)=$P144/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T144" s="6" t="b">
+        <f>IF(ROUND($P144/COLUMNS($P$1:T$1),0)=$P144/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U144" s="6" t="b">
+        <f>IF(ROUND($P144/COLUMNS($P$1:U$1),0)=$P144/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V144" s="6" t="b">
+        <f>IF(ROUND($P144/COLUMNS($P$1:V$1),0)=$P144/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N145" s="7"/>
+      <c r="O145" s="8">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="P145" s="9">
+        <f t="shared" si="9"/>
+        <v>144</v>
+      </c>
+      <c r="Q145" s="6" t="b">
+        <f>IF(ROUND($P145/COLUMNS($P$1:Q$1),0)=$P145/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R145" s="6" t="b">
+        <f>IF(ROUND($P145/COLUMNS($P$1:R$1),0)=$P145/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S145" s="6" t="b">
+        <f>IF(ROUND($P145/COLUMNS($P$1:S$1),0)=$P145/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T145" s="6" t="b">
+        <f>IF(ROUND($P145/COLUMNS($P$1:T$1),0)=$P145/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U145" s="6" t="b">
+        <f>IF(ROUND($P145/COLUMNS($P$1:U$1),0)=$P145/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V145" s="6" t="b">
+        <f>IF(ROUND($P145/COLUMNS($P$1:V$1),0)=$P145/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="14:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="N146" s="7"/>
+      <c r="O146" s="4">
+        <f t="shared" si="10"/>
+        <v>24.827586206896552</v>
+      </c>
+      <c r="P146">
+        <f t="shared" si="9"/>
+        <v>145</v>
+      </c>
+      <c r="Q146" s="6" t="b">
+        <f>IF(ROUND($P146/COLUMNS($P$1:Q$1),0)=$P146/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R146" s="6" t="b">
+        <f>IF(ROUND($P146/COLUMNS($P$1:R$1),0)=$P146/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S146" s="6" t="b">
+        <f>IF(ROUND($P146/COLUMNS($P$1:S$1),0)=$P146/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T146" s="6" t="b">
+        <f>IF(ROUND($P146/COLUMNS($P$1:T$1),0)=$P146/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U146" s="6" t="b">
+        <f>IF(ROUND($P146/COLUMNS($P$1:U$1),0)=$P146/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V146" s="6" t="b">
+        <f>IF(ROUND($P146/COLUMNS($P$1:V$1),0)=$P146/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N147" s="7"/>
+      <c r="O147" s="4">
+        <f t="shared" si="10"/>
+        <v>24.657534246575342</v>
+      </c>
+      <c r="P147">
+        <f t="shared" si="9"/>
+        <v>146</v>
+      </c>
+      <c r="Q147" s="6" t="b">
+        <f>IF(ROUND($P147/COLUMNS($P$1:Q$1),0)=$P147/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R147" s="6" t="b">
+        <f>IF(ROUND($P147/COLUMNS($P$1:R$1),0)=$P147/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S147" s="6" t="b">
+        <f>IF(ROUND($P147/COLUMNS($P$1:S$1),0)=$P147/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T147" s="6" t="b">
+        <f>IF(ROUND($P147/COLUMNS($P$1:T$1),0)=$P147/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U147" s="6" t="b">
+        <f>IF(ROUND($P147/COLUMNS($P$1:U$1),0)=$P147/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V147" s="6" t="b">
+        <f>IF(ROUND($P147/COLUMNS($P$1:V$1),0)=$P147/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N148" s="7"/>
+      <c r="O148" s="4">
+        <f t="shared" si="10"/>
+        <v>24.489795918367346</v>
+      </c>
+      <c r="P148">
+        <f t="shared" si="9"/>
+        <v>147</v>
+      </c>
+      <c r="Q148" s="6" t="b">
+        <f>IF(ROUND($P148/COLUMNS($P$1:Q$1),0)=$P148/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R148" s="6" t="b">
+        <f>IF(ROUND($P148/COLUMNS($P$1:R$1),0)=$P148/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S148" s="6" t="b">
+        <f>IF(ROUND($P148/COLUMNS($P$1:S$1),0)=$P148/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T148" s="6" t="b">
+        <f>IF(ROUND($P148/COLUMNS($P$1:T$1),0)=$P148/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U148" s="6" t="b">
+        <f>IF(ROUND($P148/COLUMNS($P$1:U$1),0)=$P148/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V148" s="6" t="b">
+        <f>IF(ROUND($P148/COLUMNS($P$1:V$1),0)=$P148/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N149" s="7"/>
+      <c r="O149" s="4">
+        <f t="shared" si="10"/>
+        <v>24.324324324324323</v>
+      </c>
+      <c r="P149">
+        <f t="shared" si="9"/>
+        <v>148</v>
+      </c>
+      <c r="Q149" s="6" t="b">
+        <f>IF(ROUND($P149/COLUMNS($P$1:Q$1),0)=$P149/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R149" s="6" t="b">
+        <f>IF(ROUND($P149/COLUMNS($P$1:R$1),0)=$P149/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S149" s="6" t="b">
+        <f>IF(ROUND($P149/COLUMNS($P$1:S$1),0)=$P149/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="T149" s="6" t="b">
+        <f>IF(ROUND($P149/COLUMNS($P$1:T$1),0)=$P149/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U149" s="6" t="b">
+        <f>IF(ROUND($P149/COLUMNS($P$1:U$1),0)=$P149/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V149" s="6" t="b">
+        <f>IF(ROUND($P149/COLUMNS($P$1:V$1),0)=$P149/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N150" s="7"/>
+      <c r="O150" s="4">
+        <f t="shared" si="10"/>
+        <v>24.161073825503355</v>
+      </c>
+      <c r="P150">
+        <f t="shared" si="9"/>
+        <v>149</v>
+      </c>
+      <c r="Q150" s="6" t="b">
+        <f>IF(ROUND($P150/COLUMNS($P$1:Q$1),0)=$P150/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R150" s="6" t="b">
+        <f>IF(ROUND($P150/COLUMNS($P$1:R$1),0)=$P150/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S150" s="6" t="b">
+        <f>IF(ROUND($P150/COLUMNS($P$1:S$1),0)=$P150/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T150" s="6" t="b">
+        <f>IF(ROUND($P150/COLUMNS($P$1:T$1),0)=$P150/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U150" s="6" t="b">
+        <f>IF(ROUND($P150/COLUMNS($P$1:U$1),0)=$P150/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V150" s="6" t="b">
+        <f>IF(ROUND($P150/COLUMNS($P$1:V$1),0)=$P150/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="N151" s="7"/>
+      <c r="O151" s="4">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="P151">
+        <f t="shared" si="9"/>
+        <v>150</v>
+      </c>
+      <c r="Q151" s="6" t="b">
+        <f>IF(ROUND($P151/COLUMNS($P$1:Q$1),0)=$P151/COLUMNS($P$1:Q$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R151" s="6" t="b">
+        <f>IF(ROUND($P151/COLUMNS($P$1:R$1),0)=$P151/COLUMNS($P$1:R$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="S151" s="6" t="b">
+        <f>IF(ROUND($P151/COLUMNS($P$1:S$1),0)=$P151/COLUMNS($P$1:S$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T151" s="6" t="b">
+        <f>IF(ROUND($P151/COLUMNS($P$1:T$1),0)=$P151/COLUMNS($P$1:T$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="U151" s="6" t="b">
+        <f>IF(ROUND($P151/COLUMNS($P$1:U$1),0)=$P151/COLUMNS($P$1:U$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="V151" s="6" t="b">
+        <f>IF(ROUND($P151/COLUMNS($P$1:V$1),0)=$P151/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="O152" s="4"/>
+      <c r="Q152" s="6"/>
+      <c r="R152" s="6"/>
+      <c r="S152" s="6"/>
+      <c r="T152" s="6"/>
+      <c r="U152" s="6"/>
+      <c r="V152" s="6"/>
+    </row>
+    <row r="153" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="O153" s="4"/>
+      <c r="Q153" s="6"/>
+      <c r="R153" s="6"/>
+      <c r="S153" s="6"/>
+      <c r="T153" s="6"/>
+      <c r="U153" s="6"/>
+      <c r="V153" s="6"/>
+    </row>
+    <row r="154" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="O154" s="4"/>
+      <c r="Q154" s="6"/>
+      <c r="R154" s="6"/>
+      <c r="S154" s="6"/>
+      <c r="T154" s="6"/>
+      <c r="U154" s="6"/>
+      <c r="V154" s="6"/>
+    </row>
+    <row r="155" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="O155" s="4"/>
+      <c r="Q155" s="6"/>
+      <c r="R155" s="6"/>
+      <c r="S155" s="6"/>
+      <c r="T155" s="6"/>
+      <c r="U155" s="6"/>
+      <c r="V155" s="6"/>
+    </row>
+    <row r="156" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="O156" s="4"/>
+      <c r="Q156" s="6"/>
+      <c r="R156" s="6"/>
+      <c r="S156" s="6"/>
+      <c r="T156" s="6"/>
+      <c r="U156" s="6"/>
+      <c r="V156" s="6"/>
+    </row>
+    <row r="157" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="O157" s="4"/>
+      <c r="Q157" s="6"/>
+      <c r="R157" s="6"/>
+      <c r="S157" s="6"/>
+      <c r="T157" s="6"/>
+      <c r="U157" s="6"/>
+      <c r="V157" s="6"/>
+    </row>
+    <row r="158" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="O158" s="4"/>
+      <c r="Q158" s="6"/>
+      <c r="R158" s="6"/>
+      <c r="S158" s="6"/>
+      <c r="T158" s="6"/>
+      <c r="U158" s="6"/>
+      <c r="V158" s="6"/>
+    </row>
+    <row r="159" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="O159" s="4"/>
+      <c r="Q159" s="6"/>
+      <c r="R159" s="6"/>
+      <c r="S159" s="6"/>
+      <c r="T159" s="6"/>
+      <c r="U159" s="6"/>
+      <c r="V159" s="6"/>
+    </row>
+    <row r="160" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="O160" s="4"/>
+      <c r="Q160" s="6"/>
+      <c r="R160" s="6"/>
+      <c r="S160" s="6"/>
+      <c r="T160" s="6"/>
+      <c r="U160" s="6"/>
+      <c r="V160" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="Q2:V160">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FALSE">
+      <formula>NOT(ISERROR(SEARCH("FALSE",Q2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="TRUE">
+      <formula>NOT(ISERROR(SEARCH("TRUE",Q2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Music Values.xlsx
+++ b/Music Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\root\custom-channelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C14EBA4-808A-499E-A5EF-0CD3A481F59B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32793C1B-D371-403C-AA88-9427622A569D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="1740" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5940" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/Music Values.xlsx
+++ b/Music Values.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\root\custom-channelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32793C1B-D371-403C-AA88-9427622A569D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D7C3E9-A001-4C2E-B3BF-2F900413E6F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
   <si>
     <t>ENV</t>
   </si>
@@ -182,6 +183,60 @@
   <si>
     <t>rain</t>
   </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>2e</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>32nd</t>
+  </si>
+  <si>
+    <t>8th trip</t>
+  </si>
+  <si>
+    <t>16 trip</t>
+  </si>
+  <si>
+    <t>32 trip</t>
+  </si>
+  <si>
+    <t>4th - 32nd trip</t>
+  </si>
+  <si>
+    <t>24-2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>12+8+2</t>
+  </si>
+  <si>
+    <t>8th + 8th trip + 32nd trip</t>
+  </si>
+  <si>
+    <t>8th + 32nd trip</t>
+  </si>
 </sst>
 </file>
 
@@ -242,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,6 +314,8 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -563,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -6192,4 +6249,1490 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A15453-320F-4AEB-A039-FB00CC47D3C2}">
+  <dimension ref="F1:S57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="S44" sqref="S44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="L1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F2" s="11">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <f>HEX2DEC(F2)</f>
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <f>SUM($G$2:G2)</f>
+        <v>22</v>
+      </c>
+      <c r="I2">
+        <f>_xlfn.FLOOR.MATH((H2/$K$2+1))</f>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f>H2-(I2-1)*$K$2</f>
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <f>24*6</f>
+        <v>144</v>
+      </c>
+      <c r="L2">
+        <f>_xlfn.FLOOR.MATH(J2/$L$1)+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G56" si="0">HEX2DEC(F3)</f>
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <f>SUM($G$2:G3)</f>
+        <v>34</v>
+      </c>
+      <c r="I3">
+        <f>_xlfn.FLOOR.MATH((H3/$K$2+1))</f>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f>H3-(I3-1)*$K$2</f>
+        <v>34</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L56" si="1">_xlfn.FLOOR.MATH(J3/$L$1)+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H4">
+        <f>SUM($G$2:G4)</f>
+        <v>46</v>
+      </c>
+      <c r="I4">
+        <f>_xlfn.FLOOR.MATH((H4/$K$2+1))</f>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f>H4-(I4-1)*$K$2</f>
+        <v>46</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H5">
+        <f>SUM($G$2:G5)</f>
+        <v>58</v>
+      </c>
+      <c r="I5">
+        <f>_xlfn.FLOOR.MATH((H5/$K$2+1))</f>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f>H5-(I5-1)*$K$2</f>
+        <v>58</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <f>SUM($G$2:G6)</f>
+        <v>70</v>
+      </c>
+      <c r="I6">
+        <f>_xlfn.FLOOR.MATH((H6/$K$2+1))</f>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f>H6-(I6-1)*$K$2</f>
+        <v>70</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F7" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H7">
+        <f>SUM($G$2:G7)</f>
+        <v>84</v>
+      </c>
+      <c r="I7">
+        <f>_xlfn.FLOOR.MATH((H7/$K$2+1))</f>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f>H7-(I7-1)*$K$2</f>
+        <v>84</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <f>SUM($G$2:G8)</f>
+        <v>96</v>
+      </c>
+      <c r="I8">
+        <f>_xlfn.FLOOR.MATH((H8/$K$2+1))</f>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f>H8-(I8-1)*$K$2</f>
+        <v>96</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F9" s="11">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H9">
+        <f>SUM($G$2:G9)</f>
+        <v>120</v>
+      </c>
+      <c r="I9">
+        <f>_xlfn.FLOOR.MATH((H9/$K$2+1))</f>
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f>H9-(I9-1)*$K$2</f>
+        <v>120</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="H10">
+        <f>SUM($G$2:G10)</f>
+        <v>166</v>
+      </c>
+      <c r="I10">
+        <f>_xlfn.FLOOR.MATH((H10/$K$2+1))</f>
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <f>H10-(I10-1)*$K$2</f>
+        <v>22</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F11" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <f>SUM($G$2:G11)</f>
+        <v>178</v>
+      </c>
+      <c r="I11">
+        <f>_xlfn.FLOOR.MATH((H11/$K$2+1))</f>
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <f>H11-(I11-1)*$K$2</f>
+        <v>34</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <f>SUM($G$2:G12)</f>
+        <v>190</v>
+      </c>
+      <c r="I12">
+        <f>_xlfn.FLOOR.MATH((H12/$K$2+1))</f>
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <f>H12-(I12-1)*$K$2</f>
+        <v>46</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <f>SUM($G$2:G13)</f>
+        <v>202</v>
+      </c>
+      <c r="I13">
+        <f>_xlfn.FLOOR.MATH((H13/$K$2+1))</f>
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <f>H13-(I13-1)*$K$2</f>
+        <v>58</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F14" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <f>SUM($G$2:G14)</f>
+        <v>214</v>
+      </c>
+      <c r="I14">
+        <f>_xlfn.FLOOR.MATH((H14/$K$2+1))</f>
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <f>H14-(I14-1)*$K$2</f>
+        <v>70</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <f>SUM($G$2:G15)</f>
+        <v>228</v>
+      </c>
+      <c r="I15">
+        <f>_xlfn.FLOOR.MATH((H15/$K$2+1))</f>
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <f>H15-(I15-1)*$K$2</f>
+        <v>84</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <f>SUM($G$2:G16)</f>
+        <v>240</v>
+      </c>
+      <c r="I16">
+        <f>_xlfn.FLOOR.MATH((H16/$K$2+1))</f>
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <f>H16-(I16-1)*$K$2</f>
+        <v>96</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H17">
+        <f>SUM($G$2:G17)</f>
+        <v>264</v>
+      </c>
+      <c r="I17">
+        <f>_xlfn.FLOOR.MATH((H17/$K$2+1))</f>
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <f>H17-(I17-1)*$K$2</f>
+        <v>120</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F18" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="H18">
+        <f>SUM($G$2:G18)</f>
+        <v>310</v>
+      </c>
+      <c r="I18">
+        <f>_xlfn.FLOOR.MATH((H18/$K$2+1))</f>
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <f>H18-(I18-1)*$K$2</f>
+        <v>22</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H19">
+        <f>SUM($G$2:G19)</f>
+        <v>322</v>
+      </c>
+      <c r="I19">
+        <f>_xlfn.FLOOR.MATH((H19/$K$2+1))</f>
+        <v>3</v>
+      </c>
+      <c r="J19">
+        <f>H19-(I19-1)*$K$2</f>
+        <v>34</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F20" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H20">
+        <f>SUM($G$2:G20)</f>
+        <v>334</v>
+      </c>
+      <c r="I20">
+        <f>_xlfn.FLOOR.MATH((H20/$K$2+1))</f>
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <f>H20-(I20-1)*$K$2</f>
+        <v>46</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F21" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H21">
+        <f>SUM($G$2:G21)</f>
+        <v>346</v>
+      </c>
+      <c r="I21">
+        <f>_xlfn.FLOOR.MATH((H21/$K$2+1))</f>
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <f>H21-(I21-1)*$K$2</f>
+        <v>58</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H22">
+        <f>SUM($G$2:G22)</f>
+        <v>358</v>
+      </c>
+      <c r="I22">
+        <f>_xlfn.FLOOR.MATH((H22/$K$2+1))</f>
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <f>H22-(I22-1)*$K$2</f>
+        <v>70</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F23" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H23">
+        <f>SUM($G$2:G23)</f>
+        <v>372</v>
+      </c>
+      <c r="I23">
+        <f>_xlfn.FLOOR.MATH((H23/$K$2+1))</f>
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <f>H23-(I23-1)*$K$2</f>
+        <v>84</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F24" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <f>SUM($G$2:G24)</f>
+        <v>384</v>
+      </c>
+      <c r="I24">
+        <f>_xlfn.FLOOR.MATH((H24/$K$2+1))</f>
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <f>H24-(I24-1)*$K$2</f>
+        <v>96</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F25" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <f>SUM($G$2:G25)</f>
+        <v>408</v>
+      </c>
+      <c r="I25">
+        <f>_xlfn.FLOOR.MATH((H25/$K$2+1))</f>
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <f>H25-(I25-1)*$K$2</f>
+        <v>120</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F26" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="H26">
+        <f>SUM($G$2:G26)</f>
+        <v>454</v>
+      </c>
+      <c r="I26">
+        <f>_xlfn.FLOOR.MATH((H26/$K$2+1))</f>
+        <v>4</v>
+      </c>
+      <c r="J26">
+        <f>H26-(I26-1)*$K$2</f>
+        <v>22</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F27" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <f>SUM($G$2:G27)</f>
+        <v>466</v>
+      </c>
+      <c r="I27">
+        <f>_xlfn.FLOOR.MATH((H27/$K$2+1))</f>
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <f>H27-(I27-1)*$K$2</f>
+        <v>34</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F28" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H28">
+        <f>SUM($G$2:G28)</f>
+        <v>478</v>
+      </c>
+      <c r="I28">
+        <f>_xlfn.FLOOR.MATH((H28/$K$2+1))</f>
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <f>H28-(I28-1)*$K$2</f>
+        <v>46</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H29">
+        <f>SUM($G$2:G29)</f>
+        <v>490</v>
+      </c>
+      <c r="I29">
+        <f>_xlfn.FLOOR.MATH((H29/$K$2+1))</f>
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <f>H29-(I29-1)*$K$2</f>
+        <v>58</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F30" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H30">
+        <f>SUM($G$2:G30)</f>
+        <v>502</v>
+      </c>
+      <c r="I30">
+        <f>_xlfn.FLOOR.MATH((H30/$K$2+1))</f>
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <f>H30-(I30-1)*$K$2</f>
+        <v>70</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F31" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H31">
+        <f>SUM($G$2:G31)</f>
+        <v>516</v>
+      </c>
+      <c r="I31">
+        <f>_xlfn.FLOOR.MATH((H31/$K$2+1))</f>
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <f>H31-(I31-1)*$K$2</f>
+        <v>84</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F32" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H32">
+        <f>SUM($G$2:G32)</f>
+        <v>528</v>
+      </c>
+      <c r="I32">
+        <f>_xlfn.FLOOR.MATH((H32/$K$2+1))</f>
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <f>H32-(I32-1)*$K$2</f>
+        <v>96</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F33" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H33">
+        <f>SUM($G$2:G33)</f>
+        <v>552</v>
+      </c>
+      <c r="I33">
+        <f>_xlfn.FLOOR.MATH((H33/$K$2+1))</f>
+        <v>4</v>
+      </c>
+      <c r="J33">
+        <f>H33-(I33-1)*$K$2</f>
+        <v>120</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O33">
+        <v>2</v>
+      </c>
+      <c r="P33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F34" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="H34">
+        <f>SUM($G$2:G34)</f>
+        <v>598</v>
+      </c>
+      <c r="I34">
+        <f>_xlfn.FLOOR.MATH((H34/$K$2+1))</f>
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <f>H34-(I34-1)*$K$2</f>
+        <v>22</v>
+      </c>
+      <c r="K34">
+        <v>96</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>3</v>
+      </c>
+      <c r="P34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F35" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H35">
+        <f>SUM($G$2:G35)</f>
+        <v>610</v>
+      </c>
+      <c r="I35">
+        <f>_xlfn.FLOOR.MATH(((H35-$K$2*4)/$K$34+1))+4</f>
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <f>H35-4*$K$2-(I35-5)*$K$34</f>
+        <v>34</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <v>4</v>
+      </c>
+      <c r="P35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H36">
+        <f>SUM($G$2:G36)</f>
+        <v>622</v>
+      </c>
+      <c r="I36">
+        <f t="shared" ref="I36:I56" si="2">_xlfn.FLOOR.MATH(((H36-$K$2*4)/$K$34+1))+4</f>
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <f>H36-4*$K$2-(I36-5)*$K$34</f>
+        <v>46</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <v>6</v>
+      </c>
+      <c r="P36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F37" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H37">
+        <f>SUM($G$2:G37)</f>
+        <v>634</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <f>H37-4*$K$2-(I37-5)*$K$34</f>
+        <v>58</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O37">
+        <v>8</v>
+      </c>
+      <c r="P37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F38" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H38">
+        <f>SUM($G$2:G38)</f>
+        <v>646</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <f>H38-4*$K$2-(I38-5)*$K$34</f>
+        <v>70</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O38">
+        <v>12</v>
+      </c>
+      <c r="P38" t="s">
+        <v>45</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F39" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H39">
+        <f>SUM($G$2:G39)</f>
+        <v>660</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <f t="shared" ref="J39:J50" si="3">H39-4*$K$2-(I39-5)*$K$34</f>
+        <v>84</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O39">
+        <v>24</v>
+      </c>
+      <c r="P39" t="s">
+        <v>57</v>
+      </c>
+      <c r="R39">
+        <v>22</v>
+      </c>
+      <c r="S39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F40" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H40">
+        <f>SUM($G$2:G40)</f>
+        <v>672</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F41" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H41">
+        <f>SUM($G$2:G41)</f>
+        <v>694</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F42" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H42">
+        <f>SUM($G$2:G42)</f>
+        <v>706</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F43" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H43">
+        <f>SUM($G$2:G43)</f>
+        <v>718</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R43">
+        <v>14</v>
+      </c>
+      <c r="S43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F44" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H44">
+        <f>SUM($G$2:G44)</f>
+        <v>730</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F45" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H45">
+        <f>SUM($G$2:G45)</f>
+        <v>742</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F46" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="H46">
+        <f>SUM($G$2:G46)</f>
+        <v>756</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F47" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H47">
+        <f>SUM($G$2:G47)</f>
+        <v>768</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F48" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H48">
+        <f>SUM($G$2:G48)</f>
+        <v>790</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J48">
+        <f>H48-4*$K$2-2*$K$34-(I48-7)*$K$48</f>
+        <v>22</v>
+      </c>
+      <c r="K48">
+        <f>K34+12</f>
+        <v>108</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F49" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H49">
+        <f>SUM($G$2:G49)</f>
+        <v>802</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J49">
+        <f t="shared" ref="J49:J56" si="4">H49-4*$K$2-2*$K$34-(I49-7)*$K$48</f>
+        <v>34</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F50" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H50">
+        <f>SUM($G$2:G50)</f>
+        <v>814</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F51" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <f>SUM($G$2:G51)</f>
+        <v>816</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F52" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H52">
+        <f>SUM($G$2:G52)</f>
+        <v>828</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F53" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H53">
+        <f>SUM($G$2:G53)</f>
+        <v>840</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F54" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H54">
+        <f>SUM($G$2:G54)</f>
+        <v>852</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F55" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H55">
+        <f>SUM($G$2:G55)</f>
+        <v>860</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F56" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="H56">
+        <f>SUM($G$2:G56)</f>
+        <v>1008</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="J56">
+        <f>H56-4*$K$2-2*$K$34-$K$48-(I56-8)*$K$2</f>
+        <v>-12</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F57" s="10" t="str">
+        <f>DEC2HEX(G57)</f>
+        <v>3F0</v>
+      </c>
+      <c r="G57">
+        <f>SUM(G2:G56)</f>
+        <v>1008</v>
+      </c>
+      <c r="L57">
+        <f>4*K2+2*K34+K48+K2</f>
+        <v>1020</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Music Values.xlsx
+++ b/Music Values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\root\custom-channelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D7C3E9-A001-4C2E-B3BF-2F900413E6F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE7F2CA-5A46-42D0-B45B-510D8CD04925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25920" yWindow="495" windowWidth="10920" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="117">
   <si>
     <t>ENV</t>
   </si>
@@ -236,6 +236,1608 @@
   </si>
   <si>
     <t>8th + 32nd trip</t>
+  </si>
+  <si>
+    <t>Thirty-Second</t>
+  </si>
+  <si>
+    <t>;testing</t>
+  </si>
+  <si>
+    <r>
+      <t>.redefine BEAT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    duty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    beat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> fs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    duty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    duty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$12</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    duty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$13</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    duty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$14</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    duty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$15</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    duty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$16</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    duty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$17</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    duty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$18</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    duty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$19</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    duty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$1a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    duty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$1b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;2b soft        0b like duty $11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    duty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$1c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    duty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$1d</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    duty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$1e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;1e like atari</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    duty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$1f</t>
+    </r>
+  </si>
+  <si>
+    <t>    </t>
+  </si>
+  <si>
+    <t>    cmdff</t>
+  </si>
+  <si>
+    <t>;end testing</t>
+  </si>
+  <si>
+    <r>
+      <t>.redefine BEAT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;free</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    octave </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    duty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$08</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    beat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> fs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    duty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$0f</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    beat g </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    duty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    beat ou cs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    duty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$09</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    beat fs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> g </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    beat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> ou cs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    beat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$07</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    beat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> fs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> g </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    duty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$0e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    beat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> ou cs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    duty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$0a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    beat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>.redefine BEAT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF6A9955"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;sixteenth</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    beat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> fs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    beat g </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    beat ou cs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    beat fs </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> g </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF4EC9B0"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    beat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$09</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    duty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>$07</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -245,7 +1847,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,13 +1868,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF6A9955"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1E1E1E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -297,7 +1929,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -316,6 +1948,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -618,10 +2259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V160"/>
+  <dimension ref="A1:W160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84:A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,9 +2277,10 @@
     <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -675,8 +2317,11 @@
       <c r="V1" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -746,8 +2391,12 @@
         <f>IF(ROUND($P2/COLUMNS($P$1:V$1),0)=$P2/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W2" s="6" t="b">
+        <f>IF(ROUND($P2/COLUMNS($P$1:W$1),0)=$P2/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -784,8 +2433,12 @@
         <f>IF(ROUND($P3/COLUMNS($P$1:V$1),0)=$P3/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W3" s="6" t="b">
+        <f>IF(ROUND($P3/COLUMNS($P$1:W$1),0)=$P3/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="str">
         <f>DEC2HEX(HEX2DEC(B3)+1,2)</f>
         <v>01</v>
@@ -838,8 +2491,12 @@
         <f>IF(ROUND($P4/COLUMNS($P$1:V$1),0)=$P4/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W4" s="6" t="b">
+        <f>IF(ROUND($P4/COLUMNS($P$1:W$1),0)=$P4/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="str">
         <f t="shared" ref="B5:B6" si="3">DEC2HEX(HEX2DEC(B4)+1,2)</f>
         <v>02</v>
@@ -877,8 +2534,12 @@
         <f>IF(ROUND($P5/COLUMNS($P$1:V$1),0)=$P5/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W5" s="6" t="b">
+        <f>IF(ROUND($P5/COLUMNS($P$1:W$1),0)=$P5/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="str">
         <f t="shared" si="3"/>
         <v>03</v>
@@ -919,8 +2580,12 @@
         <f>IF(ROUND($P6/COLUMNS($P$1:V$1),0)=$P6/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W6" s="6" t="b">
+        <f>IF(ROUND($P6/COLUMNS($P$1:W$1),0)=$P6/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -966,8 +2631,12 @@
         <f>IF(ROUND($P7/COLUMNS($P$1:V$1),0)=$P7/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W7" s="6" t="b">
+        <f>IF(ROUND($P7/COLUMNS($P$1:W$1),0)=$P7/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1014,8 +2683,12 @@
         <f>IF(ROUND($P8/COLUMNS($P$1:V$1),0)=$P8/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W8" s="6" t="b">
+        <f>IF(ROUND($P8/COLUMNS($P$1:W$1),0)=$P8/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1063,8 +2736,12 @@
         <f>IF(ROUND($P9/COLUMNS($P$1:V$1),0)=$P9/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W9" s="6" t="b">
+        <f>IF(ROUND($P9/COLUMNS($P$1:W$1),0)=$P9/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1112,8 +2789,12 @@
         <f>IF(ROUND($P10/COLUMNS($P$1:V$1),0)=$P10/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W10" s="6" t="b">
+        <f>IF(ROUND($P10/COLUMNS($P$1:W$1),0)=$P10/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1161,8 +2842,12 @@
         <f>IF(ROUND($P11/COLUMNS($P$1:V$1),0)=$P11/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W11" s="6" t="b">
+        <f>IF(ROUND($P11/COLUMNS($P$1:W$1),0)=$P11/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1213,8 +2898,12 @@
         <f>IF(ROUND($P12/COLUMNS($P$1:V$1),0)=$P12/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W12" s="6" t="b">
+        <f>IF(ROUND($P12/COLUMNS($P$1:W$1),0)=$P12/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1262,8 +2951,12 @@
         <f>IF(ROUND($P13/COLUMNS($P$1:V$1),0)=$P13/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="W13" s="6" t="b">
+        <f>IF(ROUND($P13/COLUMNS($P$1:W$1),0)=$P13/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1314,8 +3007,12 @@
         <f>IF(ROUND($P14/COLUMNS($P$1:V$1),0)=$P14/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W14" s="6" t="b">
+        <f>IF(ROUND($P14/COLUMNS($P$1:W$1),0)=$P14/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>18</v>
       </c>
@@ -1366,8 +3063,12 @@
         <f>IF(ROUND($P15/COLUMNS($P$1:V$1),0)=$P15/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W15" s="6" t="b">
+        <f>IF(ROUND($P15/COLUMNS($P$1:W$1),0)=$P15/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
@@ -1411,8 +3112,12 @@
         <f>IF(ROUND($P16/COLUMNS($P$1:V$1),0)=$P16/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W16" s="6" t="b">
+        <f>IF(ROUND($P16/COLUMNS($P$1:W$1),0)=$P16/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1452,8 +3157,12 @@
         <f>IF(ROUND($P17/COLUMNS($P$1:V$1),0)=$P17/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W17" s="6" t="b">
+        <f>IF(ROUND($P17/COLUMNS($P$1:W$1),0)=$P17/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
@@ -1493,8 +3202,12 @@
         <f>IF(ROUND($P18/COLUMNS($P$1:V$1),0)=$P18/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W18" s="6" t="b">
+        <f>IF(ROUND($P18/COLUMNS($P$1:W$1),0)=$P18/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>13</v>
       </c>
@@ -1534,8 +3247,12 @@
         <f>IF(ROUND($P19/COLUMNS($P$1:V$1),0)=$P19/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W19" s="6" t="b">
+        <f>IF(ROUND($P19/COLUMNS($P$1:W$1),0)=$P19/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="N20" s="7"/>
       <c r="O20" s="4">
         <f t="shared" si="1"/>
@@ -1569,8 +3286,12 @@
         <f>IF(ROUND($P20/COLUMNS($P$1:V$1),0)=$P20/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W20" s="6" t="b">
+        <f>IF(ROUND($P20/COLUMNS($P$1:W$1),0)=$P20/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="N21" s="7"/>
       <c r="O21" s="4">
         <f t="shared" si="1"/>
@@ -1604,8 +3325,12 @@
         <f>IF(ROUND($P21/COLUMNS($P$1:V$1),0)=$P21/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W21" s="6" t="b">
+        <f>IF(ROUND($P21/COLUMNS($P$1:W$1),0)=$P21/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="N22" s="7"/>
       <c r="O22" s="4">
         <f t="shared" si="1"/>
@@ -1639,8 +3364,12 @@
         <f>IF(ROUND($P22/COLUMNS($P$1:V$1),0)=$P22/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W22" s="6" t="b">
+        <f>IF(ROUND($P22/COLUMNS($P$1:W$1),0)=$P22/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="N23" s="7"/>
       <c r="O23" s="4">
         <f t="shared" si="1"/>
@@ -1674,8 +3403,15 @@
         <f>IF(ROUND($P23/COLUMNS($P$1:V$1),0)=$P23/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W23" s="6" t="b">
+        <f>IF(ROUND($P23/COLUMNS($P$1:W$1),0)=$P23/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="N24" s="7"/>
       <c r="O24" s="4">
         <f t="shared" si="1"/>
@@ -1709,8 +3445,15 @@
         <f>IF(ROUND($P24/COLUMNS($P$1:V$1),0)=$P24/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W24" s="6" t="b">
+        <f>IF(ROUND($P24/COLUMNS($P$1:W$1),0)=$P24/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>72</v>
+      </c>
       <c r="N25" s="7"/>
       <c r="O25" s="8">
         <f t="shared" si="1"/>
@@ -1744,8 +3487,15 @@
         <f>IF(ROUND($P25/COLUMNS($P$1:V$1),0)=$P25/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="W25" s="6" t="b">
+        <f>IF(ROUND($P25/COLUMNS($P$1:W$1),0)=$P25/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>73</v>
+      </c>
       <c r="N26" s="7"/>
       <c r="O26" s="4">
         <f t="shared" si="1"/>
@@ -1779,8 +3529,15 @@
         <f>IF(ROUND($P26/COLUMNS($P$1:V$1),0)=$P26/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W26" s="6" t="b">
+        <f>IF(ROUND($P26/COLUMNS($P$1:W$1),0)=$P26/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="N27" s="7"/>
       <c r="O27" s="4">
         <f t="shared" si="1"/>
@@ -1814,8 +3571,15 @@
         <f>IF(ROUND($P27/COLUMNS($P$1:V$1),0)=$P27/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W27" s="6" t="b">
+        <f>IF(ROUND($P27/COLUMNS($P$1:W$1),0)=$P27/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="N28" s="7"/>
       <c r="O28" s="4">
         <f t="shared" si="1"/>
@@ -1849,8 +3613,15 @@
         <f>IF(ROUND($P28/COLUMNS($P$1:V$1),0)=$P28/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W28" s="6" t="b">
+        <f>IF(ROUND($P28/COLUMNS($P$1:W$1),0)=$P28/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="N29" s="7"/>
       <c r="O29" s="4">
         <f t="shared" si="1"/>
@@ -1884,8 +3655,15 @@
         <f>IF(ROUND($P29/COLUMNS($P$1:V$1),0)=$P29/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W29" s="6" t="b">
+        <f>IF(ROUND($P29/COLUMNS($P$1:W$1),0)=$P29/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="N30" s="7"/>
       <c r="O30" s="4">
         <f t="shared" si="1"/>
@@ -1919,8 +3697,15 @@
         <f>IF(ROUND($P30/COLUMNS($P$1:V$1),0)=$P30/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W30" s="6" t="b">
+        <f>IF(ROUND($P30/COLUMNS($P$1:W$1),0)=$P30/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="N31" s="7"/>
       <c r="O31" s="4">
         <f t="shared" si="1"/>
@@ -1954,8 +3739,15 @@
         <f>IF(ROUND($P31/COLUMNS($P$1:V$1),0)=$P31/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="W31" s="6" t="b">
+        <f>IF(ROUND($P31/COLUMNS($P$1:W$1),0)=$P31/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>77</v>
+      </c>
       <c r="N32" s="7"/>
       <c r="O32" s="4">
         <f t="shared" si="1"/>
@@ -1989,8 +3781,15 @@
         <f>IF(ROUND($P32/COLUMNS($P$1:V$1),0)=$P32/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W32" s="6" t="b">
+        <f>IF(ROUND($P32/COLUMNS($P$1:W$1),0)=$P32/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="N33" s="7"/>
       <c r="O33" s="4">
         <f t="shared" si="1"/>
@@ -2024,8 +3823,15 @@
         <f>IF(ROUND($P33/COLUMNS($P$1:V$1),0)=$P33/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W33" s="6" t="b">
+        <f>IF(ROUND($P33/COLUMNS($P$1:W$1),0)=$P33/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="N34" s="7"/>
       <c r="O34" s="4">
         <f t="shared" si="1"/>
@@ -2059,8 +3865,15 @@
         <f>IF(ROUND($P34/COLUMNS($P$1:V$1),0)=$P34/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W34" s="6" t="b">
+        <f>IF(ROUND($P34/COLUMNS($P$1:W$1),0)=$P34/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="N35" s="7"/>
       <c r="O35" s="4">
         <f t="shared" si="1"/>
@@ -2094,8 +3907,15 @@
         <f>IF(ROUND($P35/COLUMNS($P$1:V$1),0)=$P35/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W35" s="6" t="b">
+        <f>IF(ROUND($P35/COLUMNS($P$1:W$1),0)=$P35/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="N36" s="7"/>
       <c r="O36" s="4">
         <f t="shared" si="1"/>
@@ -2129,8 +3949,15 @@
         <f>IF(ROUND($P36/COLUMNS($P$1:V$1),0)=$P36/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W36" s="6" t="b">
+        <f>IF(ROUND($P36/COLUMNS($P$1:W$1),0)=$P36/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="N37" s="7"/>
       <c r="O37" s="8">
         <f t="shared" si="1"/>
@@ -2164,8 +3991,15 @@
         <f>IF(ROUND($P37/COLUMNS($P$1:V$1),0)=$P37/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="14:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="W37" s="6" t="b">
+        <f>IF(ROUND($P37/COLUMNS($P$1:W$1),0)=$P37/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>80</v>
+      </c>
       <c r="N38" s="7"/>
       <c r="O38" s="4">
         <f t="shared" si="1"/>
@@ -2199,8 +4033,15 @@
         <f>IF(ROUND($P38/COLUMNS($P$1:V$1),0)=$P38/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W38" s="6" t="b">
+        <f>IF(ROUND($P38/COLUMNS($P$1:W$1),0)=$P38/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="N39" s="7"/>
       <c r="O39" s="4">
         <f t="shared" si="1"/>
@@ -2234,8 +4075,15 @@
         <f>IF(ROUND($P39/COLUMNS($P$1:V$1),0)=$P39/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W39" s="6" t="b">
+        <f>IF(ROUND($P39/COLUMNS($P$1:W$1),0)=$P39/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>81</v>
+      </c>
       <c r="N40" s="7"/>
       <c r="O40" s="4">
         <f t="shared" si="1"/>
@@ -2269,8 +4117,15 @@
         <f>IF(ROUND($P40/COLUMNS($P$1:V$1),0)=$P40/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W40" s="6" t="b">
+        <f>IF(ROUND($P40/COLUMNS($P$1:W$1),0)=$P40/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="N41" s="7"/>
       <c r="O41" s="4">
         <f t="shared" si="1"/>
@@ -2304,8 +4159,15 @@
         <f>IF(ROUND($P41/COLUMNS($P$1:V$1),0)=$P41/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W41" s="6" t="b">
+        <f>IF(ROUND($P41/COLUMNS($P$1:W$1),0)=$P41/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="N42" s="7"/>
       <c r="O42" s="4">
         <f t="shared" si="1"/>
@@ -2339,8 +4201,15 @@
         <f>IF(ROUND($P42/COLUMNS($P$1:V$1),0)=$P42/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W42" s="6" t="b">
+        <f>IF(ROUND($P42/COLUMNS($P$1:W$1),0)=$P42/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="N43" s="7"/>
       <c r="O43" s="4">
         <f t="shared" si="1"/>
@@ -2374,8 +4243,15 @@
         <f>IF(ROUND($P43/COLUMNS($P$1:V$1),0)=$P43/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W43" s="6" t="b">
+        <f>IF(ROUND($P43/COLUMNS($P$1:W$1),0)=$P43/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="N44" s="7"/>
       <c r="O44" s="4">
         <f t="shared" si="1"/>
@@ -2409,8 +4285,15 @@
         <f>IF(ROUND($P44/COLUMNS($P$1:V$1),0)=$P44/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W44" s="6" t="b">
+        <f>IF(ROUND($P44/COLUMNS($P$1:W$1),0)=$P44/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="N45" s="7"/>
       <c r="O45" s="4">
         <f t="shared" si="1"/>
@@ -2444,8 +4327,15 @@
         <f>IF(ROUND($P45/COLUMNS($P$1:V$1),0)=$P45/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W45" s="6" t="b">
+        <f>IF(ROUND($P45/COLUMNS($P$1:W$1),0)=$P45/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="N46" s="7"/>
       <c r="O46" s="4">
         <f t="shared" si="1"/>
@@ -2479,8 +4369,15 @@
         <f>IF(ROUND($P46/COLUMNS($P$1:V$1),0)=$P46/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W46" s="6" t="b">
+        <f>IF(ROUND($P46/COLUMNS($P$1:W$1),0)=$P46/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="N47" s="7"/>
       <c r="O47" s="4">
         <f t="shared" si="1"/>
@@ -2514,8 +4411,15 @@
         <f>IF(ROUND($P47/COLUMNS($P$1:V$1),0)=$P47/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W47" s="6" t="b">
+        <f>IF(ROUND($P47/COLUMNS($P$1:W$1),0)=$P47/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="N48" s="7"/>
       <c r="O48" s="4">
         <f t="shared" si="1"/>
@@ -2549,8 +4453,15 @@
         <f>IF(ROUND($P48/COLUMNS($P$1:V$1),0)=$P48/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W48" s="6" t="b">
+        <f>IF(ROUND($P48/COLUMNS($P$1:W$1),0)=$P48/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="N49" s="7"/>
       <c r="O49" s="8">
         <f t="shared" si="1"/>
@@ -2584,8 +4495,15 @@
         <f>IF(ROUND($P49/COLUMNS($P$1:V$1),0)=$P49/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="14:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="W49" s="6" t="b">
+        <f>IF(ROUND($P49/COLUMNS($P$1:W$1),0)=$P49/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>86</v>
+      </c>
       <c r="N50" s="7"/>
       <c r="O50" s="4">
         <f t="shared" si="1"/>
@@ -2619,8 +4537,15 @@
         <f>IF(ROUND($P50/COLUMNS($P$1:V$1),0)=$P50/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W50" s="6" t="b">
+        <f>IF(ROUND($P50/COLUMNS($P$1:W$1),0)=$P50/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="N51" s="7"/>
       <c r="O51" s="4">
         <f t="shared" si="1"/>
@@ -2654,8 +4579,15 @@
         <f>IF(ROUND($P51/COLUMNS($P$1:V$1),0)=$P51/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W51" s="6" t="b">
+        <f>IF(ROUND($P51/COLUMNS($P$1:W$1),0)=$P51/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>87</v>
+      </c>
       <c r="N52" s="7"/>
       <c r="O52" s="4">
         <f t="shared" si="1"/>
@@ -2689,8 +4621,15 @@
         <f>IF(ROUND($P52/COLUMNS($P$1:V$1),0)=$P52/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W52" s="6" t="b">
+        <f>IF(ROUND($P52/COLUMNS($P$1:W$1),0)=$P52/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="N53" s="7"/>
       <c r="O53" s="4">
         <f t="shared" si="1"/>
@@ -2724,8 +4663,15 @@
         <f>IF(ROUND($P53/COLUMNS($P$1:V$1),0)=$P53/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W53" s="6" t="b">
+        <f>IF(ROUND($P53/COLUMNS($P$1:W$1),0)=$P53/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>88</v>
+      </c>
       <c r="N54" s="7"/>
       <c r="O54" s="4">
         <f t="shared" si="1"/>
@@ -2759,8 +4705,15 @@
         <f>IF(ROUND($P54/COLUMNS($P$1:V$1),0)=$P54/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W54" s="6" t="b">
+        <f>IF(ROUND($P54/COLUMNS($P$1:W$1),0)=$P54/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="N55" s="7"/>
       <c r="O55" s="4">
         <f t="shared" si="1"/>
@@ -2794,8 +4747,15 @@
         <f>IF(ROUND($P55/COLUMNS($P$1:V$1),0)=$P55/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W55" s="6" t="b">
+        <f>IF(ROUND($P55/COLUMNS($P$1:W$1),0)=$P55/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>89</v>
+      </c>
       <c r="N56" s="7"/>
       <c r="O56" s="4">
         <f t="shared" si="1"/>
@@ -2829,8 +4789,15 @@
         <f>IF(ROUND($P56/COLUMNS($P$1:V$1),0)=$P56/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W56" s="6" t="b">
+        <f>IF(ROUND($P56/COLUMNS($P$1:W$1),0)=$P56/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="N57" s="7"/>
       <c r="O57" s="4">
         <f t="shared" si="1"/>
@@ -2864,8 +4831,15 @@
         <f>IF(ROUND($P57/COLUMNS($P$1:V$1),0)=$P57/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W57" s="6" t="b">
+        <f>IF(ROUND($P57/COLUMNS($P$1:W$1),0)=$P57/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>90</v>
+      </c>
       <c r="N58" s="7"/>
       <c r="O58" s="4">
         <f t="shared" si="1"/>
@@ -2899,8 +4873,15 @@
         <f>IF(ROUND($P58/COLUMNS($P$1:V$1),0)=$P58/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W58" s="6" t="b">
+        <f>IF(ROUND($P58/COLUMNS($P$1:W$1),0)=$P58/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="N59" s="7"/>
       <c r="O59" s="4">
         <f t="shared" si="1"/>
@@ -2934,8 +4915,15 @@
         <f>IF(ROUND($P59/COLUMNS($P$1:V$1),0)=$P59/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W59" s="6" t="b">
+        <f>IF(ROUND($P59/COLUMNS($P$1:W$1),0)=$P59/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="N60" s="7"/>
       <c r="O60" s="4">
         <f t="shared" si="1"/>
@@ -2969,8 +4957,12 @@
         <f>IF(ROUND($P60/COLUMNS($P$1:V$1),0)=$P60/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W60" s="6" t="b">
+        <f>IF(ROUND($P60/COLUMNS($P$1:W$1),0)=$P60/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N61" s="7"/>
       <c r="O61" s="8">
         <f t="shared" si="1"/>
@@ -3004,8 +4996,12 @@
         <f>IF(ROUND($P61/COLUMNS($P$1:V$1),0)=$P61/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="14:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="W61" s="6" t="b">
+        <f>IF(ROUND($P61/COLUMNS($P$1:W$1),0)=$P61/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="N62" s="7"/>
       <c r="O62" s="4">
         <f t="shared" si="1"/>
@@ -3039,8 +5035,15 @@
         <f>IF(ROUND($P62/COLUMNS($P$1:V$1),0)=$P62/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W62" s="6" t="b">
+        <f>IF(ROUND($P62/COLUMNS($P$1:W$1),0)=$P62/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="N63" s="7"/>
       <c r="O63" s="4">
         <f t="shared" si="1"/>
@@ -3074,8 +5077,15 @@
         <f>IF(ROUND($P63/COLUMNS($P$1:V$1),0)=$P63/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W63" s="6" t="b">
+        <f>IF(ROUND($P63/COLUMNS($P$1:W$1),0)=$P63/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="N64" s="7"/>
       <c r="O64" s="4">
         <f t="shared" si="1"/>
@@ -3109,8 +5119,15 @@
         <f>IF(ROUND($P64/COLUMNS($P$1:V$1),0)=$P64/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W64" s="6" t="b">
+        <f>IF(ROUND($P64/COLUMNS($P$1:W$1),0)=$P64/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="N65" s="7"/>
       <c r="O65" s="4">
         <f t="shared" si="1"/>
@@ -3144,8 +5161,15 @@
         <f>IF(ROUND($P65/COLUMNS($P$1:V$1),0)=$P65/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W65" s="6" t="b">
+        <f>IF(ROUND($P65/COLUMNS($P$1:W$1),0)=$P65/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="N66" s="7"/>
       <c r="O66" s="4">
         <f t="shared" si="1"/>
@@ -3179,8 +5203,15 @@
         <f>IF(ROUND($P66/COLUMNS($P$1:V$1),0)=$P66/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W66" s="6" t="b">
+        <f>IF(ROUND($P66/COLUMNS($P$1:W$1),0)=$P66/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="N67" s="7"/>
       <c r="O67" s="4">
         <f t="shared" ref="O67:O130" si="8">150*24/P67</f>
@@ -3214,8 +5245,15 @@
         <f>IF(ROUND($P67/COLUMNS($P$1:V$1),0)=$P67/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W67" s="6" t="b">
+        <f>IF(ROUND($P67/COLUMNS($P$1:W$1),0)=$P67/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="N68" s="7"/>
       <c r="O68" s="4">
         <f t="shared" si="8"/>
@@ -3249,8 +5287,15 @@
         <f>IF(ROUND($P68/COLUMNS($P$1:V$1),0)=$P68/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W68" s="6" t="b">
+        <f>IF(ROUND($P68/COLUMNS($P$1:W$1),0)=$P68/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>99</v>
+      </c>
       <c r="N69" s="7"/>
       <c r="O69" s="4">
         <f t="shared" si="8"/>
@@ -3284,8 +5329,15 @@
         <f>IF(ROUND($P69/COLUMNS($P$1:V$1),0)=$P69/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W69" s="6" t="b">
+        <f>IF(ROUND($P69/COLUMNS($P$1:W$1),0)=$P69/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="N70" s="7"/>
       <c r="O70" s="4">
         <f t="shared" si="8"/>
@@ -3319,8 +5371,15 @@
         <f>IF(ROUND($P70/COLUMNS($P$1:V$1),0)=$P70/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W70" s="6" t="b">
+        <f>IF(ROUND($P70/COLUMNS($P$1:W$1),0)=$P70/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="N71" s="7"/>
       <c r="O71" s="4">
         <f t="shared" si="8"/>
@@ -3354,8 +5413,15 @@
         <f>IF(ROUND($P71/COLUMNS($P$1:V$1),0)=$P71/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W71" s="6" t="b">
+        <f>IF(ROUND($P71/COLUMNS($P$1:W$1),0)=$P71/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="N72" s="7"/>
       <c r="O72" s="4">
         <f t="shared" si="8"/>
@@ -3389,8 +5455,13 @@
         <f>IF(ROUND($P72/COLUMNS($P$1:V$1),0)=$P72/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W72" s="6" t="b">
+        <f>IF(ROUND($P72/COLUMNS($P$1:W$1),0)=$P72/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="14"/>
       <c r="N73" s="7"/>
       <c r="O73" s="8">
         <f t="shared" si="8"/>
@@ -3424,8 +5495,15 @@
         <f>IF(ROUND($P73/COLUMNS($P$1:V$1),0)=$P73/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="14:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="W73" s="6" t="b">
+        <f>IF(ROUND($P73/COLUMNS($P$1:W$1),0)=$P73/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="N74" s="7"/>
       <c r="O74" s="4">
         <f t="shared" si="8"/>
@@ -3459,8 +5537,15 @@
         <f>IF(ROUND($P74/COLUMNS($P$1:V$1),0)=$P74/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W74" s="6" t="b">
+        <f>IF(ROUND($P74/COLUMNS($P$1:W$1),0)=$P74/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="N75" s="7"/>
       <c r="O75" s="4">
         <f t="shared" si="8"/>
@@ -3494,8 +5579,15 @@
         <f>IF(ROUND($P75/COLUMNS($P$1:V$1),0)=$P75/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W75" s="6" t="b">
+        <f>IF(ROUND($P75/COLUMNS($P$1:W$1),0)=$P75/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="N76" s="7"/>
       <c r="O76" s="4">
         <f t="shared" si="8"/>
@@ -3529,8 +5621,15 @@
         <f>IF(ROUND($P76/COLUMNS($P$1:V$1),0)=$P76/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W76" s="6" t="b">
+        <f>IF(ROUND($P76/COLUMNS($P$1:W$1),0)=$P76/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="N77" s="7"/>
       <c r="O77" s="4">
         <f t="shared" si="8"/>
@@ -3564,8 +5663,15 @@
         <f>IF(ROUND($P77/COLUMNS($P$1:V$1),0)=$P77/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W77" s="6" t="b">
+        <f>IF(ROUND($P77/COLUMNS($P$1:W$1),0)=$P77/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>106</v>
+      </c>
       <c r="N78" s="7"/>
       <c r="O78" s="4">
         <f t="shared" si="8"/>
@@ -3599,8 +5705,15 @@
         <f>IF(ROUND($P78/COLUMNS($P$1:V$1),0)=$P78/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W78" s="6" t="b">
+        <f>IF(ROUND($P78/COLUMNS($P$1:W$1),0)=$P78/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>107</v>
+      </c>
       <c r="N79" s="7"/>
       <c r="O79" s="4">
         <f t="shared" si="8"/>
@@ -3634,8 +5747,15 @@
         <f>IF(ROUND($P79/COLUMNS($P$1:V$1),0)=$P79/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W79" s="6" t="b">
+        <f>IF(ROUND($P79/COLUMNS($P$1:W$1),0)=$P79/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>108</v>
+      </c>
       <c r="N80" s="7"/>
       <c r="O80" s="4">
         <f t="shared" si="8"/>
@@ -3669,8 +5789,15 @@
         <f>IF(ROUND($P80/COLUMNS($P$1:V$1),0)=$P80/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W80" s="6" t="b">
+        <f>IF(ROUND($P80/COLUMNS($P$1:W$1),0)=$P80/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>109</v>
+      </c>
       <c r="N81" s="7"/>
       <c r="O81" s="4">
         <f t="shared" si="8"/>
@@ -3704,8 +5831,15 @@
         <f>IF(ROUND($P81/COLUMNS($P$1:V$1),0)=$P81/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W81" s="6" t="b">
+        <f>IF(ROUND($P81/COLUMNS($P$1:W$1),0)=$P81/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>91</v>
+      </c>
       <c r="N82" s="7"/>
       <c r="O82" s="4">
         <f t="shared" si="8"/>
@@ -3739,8 +5873,12 @@
         <f>IF(ROUND($P82/COLUMNS($P$1:V$1),0)=$P82/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W82" s="6" t="b">
+        <f>IF(ROUND($P82/COLUMNS($P$1:W$1),0)=$P82/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="N83" s="7"/>
       <c r="O83" s="4">
         <f t="shared" si="8"/>
@@ -3774,8 +5912,15 @@
         <f>IF(ROUND($P83/COLUMNS($P$1:V$1),0)=$P83/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W83" s="6" t="b">
+        <f>IF(ROUND($P83/COLUMNS($P$1:W$1),0)=$P83/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
+        <v>110</v>
+      </c>
       <c r="N84" s="7"/>
       <c r="O84" s="4">
         <f t="shared" si="8"/>
@@ -3809,8 +5954,15 @@
         <f>IF(ROUND($P84/COLUMNS($P$1:V$1),0)=$P84/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W84" s="6" t="b">
+        <f>IF(ROUND($P84/COLUMNS($P$1:W$1),0)=$P84/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="N85" s="7"/>
       <c r="O85" s="8">
         <f t="shared" si="8"/>
@@ -3844,8 +5996,15 @@
         <f>IF(ROUND($P85/COLUMNS($P$1:V$1),0)=$P85/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="14:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="W85" s="6" t="b">
+        <f>IF(ROUND($P85/COLUMNS($P$1:W$1),0)=$P85/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="N86" s="7"/>
       <c r="O86" s="4">
         <f t="shared" si="8"/>
@@ -3879,8 +6038,15 @@
         <f>IF(ROUND($P86/COLUMNS($P$1:V$1),0)=$P86/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W86" s="6" t="b">
+        <f>IF(ROUND($P86/COLUMNS($P$1:W$1),0)=$P86/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="N87" s="7"/>
       <c r="O87" s="4">
         <f t="shared" si="8"/>
@@ -3914,8 +6080,15 @@
         <f>IF(ROUND($P87/COLUMNS($P$1:V$1),0)=$P87/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W87" s="6" t="b">
+        <f>IF(ROUND($P87/COLUMNS($P$1:W$1),0)=$P87/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>97</v>
+      </c>
       <c r="N88" s="7"/>
       <c r="O88" s="4">
         <f t="shared" si="8"/>
@@ -3949,8 +6122,15 @@
         <f>IF(ROUND($P88/COLUMNS($P$1:V$1),0)=$P88/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W88" s="6" t="b">
+        <f>IF(ROUND($P88/COLUMNS($P$1:W$1),0)=$P88/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="N89" s="7"/>
       <c r="O89" s="4">
         <f t="shared" si="8"/>
@@ -3984,8 +6164,15 @@
         <f>IF(ROUND($P89/COLUMNS($P$1:V$1),0)=$P89/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W89" s="6" t="b">
+        <f>IF(ROUND($P89/COLUMNS($P$1:W$1),0)=$P89/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>99</v>
+      </c>
       <c r="N90" s="7"/>
       <c r="O90" s="4">
         <f t="shared" si="8"/>
@@ -4019,8 +6206,15 @@
         <f>IF(ROUND($P90/COLUMNS($P$1:V$1),0)=$P90/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W90" s="6" t="b">
+        <f>IF(ROUND($P90/COLUMNS($P$1:W$1),0)=$P90/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="N91" s="7"/>
       <c r="O91" s="4">
         <f t="shared" si="8"/>
@@ -4054,8 +6248,15 @@
         <f>IF(ROUND($P91/COLUMNS($P$1:V$1),0)=$P91/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W91" s="6" t="b">
+        <f>IF(ROUND($P91/COLUMNS($P$1:W$1),0)=$P91/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>101</v>
+      </c>
       <c r="N92" s="7"/>
       <c r="O92" s="4">
         <f t="shared" si="8"/>
@@ -4089,8 +6290,15 @@
         <f>IF(ROUND($P92/COLUMNS($P$1:V$1),0)=$P92/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W92" s="6" t="b">
+        <f>IF(ROUND($P92/COLUMNS($P$1:W$1),0)=$P92/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
+        <v>114</v>
+      </c>
       <c r="N93" s="7"/>
       <c r="O93" s="4">
         <f t="shared" si="8"/>
@@ -4124,8 +6332,13 @@
         <f>IF(ROUND($P93/COLUMNS($P$1:V$1),0)=$P93/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W93" s="6" t="b">
+        <f>IF(ROUND($P93/COLUMNS($P$1:W$1),0)=$P93/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A94" s="14"/>
       <c r="N94" s="7"/>
       <c r="O94" s="4">
         <f t="shared" si="8"/>
@@ -4159,8 +6372,15 @@
         <f>IF(ROUND($P94/COLUMNS($P$1:V$1),0)=$P94/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W94" s="6" t="b">
+        <f>IF(ROUND($P94/COLUMNS($P$1:W$1),0)=$P94/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="N95" s="7"/>
       <c r="O95" s="4">
         <f t="shared" si="8"/>
@@ -4194,8 +6414,15 @@
         <f>IF(ROUND($P95/COLUMNS($P$1:V$1),0)=$P95/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W95" s="6" t="b">
+        <f>IF(ROUND($P95/COLUMNS($P$1:W$1),0)=$P95/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="N96" s="7"/>
       <c r="O96" s="4">
         <f t="shared" si="8"/>
@@ -4229,8 +6456,15 @@
         <f>IF(ROUND($P96/COLUMNS($P$1:V$1),0)=$P96/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W96" s="6" t="b">
+        <f>IF(ROUND($P96/COLUMNS($P$1:W$1),0)=$P96/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="13" t="s">
+        <v>115</v>
+      </c>
       <c r="N97" s="7"/>
       <c r="O97" s="8">
         <f t="shared" si="8"/>
@@ -4264,8 +6498,15 @@
         <f>IF(ROUND($P97/COLUMNS($P$1:V$1),0)=$P97/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="14:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="W97" s="6" t="b">
+        <f>IF(ROUND($P97/COLUMNS($P$1:W$1),0)=$P97/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="N98" s="7"/>
       <c r="O98" s="4">
         <f t="shared" si="8"/>
@@ -4299,8 +6540,15 @@
         <f>IF(ROUND($P98/COLUMNS($P$1:V$1),0)=$P98/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W98" s="6" t="b">
+        <f>IF(ROUND($P98/COLUMNS($P$1:W$1),0)=$P98/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="N99" s="7"/>
       <c r="O99" s="4">
         <f t="shared" si="8"/>
@@ -4334,8 +6582,15 @@
         <f>IF(ROUND($P99/COLUMNS($P$1:V$1),0)=$P99/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W99" s="6" t="b">
+        <f>IF(ROUND($P99/COLUMNS($P$1:W$1),0)=$P99/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="N100" s="7"/>
       <c r="O100" s="4">
         <f t="shared" si="8"/>
@@ -4369,8 +6624,15 @@
         <f>IF(ROUND($P100/COLUMNS($P$1:V$1),0)=$P100/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W100" s="6" t="b">
+        <f>IF(ROUND($P100/COLUMNS($P$1:W$1),0)=$P100/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
+        <v>116</v>
+      </c>
       <c r="N101" s="7"/>
       <c r="O101" s="4">
         <f t="shared" si="8"/>
@@ -4404,8 +6666,15 @@
         <f>IF(ROUND($P101/COLUMNS($P$1:V$1),0)=$P101/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W101" s="6" t="b">
+        <f>IF(ROUND($P101/COLUMNS($P$1:W$1),0)=$P101/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A102" s="13" t="s">
+        <v>114</v>
+      </c>
       <c r="N102" s="7"/>
       <c r="O102" s="4">
         <f t="shared" si="8"/>
@@ -4439,8 +6708,13 @@
         <f>IF(ROUND($P102/COLUMNS($P$1:V$1),0)=$P102/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W102" s="6" t="b">
+        <f>IF(ROUND($P102/COLUMNS($P$1:W$1),0)=$P102/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A103" s="14"/>
       <c r="N103" s="7"/>
       <c r="O103" s="4">
         <f t="shared" si="8"/>
@@ -4474,8 +6748,15 @@
         <f>IF(ROUND($P103/COLUMNS($P$1:V$1),0)=$P103/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W103" s="6" t="b">
+        <f>IF(ROUND($P103/COLUMNS($P$1:W$1),0)=$P103/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A104" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="N104" s="7"/>
       <c r="O104" s="4">
         <f t="shared" si="8"/>
@@ -4509,8 +6790,15 @@
         <f>IF(ROUND($P104/COLUMNS($P$1:V$1),0)=$P104/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W104" s="6" t="b">
+        <f>IF(ROUND($P104/COLUMNS($P$1:W$1),0)=$P104/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A105" s="13" t="s">
+        <v>111</v>
+      </c>
       <c r="N105" s="7"/>
       <c r="O105" s="4">
         <f t="shared" si="8"/>
@@ -4544,8 +6832,15 @@
         <f>IF(ROUND($P105/COLUMNS($P$1:V$1),0)=$P105/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W105" s="6" t="b">
+        <f>IF(ROUND($P105/COLUMNS($P$1:W$1),0)=$P105/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="N106" s="7"/>
       <c r="O106" s="4">
         <f t="shared" si="8"/>
@@ -4579,8 +6874,15 @@
         <f>IF(ROUND($P106/COLUMNS($P$1:V$1),0)=$P106/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W106" s="6" t="b">
+        <f>IF(ROUND($P106/COLUMNS($P$1:W$1),0)=$P106/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A107" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="N107" s="7"/>
       <c r="O107" s="4">
         <f t="shared" si="8"/>
@@ -4614,8 +6916,15 @@
         <f>IF(ROUND($P107/COLUMNS($P$1:V$1),0)=$P107/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W107" s="6" t="b">
+        <f>IF(ROUND($P107/COLUMNS($P$1:W$1),0)=$P107/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A108" s="13" t="s">
+        <v>106</v>
+      </c>
       <c r="N108" s="7"/>
       <c r="O108" s="4">
         <f t="shared" si="8"/>
@@ -4649,8 +6958,15 @@
         <f>IF(ROUND($P108/COLUMNS($P$1:V$1),0)=$P108/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W108" s="6" t="b">
+        <f>IF(ROUND($P108/COLUMNS($P$1:W$1),0)=$P108/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="13" t="s">
+        <v>113</v>
+      </c>
       <c r="N109" s="7"/>
       <c r="O109" s="8">
         <f t="shared" si="8"/>
@@ -4684,8 +7000,15 @@
         <f>IF(ROUND($P109/COLUMNS($P$1:V$1),0)=$P109/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="14:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="W109" s="6" t="b">
+        <f>IF(ROUND($P109/COLUMNS($P$1:W$1),0)=$P109/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="13" t="s">
+        <v>108</v>
+      </c>
       <c r="N110" s="7"/>
       <c r="O110" s="4">
         <f t="shared" si="8"/>
@@ -4719,8 +7042,15 @@
         <f>IF(ROUND($P110/COLUMNS($P$1:V$1),0)=$P110/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W110" s="6" t="b">
+        <f>IF(ROUND($P110/COLUMNS($P$1:W$1),0)=$P110/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A111" s="13" t="s">
+        <v>114</v>
+      </c>
       <c r="N111" s="7"/>
       <c r="O111" s="4">
         <f t="shared" si="8"/>
@@ -4754,8 +7084,12 @@
         <f>IF(ROUND($P111/COLUMNS($P$1:V$1),0)=$P111/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W111" s="6" t="b">
+        <f>IF(ROUND($P111/COLUMNS($P$1:W$1),0)=$P111/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="N112" s="7"/>
       <c r="O112" s="4">
         <f t="shared" si="8"/>
@@ -4789,8 +7123,12 @@
         <f>IF(ROUND($P112/COLUMNS($P$1:V$1),0)=$P112/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W112" s="6" t="b">
+        <f>IF(ROUND($P112/COLUMNS($P$1:W$1),0)=$P112/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N113" s="7"/>
       <c r="O113" s="4">
         <f t="shared" si="8"/>
@@ -4824,8 +7162,12 @@
         <f>IF(ROUND($P113/COLUMNS($P$1:V$1),0)=$P113/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W113" s="6" t="b">
+        <f>IF(ROUND($P113/COLUMNS($P$1:W$1),0)=$P113/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N114" s="7"/>
       <c r="O114" s="4">
         <f t="shared" si="8"/>
@@ -4859,8 +7201,12 @@
         <f>IF(ROUND($P114/COLUMNS($P$1:V$1),0)=$P114/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W114" s="6" t="b">
+        <f>IF(ROUND($P114/COLUMNS($P$1:W$1),0)=$P114/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N115" s="7"/>
       <c r="O115" s="4">
         <f t="shared" si="8"/>
@@ -4894,8 +7240,12 @@
         <f>IF(ROUND($P115/COLUMNS($P$1:V$1),0)=$P115/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W115" s="6" t="b">
+        <f>IF(ROUND($P115/COLUMNS($P$1:W$1),0)=$P115/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N116" s="7"/>
       <c r="O116" s="4">
         <f t="shared" si="8"/>
@@ -4929,8 +7279,12 @@
         <f>IF(ROUND($P116/COLUMNS($P$1:V$1),0)=$P116/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W116" s="6" t="b">
+        <f>IF(ROUND($P116/COLUMNS($P$1:W$1),0)=$P116/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N117" s="7"/>
       <c r="O117" s="4">
         <f t="shared" si="8"/>
@@ -4964,8 +7318,12 @@
         <f>IF(ROUND($P117/COLUMNS($P$1:V$1),0)=$P117/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W117" s="6" t="b">
+        <f>IF(ROUND($P117/COLUMNS($P$1:W$1),0)=$P117/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N118" s="7"/>
       <c r="O118" s="4">
         <f t="shared" si="8"/>
@@ -4999,8 +7357,12 @@
         <f>IF(ROUND($P118/COLUMNS($P$1:V$1),0)=$P118/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W118" s="6" t="b">
+        <f>IF(ROUND($P118/COLUMNS($P$1:W$1),0)=$P118/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N119" s="7"/>
       <c r="O119" s="4">
         <f t="shared" si="8"/>
@@ -5034,8 +7396,12 @@
         <f>IF(ROUND($P119/COLUMNS($P$1:V$1),0)=$P119/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W119" s="6" t="b">
+        <f>IF(ROUND($P119/COLUMNS($P$1:W$1),0)=$P119/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N120" s="7"/>
       <c r="O120" s="4">
         <f t="shared" si="8"/>
@@ -5069,8 +7435,12 @@
         <f>IF(ROUND($P120/COLUMNS($P$1:V$1),0)=$P120/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W120" s="6" t="b">
+        <f>IF(ROUND($P120/COLUMNS($P$1:W$1),0)=$P120/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="14:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N121" s="7"/>
       <c r="O121" s="8">
         <f t="shared" si="8"/>
@@ -5104,8 +7474,12 @@
         <f>IF(ROUND($P121/COLUMNS($P$1:V$1),0)=$P121/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="14:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="W121" s="6" t="b">
+        <f>IF(ROUND($P121/COLUMNS($P$1:W$1),0)=$P121/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="14:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="N122" s="7"/>
       <c r="O122" s="4">
         <f t="shared" si="8"/>
@@ -5139,8 +7513,12 @@
         <f>IF(ROUND($P122/COLUMNS($P$1:V$1),0)=$P122/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W122" s="6" t="b">
+        <f>IF(ROUND($P122/COLUMNS($P$1:W$1),0)=$P122/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N123" s="7"/>
       <c r="O123" s="4">
         <f t="shared" si="8"/>
@@ -5174,8 +7552,12 @@
         <f>IF(ROUND($P123/COLUMNS($P$1:V$1),0)=$P123/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W123" s="6" t="b">
+        <f>IF(ROUND($P123/COLUMNS($P$1:W$1),0)=$P123/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N124" s="7"/>
       <c r="O124" s="4">
         <f t="shared" si="8"/>
@@ -5209,8 +7591,12 @@
         <f>IF(ROUND($P124/COLUMNS($P$1:V$1),0)=$P124/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W124" s="6" t="b">
+        <f>IF(ROUND($P124/COLUMNS($P$1:W$1),0)=$P124/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N125" s="7"/>
       <c r="O125" s="4">
         <f t="shared" si="8"/>
@@ -5244,8 +7630,12 @@
         <f>IF(ROUND($P125/COLUMNS($P$1:V$1),0)=$P125/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W125" s="6" t="b">
+        <f>IF(ROUND($P125/COLUMNS($P$1:W$1),0)=$P125/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N126" s="7"/>
       <c r="O126" s="4">
         <f t="shared" si="8"/>
@@ -5279,8 +7669,12 @@
         <f>IF(ROUND($P126/COLUMNS($P$1:V$1),0)=$P126/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W126" s="6" t="b">
+        <f>IF(ROUND($P126/COLUMNS($P$1:W$1),0)=$P126/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N127" s="7"/>
       <c r="O127" s="4">
         <f t="shared" si="8"/>
@@ -5314,8 +7708,12 @@
         <f>IF(ROUND($P127/COLUMNS($P$1:V$1),0)=$P127/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W127" s="6" t="b">
+        <f>IF(ROUND($P127/COLUMNS($P$1:W$1),0)=$P127/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N128" s="7"/>
       <c r="O128" s="4">
         <f t="shared" si="8"/>
@@ -5349,8 +7747,12 @@
         <f>IF(ROUND($P128/COLUMNS($P$1:V$1),0)=$P128/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W128" s="6" t="b">
+        <f>IF(ROUND($P128/COLUMNS($P$1:W$1),0)=$P128/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N129" s="7"/>
       <c r="O129" s="4">
         <f t="shared" si="8"/>
@@ -5384,8 +7786,12 @@
         <f>IF(ROUND($P129/COLUMNS($P$1:V$1),0)=$P129/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W129" s="6" t="b">
+        <f>IF(ROUND($P129/COLUMNS($P$1:W$1),0)=$P129/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N130" s="7"/>
       <c r="O130" s="4">
         <f t="shared" si="8"/>
@@ -5419,8 +7825,12 @@
         <f>IF(ROUND($P130/COLUMNS($P$1:V$1),0)=$P130/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W130" s="6" t="b">
+        <f>IF(ROUND($P130/COLUMNS($P$1:W$1),0)=$P130/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N131" s="7"/>
       <c r="O131" s="4">
         <f t="shared" ref="O131:O151" si="10">150*24/P131</f>
@@ -5454,8 +7864,12 @@
         <f>IF(ROUND($P131/COLUMNS($P$1:V$1),0)=$P131/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W131" s="6" t="b">
+        <f>IF(ROUND($P131/COLUMNS($P$1:W$1),0)=$P131/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N132" s="7"/>
       <c r="O132" s="4">
         <f t="shared" si="10"/>
@@ -5489,8 +7903,12 @@
         <f>IF(ROUND($P132/COLUMNS($P$1:V$1),0)=$P132/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W132" s="6" t="b">
+        <f>IF(ROUND($P132/COLUMNS($P$1:W$1),0)=$P132/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="14:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N133" s="7"/>
       <c r="O133" s="8">
         <f t="shared" si="10"/>
@@ -5524,8 +7942,12 @@
         <f>IF(ROUND($P133/COLUMNS($P$1:V$1),0)=$P133/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="14:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="W133" s="6" t="b">
+        <f>IF(ROUND($P133/COLUMNS($P$1:W$1),0)=$P133/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="14:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="N134" s="7"/>
       <c r="O134" s="4">
         <f t="shared" si="10"/>
@@ -5559,8 +7981,12 @@
         <f>IF(ROUND($P134/COLUMNS($P$1:V$1),0)=$P134/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W134" s="6" t="b">
+        <f>IF(ROUND($P134/COLUMNS($P$1:W$1),0)=$P134/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N135" s="7"/>
       <c r="O135" s="4">
         <f t="shared" si="10"/>
@@ -5594,8 +8020,12 @@
         <f>IF(ROUND($P135/COLUMNS($P$1:V$1),0)=$P135/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W135" s="6" t="b">
+        <f>IF(ROUND($P135/COLUMNS($P$1:W$1),0)=$P135/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N136" s="7"/>
       <c r="O136" s="4">
         <f t="shared" si="10"/>
@@ -5629,8 +8059,12 @@
         <f>IF(ROUND($P136/COLUMNS($P$1:V$1),0)=$P136/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W136" s="6" t="b">
+        <f>IF(ROUND($P136/COLUMNS($P$1:W$1),0)=$P136/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N137" s="7"/>
       <c r="O137" s="4">
         <f t="shared" si="10"/>
@@ -5664,8 +8098,12 @@
         <f>IF(ROUND($P137/COLUMNS($P$1:V$1),0)=$P137/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W137" s="6" t="b">
+        <f>IF(ROUND($P137/COLUMNS($P$1:W$1),0)=$P137/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N138" s="7"/>
       <c r="O138" s="4">
         <f t="shared" si="10"/>
@@ -5699,8 +8137,12 @@
         <f>IF(ROUND($P138/COLUMNS($P$1:V$1),0)=$P138/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W138" s="6" t="b">
+        <f>IF(ROUND($P138/COLUMNS($P$1:W$1),0)=$P138/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N139" s="7"/>
       <c r="O139" s="4">
         <f t="shared" si="10"/>
@@ -5734,8 +8176,12 @@
         <f>IF(ROUND($P139/COLUMNS($P$1:V$1),0)=$P139/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W139" s="6" t="b">
+        <f>IF(ROUND($P139/COLUMNS($P$1:W$1),0)=$P139/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N140" s="7"/>
       <c r="O140" s="4">
         <f t="shared" si="10"/>
@@ -5769,8 +8215,12 @@
         <f>IF(ROUND($P140/COLUMNS($P$1:V$1),0)=$P140/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W140" s="6" t="b">
+        <f>IF(ROUND($P140/COLUMNS($P$1:W$1),0)=$P140/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N141" s="7"/>
       <c r="O141" s="4">
         <f t="shared" si="10"/>
@@ -5804,8 +8254,12 @@
         <f>IF(ROUND($P141/COLUMNS($P$1:V$1),0)=$P141/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W141" s="6" t="b">
+        <f>IF(ROUND($P141/COLUMNS($P$1:W$1),0)=$P141/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N142" s="7"/>
       <c r="O142" s="4">
         <f t="shared" si="10"/>
@@ -5839,8 +8293,12 @@
         <f>IF(ROUND($P142/COLUMNS($P$1:V$1),0)=$P142/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W142" s="6" t="b">
+        <f>IF(ROUND($P142/COLUMNS($P$1:W$1),0)=$P142/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N143" s="7"/>
       <c r="O143" s="4">
         <f t="shared" si="10"/>
@@ -5874,8 +8332,12 @@
         <f>IF(ROUND($P143/COLUMNS($P$1:V$1),0)=$P143/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W143" s="6" t="b">
+        <f>IF(ROUND($P143/COLUMNS($P$1:W$1),0)=$P143/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N144" s="7"/>
       <c r="O144" s="4">
         <f t="shared" si="10"/>
@@ -5909,8 +8371,12 @@
         <f>IF(ROUND($P144/COLUMNS($P$1:V$1),0)=$P144/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="14:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W144" s="6" t="b">
+        <f>IF(ROUND($P144/COLUMNS($P$1:W$1),0)=$P144/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="14:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N145" s="7"/>
       <c r="O145" s="8">
         <f t="shared" si="10"/>
@@ -5944,8 +8410,12 @@
         <f>IF(ROUND($P145/COLUMNS($P$1:V$1),0)=$P145/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="14:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="W145" s="6" t="b">
+        <f>IF(ROUND($P145/COLUMNS($P$1:W$1),0)=$P145/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="14:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="N146" s="7"/>
       <c r="O146" s="4">
         <f t="shared" si="10"/>
@@ -5979,8 +8449,12 @@
         <f>IF(ROUND($P146/COLUMNS($P$1:V$1),0)=$P146/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W146" s="6" t="b">
+        <f>IF(ROUND($P146/COLUMNS($P$1:W$1),0)=$P146/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N147" s="7"/>
       <c r="O147" s="4">
         <f t="shared" si="10"/>
@@ -6014,8 +8488,12 @@
         <f>IF(ROUND($P147/COLUMNS($P$1:V$1),0)=$P147/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W147" s="6" t="b">
+        <f>IF(ROUND($P147/COLUMNS($P$1:W$1),0)=$P147/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N148" s="7"/>
       <c r="O148" s="4">
         <f t="shared" si="10"/>
@@ -6049,8 +8527,12 @@
         <f>IF(ROUND($P148/COLUMNS($P$1:V$1),0)=$P148/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W148" s="6" t="b">
+        <f>IF(ROUND($P148/COLUMNS($P$1:W$1),0)=$P148/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N149" s="7"/>
       <c r="O149" s="4">
         <f t="shared" si="10"/>
@@ -6084,8 +8566,12 @@
         <f>IF(ROUND($P149/COLUMNS($P$1:V$1),0)=$P149/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W149" s="6" t="b">
+        <f>IF(ROUND($P149/COLUMNS($P$1:W$1),0)=$P149/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N150" s="7"/>
       <c r="O150" s="4">
         <f t="shared" si="10"/>
@@ -6119,8 +8605,12 @@
         <f>IF(ROUND($P150/COLUMNS($P$1:V$1),0)=$P150/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W150" s="6" t="b">
+        <f>IF(ROUND($P150/COLUMNS($P$1:W$1),0)=$P150/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="14:23" x14ac:dyDescent="0.25">
       <c r="N151" s="7"/>
       <c r="O151" s="4">
         <f t="shared" si="10"/>
@@ -6154,8 +8644,12 @@
         <f>IF(ROUND($P151/COLUMNS($P$1:V$1),0)=$P151/COLUMNS($P$1:V$1),TRUE,FALSE)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="14:22" x14ac:dyDescent="0.25">
+      <c r="W151" s="6" t="b">
+        <f>IF(ROUND($P151/COLUMNS($P$1:W$1),0)=$P151/COLUMNS($P$1:W$1),TRUE,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="14:23" x14ac:dyDescent="0.25">
       <c r="O152" s="4"/>
       <c r="Q152" s="6"/>
       <c r="R152" s="6"/>
@@ -6164,7 +8658,7 @@
       <c r="U152" s="6"/>
       <c r="V152" s="6"/>
     </row>
-    <row r="153" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="153" spans="14:23" x14ac:dyDescent="0.25">
       <c r="O153" s="4"/>
       <c r="Q153" s="6"/>
       <c r="R153" s="6"/>
@@ -6173,7 +8667,7 @@
       <c r="U153" s="6"/>
       <c r="V153" s="6"/>
     </row>
-    <row r="154" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="154" spans="14:23" x14ac:dyDescent="0.25">
       <c r="O154" s="4"/>
       <c r="Q154" s="6"/>
       <c r="R154" s="6"/>
@@ -6182,7 +8676,7 @@
       <c r="U154" s="6"/>
       <c r="V154" s="6"/>
     </row>
-    <row r="155" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="155" spans="14:23" x14ac:dyDescent="0.25">
       <c r="O155" s="4"/>
       <c r="Q155" s="6"/>
       <c r="R155" s="6"/>
@@ -6191,7 +8685,7 @@
       <c r="U155" s="6"/>
       <c r="V155" s="6"/>
     </row>
-    <row r="156" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="156" spans="14:23" x14ac:dyDescent="0.25">
       <c r="O156" s="4"/>
       <c r="Q156" s="6"/>
       <c r="R156" s="6"/>
@@ -6200,7 +8694,7 @@
       <c r="U156" s="6"/>
       <c r="V156" s="6"/>
     </row>
-    <row r="157" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="157" spans="14:23" x14ac:dyDescent="0.25">
       <c r="O157" s="4"/>
       <c r="Q157" s="6"/>
       <c r="R157" s="6"/>
@@ -6209,7 +8703,7 @@
       <c r="U157" s="6"/>
       <c r="V157" s="6"/>
     </row>
-    <row r="158" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="158" spans="14:23" x14ac:dyDescent="0.25">
       <c r="O158" s="4"/>
       <c r="Q158" s="6"/>
       <c r="R158" s="6"/>
@@ -6218,7 +8712,7 @@
       <c r="U158" s="6"/>
       <c r="V158" s="6"/>
     </row>
-    <row r="159" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="159" spans="14:23" x14ac:dyDescent="0.25">
       <c r="O159" s="4"/>
       <c r="Q159" s="6"/>
       <c r="R159" s="6"/>
@@ -6227,7 +8721,7 @@
       <c r="U159" s="6"/>
       <c r="V159" s="6"/>
     </row>
-    <row r="160" spans="14:22" x14ac:dyDescent="0.25">
+    <row r="160" spans="14:23" x14ac:dyDescent="0.25">
       <c r="O160" s="4"/>
       <c r="Q160" s="6"/>
       <c r="R160" s="6"/>
@@ -6238,7 +8732,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="Q2:V160">
+  <conditionalFormatting sqref="Q2:V160 W2:W151">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="FALSE">
       <formula>NOT(ISERROR(SEARCH("FALSE",Q2)))</formula>
     </cfRule>
@@ -6255,7 +8749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A15453-320F-4AEB-A039-FB00CC47D3C2}">
   <dimension ref="F1:S57"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
@@ -6282,11 +8776,11 @@
         <v>22</v>
       </c>
       <c r="I2">
-        <f>_xlfn.FLOOR.MATH((H2/$K$2+1))</f>
+        <f t="shared" ref="I2:I34" si="0">_xlfn.FLOOR.MATH((H2/$K$2+1))</f>
         <v>1</v>
       </c>
       <c r="J2">
-        <f>H2-(I2-1)*$K$2</f>
+        <f t="shared" ref="J2:J34" si="1">H2-(I2-1)*$K$2</f>
         <v>22</v>
       </c>
       <c r="K2">
@@ -6303,7 +8797,7 @@
         <v>52</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G56" si="0">HEX2DEC(F3)</f>
+        <f t="shared" ref="G3:G56" si="2">HEX2DEC(F3)</f>
         <v>12</v>
       </c>
       <c r="H3">
@@ -6311,15 +8805,15 @@
         <v>34</v>
       </c>
       <c r="I3">
-        <f>_xlfn.FLOOR.MATH((H3/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J3">
-        <f>H3-(I3-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L56" si="1">_xlfn.FLOOR.MATH(J3/$L$1)+1</f>
+        <f t="shared" ref="L3:L56" si="3">_xlfn.FLOOR.MATH(J3/$L$1)+1</f>
         <v>2</v>
       </c>
     </row>
@@ -6328,7 +8822,7 @@
         <v>52</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H4">
@@ -6336,15 +8830,15 @@
         <v>46</v>
       </c>
       <c r="I4">
-        <f>_xlfn.FLOOR.MATH((H4/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J4">
-        <f>H4-(I4-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="L4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -6353,7 +8847,7 @@
         <v>52</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H5">
@@ -6361,15 +8855,15 @@
         <v>58</v>
       </c>
       <c r="I5">
-        <f>_xlfn.FLOOR.MATH((H5/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J5">
-        <f>H5-(I5-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="L5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -6378,7 +8872,7 @@
         <v>52</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H6">
@@ -6386,15 +8880,15 @@
         <v>70</v>
       </c>
       <c r="I6">
-        <f>_xlfn.FLOOR.MATH((H6/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J6">
-        <f>H6-(I6-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="L6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -6403,7 +8897,7 @@
         <v>53</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="H7">
@@ -6411,15 +8905,15 @@
         <v>84</v>
       </c>
       <c r="I7">
-        <f>_xlfn.FLOOR.MATH((H7/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J7">
-        <f>H7-(I7-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="L7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6428,7 +8922,7 @@
         <v>52</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H8">
@@ -6436,15 +8930,15 @@
         <v>96</v>
       </c>
       <c r="I8">
-        <f>_xlfn.FLOOR.MATH((H8/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J8">
-        <f>H8-(I8-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="L8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -6453,7 +8947,7 @@
         <v>18</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="H9">
@@ -6461,15 +8955,15 @@
         <v>120</v>
       </c>
       <c r="I9">
-        <f>_xlfn.FLOOR.MATH((H9/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J9">
-        <f>H9-(I9-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="L9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -6478,7 +8972,7 @@
         <v>54</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="H10">
@@ -6486,15 +8980,15 @@
         <v>166</v>
       </c>
       <c r="I10">
-        <f>_xlfn.FLOOR.MATH((H10/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J10">
-        <f>H10-(I10-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6503,7 +8997,7 @@
         <v>52</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H11">
@@ -6511,15 +9005,15 @@
         <v>178</v>
       </c>
       <c r="I11">
-        <f>_xlfn.FLOOR.MATH((H11/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J11">
-        <f>H11-(I11-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="L11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -6528,7 +9022,7 @@
         <v>52</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H12">
@@ -6536,15 +9030,15 @@
         <v>190</v>
       </c>
       <c r="I12">
-        <f>_xlfn.FLOOR.MATH((H12/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J12">
-        <f>H12-(I12-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="L12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -6553,7 +9047,7 @@
         <v>52</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H13">
@@ -6561,15 +9055,15 @@
         <v>202</v>
       </c>
       <c r="I13">
-        <f>_xlfn.FLOOR.MATH((H13/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J13">
-        <f>H13-(I13-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="L13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -6578,7 +9072,7 @@
         <v>52</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H14">
@@ -6586,15 +9080,15 @@
         <v>214</v>
       </c>
       <c r="I14">
-        <f>_xlfn.FLOOR.MATH((H14/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J14">
-        <f>H14-(I14-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="L14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -6603,7 +9097,7 @@
         <v>53</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="H15">
@@ -6611,15 +9105,15 @@
         <v>228</v>
       </c>
       <c r="I15">
-        <f>_xlfn.FLOOR.MATH((H15/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J15">
-        <f>H15-(I15-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="L15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6628,7 +9122,7 @@
         <v>52</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H16">
@@ -6636,15 +9130,15 @@
         <v>240</v>
       </c>
       <c r="I16">
-        <f>_xlfn.FLOOR.MATH((H16/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J16">
-        <f>H16-(I16-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="L16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -6653,7 +9147,7 @@
         <v>55</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="H17">
@@ -6661,15 +9155,15 @@
         <v>264</v>
       </c>
       <c r="I17">
-        <f>_xlfn.FLOOR.MATH((H17/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J17">
-        <f>H17-(I17-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="L17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -6678,7 +9172,7 @@
         <v>54</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="H18">
@@ -6686,15 +9180,15 @@
         <v>310</v>
       </c>
       <c r="I18">
-        <f>_xlfn.FLOOR.MATH((H18/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J18">
-        <f>H18-(I18-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="L18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6703,7 +9197,7 @@
         <v>52</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H19">
@@ -6711,15 +9205,15 @@
         <v>322</v>
       </c>
       <c r="I19">
-        <f>_xlfn.FLOOR.MATH((H19/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J19">
-        <f>H19-(I19-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="L19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -6728,7 +9222,7 @@
         <v>52</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H20">
@@ -6736,15 +9230,15 @@
         <v>334</v>
       </c>
       <c r="I20">
-        <f>_xlfn.FLOOR.MATH((H20/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J20">
-        <f>H20-(I20-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="L20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -6753,7 +9247,7 @@
         <v>52</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H21">
@@ -6761,15 +9255,15 @@
         <v>346</v>
       </c>
       <c r="I21">
-        <f>_xlfn.FLOOR.MATH((H21/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J21">
-        <f>H21-(I21-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="L21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -6778,7 +9272,7 @@
         <v>52</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H22">
@@ -6786,15 +9280,15 @@
         <v>358</v>
       </c>
       <c r="I22">
-        <f>_xlfn.FLOOR.MATH((H22/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J22">
-        <f>H22-(I22-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="L22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -6803,7 +9297,7 @@
         <v>53</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="H23">
@@ -6811,15 +9305,15 @@
         <v>372</v>
       </c>
       <c r="I23">
-        <f>_xlfn.FLOOR.MATH((H23/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J23">
-        <f>H23-(I23-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="L23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -6828,7 +9322,7 @@
         <v>52</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H24">
@@ -6836,15 +9330,15 @@
         <v>384</v>
       </c>
       <c r="I24">
-        <f>_xlfn.FLOOR.MATH((H24/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J24">
-        <f>H24-(I24-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="L24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -6853,7 +9347,7 @@
         <v>55</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="H25">
@@ -6861,15 +9355,15 @@
         <v>408</v>
       </c>
       <c r="I25">
-        <f>_xlfn.FLOOR.MATH((H25/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="J25">
-        <f>H25-(I25-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="L25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -6878,7 +9372,7 @@
         <v>54</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="H26">
@@ -6886,15 +9380,15 @@
         <v>454</v>
       </c>
       <c r="I26">
-        <f>_xlfn.FLOOR.MATH((H26/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J26">
-        <f>H26-(I26-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="L26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -6903,7 +9397,7 @@
         <v>52</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H27">
@@ -6911,15 +9405,15 @@
         <v>466</v>
       </c>
       <c r="I27">
-        <f>_xlfn.FLOOR.MATH((H27/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J27">
-        <f>H27-(I27-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="L27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -6928,7 +9422,7 @@
         <v>52</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H28">
@@ -6936,15 +9430,15 @@
         <v>478</v>
       </c>
       <c r="I28">
-        <f>_xlfn.FLOOR.MATH((H28/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J28">
-        <f>H28-(I28-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="L28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -6953,7 +9447,7 @@
         <v>52</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H29">
@@ -6961,15 +9455,15 @@
         <v>490</v>
       </c>
       <c r="I29">
-        <f>_xlfn.FLOOR.MATH((H29/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J29">
-        <f>H29-(I29-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="L29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -6978,7 +9472,7 @@
         <v>52</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H30">
@@ -6986,15 +9480,15 @@
         <v>502</v>
       </c>
       <c r="I30">
-        <f>_xlfn.FLOOR.MATH((H30/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J30">
-        <f>H30-(I30-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="L30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -7003,7 +9497,7 @@
         <v>53</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="H31">
@@ -7011,15 +9505,15 @@
         <v>516</v>
       </c>
       <c r="I31">
-        <f>_xlfn.FLOOR.MATH((H31/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J31">
-        <f>H31-(I31-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="L31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7028,7 +9522,7 @@
         <v>52</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H32">
@@ -7036,15 +9530,15 @@
         <v>528</v>
       </c>
       <c r="I32">
-        <f>_xlfn.FLOOR.MATH((H32/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J32">
-        <f>H32-(I32-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="L32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -7053,7 +9547,7 @@
         <v>55</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="H33">
@@ -7061,15 +9555,15 @@
         <v>552</v>
       </c>
       <c r="I33">
-        <f>_xlfn.FLOOR.MATH((H33/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J33">
-        <f>H33-(I33-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="L33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="O33">
@@ -7084,7 +9578,7 @@
         <v>54</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="H34">
@@ -7092,18 +9586,18 @@
         <v>598</v>
       </c>
       <c r="I34">
-        <f>_xlfn.FLOOR.MATH((H34/$K$2+1))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J34">
-        <f>H34-(I34-1)*$K$2</f>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="K34">
         <v>96</v>
       </c>
       <c r="L34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O34">
@@ -7118,7 +9612,7 @@
         <v>52</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H35">
@@ -7134,7 +9628,7 @@
         <v>34</v>
       </c>
       <c r="L35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O35">
@@ -7149,7 +9643,7 @@
         <v>52</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H36">
@@ -7157,7 +9651,7 @@
         <v>622</v>
       </c>
       <c r="I36">
-        <f t="shared" ref="I36:I56" si="2">_xlfn.FLOOR.MATH(((H36-$K$2*4)/$K$34+1))+4</f>
+        <f t="shared" ref="I36:I56" si="4">_xlfn.FLOOR.MATH(((H36-$K$2*4)/$K$34+1))+4</f>
         <v>5</v>
       </c>
       <c r="J36">
@@ -7165,7 +9659,7 @@
         <v>46</v>
       </c>
       <c r="L36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O36">
@@ -7180,7 +9674,7 @@
         <v>52</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H37">
@@ -7188,7 +9682,7 @@
         <v>634</v>
       </c>
       <c r="I37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J37">
@@ -7196,7 +9690,7 @@
         <v>58</v>
       </c>
       <c r="L37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O37">
@@ -7211,7 +9705,7 @@
         <v>52</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H38">
@@ -7219,7 +9713,7 @@
         <v>646</v>
       </c>
       <c r="I38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J38">
@@ -7227,7 +9721,7 @@
         <v>70</v>
       </c>
       <c r="L38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O38">
@@ -7245,7 +9739,7 @@
         <v>53</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="H39">
@@ -7253,15 +9747,15 @@
         <v>660</v>
       </c>
       <c r="I39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="J39">
-        <f t="shared" ref="J39:J50" si="3">H39-4*$K$2-(I39-5)*$K$34</f>
+        <f t="shared" ref="J39:J47" si="5">H39-4*$K$2-(I39-5)*$K$34</f>
         <v>84</v>
       </c>
       <c r="L39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="O39">
@@ -7282,7 +9776,7 @@
         <v>52</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H40">
@@ -7290,15 +9784,15 @@
         <v>672</v>
       </c>
       <c r="I40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="J40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S40" t="s">
@@ -7310,7 +9804,7 @@
         <v>56</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="H41">
@@ -7318,15 +9812,15 @@
         <v>694</v>
       </c>
       <c r="I41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="J41">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="L41">
         <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="L41">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S41" s="5" t="s">
@@ -7338,7 +9832,7 @@
         <v>52</v>
       </c>
       <c r="G42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H42">
@@ -7346,15 +9840,15 @@
         <v>706</v>
       </c>
       <c r="I42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="J42">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="L42">
         <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="L42">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -7363,7 +9857,7 @@
         <v>52</v>
       </c>
       <c r="G43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H43">
@@ -7371,15 +9865,15 @@
         <v>718</v>
       </c>
       <c r="I43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="J43">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="L43">
         <f t="shared" si="3"/>
-        <v>46</v>
-      </c>
-      <c r="L43">
-        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="R43">
@@ -7394,7 +9888,7 @@
         <v>52</v>
       </c>
       <c r="G44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H44">
@@ -7402,15 +9896,15 @@
         <v>730</v>
       </c>
       <c r="I44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="J44">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="L44">
         <f t="shared" si="3"/>
-        <v>58</v>
-      </c>
-      <c r="L44">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -7419,7 +9913,7 @@
         <v>52</v>
       </c>
       <c r="G45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H45">
@@ -7427,15 +9921,15 @@
         <v>742</v>
       </c>
       <c r="I45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="J45">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="L45">
         <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="L45">
-        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -7444,7 +9938,7 @@
         <v>53</v>
       </c>
       <c r="G46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="H46">
@@ -7452,15 +9946,15 @@
         <v>756</v>
       </c>
       <c r="I46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="J46">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="L46">
         <f t="shared" si="3"/>
-        <v>84</v>
-      </c>
-      <c r="L46">
-        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -7469,7 +9963,7 @@
         <v>52</v>
       </c>
       <c r="G47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H47">
@@ -7477,15 +9971,15 @@
         <v>768</v>
       </c>
       <c r="I47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="J47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L47">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -7494,7 +9988,7 @@
         <v>56</v>
       </c>
       <c r="G48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="H48">
@@ -7502,7 +9996,7 @@
         <v>790</v>
       </c>
       <c r="I48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="J48">
@@ -7514,7 +10008,7 @@
         <v>108</v>
       </c>
       <c r="L48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -7523,7 +10017,7 @@
         <v>52</v>
       </c>
       <c r="G49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H49">
@@ -7531,15 +10025,15 @@
         <v>802</v>
       </c>
       <c r="I49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="J49">
-        <f t="shared" ref="J49:J56" si="4">H49-4*$K$2-2*$K$34-(I49-7)*$K$48</f>
+        <f t="shared" ref="J49:J55" si="6">H49-4*$K$2-2*$K$34-(I49-7)*$K$48</f>
         <v>34</v>
       </c>
       <c r="L49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -7548,7 +10042,7 @@
         <v>52</v>
       </c>
       <c r="G50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H50">
@@ -7556,15 +10050,15 @@
         <v>814</v>
       </c>
       <c r="I50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="J50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>46</v>
       </c>
       <c r="L50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -7573,7 +10067,7 @@
         <v>64</v>
       </c>
       <c r="G51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H51">
@@ -7581,15 +10075,15 @@
         <v>816</v>
       </c>
       <c r="I51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="J51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="L51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -7598,7 +10092,7 @@
         <v>52</v>
       </c>
       <c r="G52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H52">
@@ -7606,15 +10100,15 @@
         <v>828</v>
       </c>
       <c r="I52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="J52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="L52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -7623,7 +10117,7 @@
         <v>52</v>
       </c>
       <c r="G53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H53">
@@ -7631,15 +10125,15 @@
         <v>840</v>
       </c>
       <c r="I53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="J53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="L53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7648,7 +10142,7 @@
         <v>52</v>
       </c>
       <c r="G54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="H54">
@@ -7656,15 +10150,15 @@
         <v>852</v>
       </c>
       <c r="I54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="J54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>84</v>
       </c>
       <c r="L54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7673,7 +10167,7 @@
         <v>65</v>
       </c>
       <c r="G55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H55">
@@ -7681,15 +10175,15 @@
         <v>860</v>
       </c>
       <c r="I55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="J55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="L55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -7698,7 +10192,7 @@
         <v>66</v>
       </c>
       <c r="G56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>148</v>
       </c>
       <c r="H56">
@@ -7706,7 +10200,7 @@
         <v>1008</v>
       </c>
       <c r="I56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="J56">
@@ -7714,7 +10208,7 @@
         <v>-12</v>
       </c>
       <c r="L56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>

--- a/Music Values.xlsx
+++ b/Music Values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\root\custom-channelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE7F2CA-5A46-42D0-B45B-510D8CD04925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F2858A-292B-4739-B3E3-66124BF9053C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25920" yWindow="495" windowWidth="10920" windowHeight="12015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26280" yWindow="705" windowWidth="29040" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2261,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:A111"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
